--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E39670-5E33-4296-97D0-D01D5FCCBDBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D03711-A517-4380-9C86-CF3C8386B819}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{B237FB26-AF6C-4F75-BED3-6EC874FB0F36}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{C42FCD73-EBD7-4AF5-9AC2-92FE7BBB7B17}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="166">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -116,9 +116,6 @@
     <t>خالد عبد الرحمن</t>
   </si>
   <si>
-    <t>محمد أمانة+ أبو هاشم</t>
-  </si>
-  <si>
     <t>أبو رامي أبو شمالة</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>فكة</t>
   </si>
   <si>
-    <t>مصاريف مكتب أسامة</t>
-  </si>
-  <si>
     <t>استثمار - حبيب</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>حوسو</t>
   </si>
   <si>
-    <t>أسهم الأسلامي الفلسطين27250</t>
-  </si>
-  <si>
     <t>جودت الريس</t>
   </si>
   <si>
@@ -479,16 +470,7 @@
     <t>الريال   ::</t>
   </si>
   <si>
-    <t>المجموع المديونيات</t>
-  </si>
-  <si>
     <t xml:space="preserve">اليورو :: </t>
-  </si>
-  <si>
-    <t>أبو مريد الهليس</t>
-  </si>
-  <si>
-    <t>الحويطي</t>
   </si>
   <si>
     <r>
@@ -522,55 +504,76 @@
     <t>خالد الغندور</t>
   </si>
   <si>
-    <t>رشدي ابوسيدو</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
-    <t>أبو داير</t>
-  </si>
-  <si>
     <t xml:space="preserve">أبو فياض </t>
   </si>
   <si>
     <t>محمد ثابت</t>
   </si>
   <si>
-    <t>أبو أنس أو سيدو</t>
-  </si>
-  <si>
     <t>مالك أبو معروف</t>
   </si>
   <si>
-    <t>سامي الحلو</t>
-  </si>
-  <si>
     <t>أبو يعقوب لظن</t>
   </si>
   <si>
-    <t xml:space="preserve"> ميار دلول سندس للصرافة</t>
-  </si>
-  <si>
     <t>يورو</t>
   </si>
   <si>
-    <t xml:space="preserve"> ميار  </t>
-  </si>
-  <si>
-    <t>عدنان سكيك</t>
-  </si>
-  <si>
-    <t>حسام صالحة</t>
-  </si>
-  <si>
-    <t>صندوق 2 احمد صندوق 2 أحـــــــــــــــــمـــــــــــــــــد</t>
-  </si>
-  <si>
-    <t>شحاتة بـــــــــــنــــــــــك</t>
-  </si>
-  <si>
-    <t>ساعد - سعد</t>
+    <t>محمد فورة</t>
+  </si>
+  <si>
+    <t>أبو علي أبو طويلة  2 تشغيل</t>
+  </si>
+  <si>
+    <t>جهاد الريس</t>
+  </si>
+  <si>
+    <t>تجميع كهرباء</t>
+  </si>
+  <si>
+    <t>أبو علاء سكيك</t>
+  </si>
+  <si>
+    <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
+  </si>
+  <si>
+    <t>أفطار صائم</t>
+  </si>
+  <si>
+    <t>اياد الريس</t>
+  </si>
+  <si>
+    <t>نهاد المدهون   أبو فياض</t>
+  </si>
+  <si>
+    <t>أبوداير</t>
+  </si>
+  <si>
+    <t>سامي احلو</t>
+  </si>
+  <si>
+    <t>ام خليل لظن</t>
+  </si>
+  <si>
+    <t>مالك الرنتيسي</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منيب أبو سيد </t>
+  </si>
+  <si>
+    <t>عديات موظفين</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق 2</t>
+  </si>
+  <si>
+    <t>شـحـاتة بــــــنــــك</t>
   </si>
 </sst>
 </file>
@@ -723,14 +726,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -760,6 +755,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -865,7 +866,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,7 +914,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -921,14 +921,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1272,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="J151" sqref="J2:J151"/>
+    <sheetView rightToLeft="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="K154" sqref="K2:K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,19 +1293,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1344,24 +1348,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="17">
-        <v>6100</v>
+        <v>300</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-6100</v>
+        <v>-300</v>
       </c>
       <c r="E3" s="17">
-        <v>3724</v>
+        <v>17535</v>
       </c>
       <c r="F3" s="17">
-        <v>0</v>
+        <v>9362</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-3724</v>
+        <v>-8173</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
@@ -1411,7 +1415,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1427,11 +1431,11 @@
         <v>7500</v>
       </c>
       <c r="F5" s="17">
-        <v>9225</v>
+        <v>9500</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>1725</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
@@ -1624,34 +1628,34 @@
         <v>8</v>
       </c>
       <c r="B11" s="17">
-        <v>39</v>
+        <v>12664</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-12664</v>
       </c>
       <c r="E11" s="17">
-        <v>5067</v>
+        <v>38197</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-5067</v>
+        <v>-38197</v>
       </c>
       <c r="H11" s="17">
-        <v>11200</v>
+        <v>21000</v>
       </c>
       <c r="I11" s="17">
         <v>0</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>-11200</v>
+        <v>-21000</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1694,24 +1698,24 @@
         <v>10</v>
       </c>
       <c r="B13" s="17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E13" s="17">
-        <v>19000</v>
+        <v>22329</v>
       </c>
       <c r="F13" s="17">
-        <v>9107</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>-9893</v>
+        <v>-22329</v>
       </c>
       <c r="H13" s="17">
         <v>0</v>
@@ -1726,7 +1730,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1777,11 +1781,11 @@
         <v>800</v>
       </c>
       <c r="F15" s="17">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
@@ -1799,34 +1803,34 @@
         <v>12</v>
       </c>
       <c r="B16" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="17">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="E16" s="17">
-        <v>2050</v>
+        <v>38290</v>
       </c>
       <c r="F16" s="17">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-2050</v>
+        <v>-1290</v>
       </c>
       <c r="H16" s="17">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>-400</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -1837,11 +1841,11 @@
         <v>800</v>
       </c>
       <c r="C17" s="17">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -1866,27 +1870,27 @@
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="17">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="E18" s="17">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="17">
         <v>0</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>-31000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
@@ -1949,14 +1953,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="F20" s="17">
         <v>0</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>-6550</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -1971,37 +1975,37 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B21" s="17">
-        <v>1544</v>
+        <v>714</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-1544</v>
+        <v>-714</v>
       </c>
       <c r="E21" s="17">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="F21" s="17">
         <v>0</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-571</v>
       </c>
       <c r="H21" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2041,27 +2045,27 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B23" s="17">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="C23" s="17">
-        <v>7870</v>
+        <v>0</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F23" s="17">
-        <v>50</v>
+        <v>90000</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>-10000</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2076,7 +2080,7 @@
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="17">
         <v>385</v>
@@ -2111,7 +2115,7 @@
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -2146,7 +2150,7 @@
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="17">
         <v>1500</v>
@@ -2181,7 +2185,7 @@
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -2197,11 +2201,11 @@
         <v>455</v>
       </c>
       <c r="F27" s="17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>-355</v>
+        <v>-155</v>
       </c>
       <c r="H27" s="17">
         <v>0</v>
@@ -2216,7 +2220,7 @@
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -2251,42 +2255,42 @@
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="17">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>50771</v>
+        <v>4339</v>
       </c>
       <c r="F29" s="17">
-        <v>48300</v>
+        <v>5000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>-2471</v>
+        <v>661</v>
       </c>
       <c r="H29" s="17">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>-830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="17">
         <v>285</v>
@@ -2321,7 +2325,7 @@
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="17">
         <v>44785</v>
@@ -2356,52 +2360,52 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="17">
-        <v>11330</v>
+        <v>0</v>
       </c>
       <c r="C32" s="17">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
-        <v>13670</v>
+        <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>296306</v>
+        <v>65805</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-296306</v>
+        <v>-65805</v>
       </c>
       <c r="H32" s="17">
-        <v>101874</v>
+        <v>25712</v>
       </c>
       <c r="I32" s="17">
-        <v>141069</v>
+        <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>39195</v>
+        <v>-25712</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="17">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="C33" s="17">
         <v>44000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
@@ -2426,7 +2430,7 @@
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="17">
         <v>2156</v>
@@ -2461,7 +2465,7 @@
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="17">
         <v>3500</v>
@@ -2484,39 +2488,39 @@
         <v>-1635</v>
       </c>
       <c r="H35" s="17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>-150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" s="17">
-        <v>22000</v>
+        <v>42200</v>
       </c>
       <c r="C36" s="17">
         <v>50000</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>7800</v>
       </c>
       <c r="E36" s="17">
-        <v>0</v>
+        <v>10060</v>
       </c>
       <c r="F36" s="17">
         <v>13000</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>13000</v>
+        <v>2940</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2531,27 +2535,27 @@
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="17">
         <v>0</v>
       </c>
       <c r="C37" s="17">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="17">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="F37" s="17">
-        <v>420</v>
+        <v>2350</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>-1450</v>
       </c>
       <c r="H37" s="17">
         <v>0</v>
@@ -2566,7 +2570,7 @@
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="17">
         <v>0</v>
@@ -2582,11 +2586,11 @@
         <v>2727</v>
       </c>
       <c r="F38" s="17">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>-2522</v>
+        <v>-2322</v>
       </c>
       <c r="H38" s="17">
         <v>0</v>
@@ -2601,7 +2605,7 @@
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="17">
         <v>1000</v>
@@ -2636,27 +2640,27 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B40" s="17">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4551</v>
       </c>
       <c r="E40" s="17">
-        <v>3491</v>
+        <v>0</v>
       </c>
       <c r="F40" s="17">
         <v>0</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>-3491</v>
+        <v>0</v>
       </c>
       <c r="H40" s="17">
         <v>0</v>
@@ -2671,27 +2675,27 @@
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="B41" s="17">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="C41" s="17">
-        <v>4600</v>
+        <v>350</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" si="0"/>
-        <v>-1400</v>
+        <v>-250</v>
       </c>
       <c r="E41" s="17">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F41" s="17">
         <v>0</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="H41" s="17">
         <v>0</v>
@@ -2705,16 +2709,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B42" s="17">
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2739,27 +2745,27 @@
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="17">
         <v>0</v>
       </c>
       <c r="C43" s="17">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="0"/>
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="E43" s="17">
         <v>0</v>
       </c>
       <c r="F43" s="17">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="H43" s="17">
         <v>0</v>
@@ -2774,27 +2780,27 @@
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="17">
-        <v>0</v>
+        <v>148453</v>
       </c>
       <c r="C44" s="17">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1453</v>
       </c>
       <c r="E44" s="17">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2822,14 +2828,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="17">
-        <v>0</v>
+        <v>24900</v>
       </c>
       <c r="F45" s="17">
         <v>136000</v>
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>136000</v>
+        <v>111100</v>
       </c>
       <c r="H45" s="17">
         <v>0</v>
@@ -2844,7 +2850,7 @@
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="17">
         <v>0</v>
@@ -2879,27 +2885,27 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B47" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E47" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="17">
         <v>0</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="17">
         <v>800</v>
@@ -2949,7 +2955,7 @@
     </row>
     <row r="49" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="17">
         <v>0</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="50" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -3019,17 +3025,17 @@
     </row>
     <row r="51" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="17">
         <v>100</v>
       </c>
       <c r="C51" s="17">
-        <v>25200</v>
+        <v>16000</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>25100</v>
+        <v>15900</v>
       </c>
       <c r="E51" s="17">
         <v>900</v>
@@ -3053,8 +3059,8 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>39</v>
+      <c r="A52" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -3070,11 +3076,11 @@
         <v>28790</v>
       </c>
       <c r="F52" s="17">
-        <v>28810</v>
+        <v>30324</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>1534</v>
       </c>
       <c r="H52" s="17">
         <v>0</v>
@@ -3089,27 +3095,27 @@
     </row>
     <row r="53" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="17">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E53" s="17">
         <v>0</v>
       </c>
       <c r="F53" s="17">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3124,7 +3130,7 @@
     </row>
     <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="55" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B55" s="17">
         <v>0</v>
@@ -3194,7 +3200,7 @@
     </row>
     <row r="56" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B56" s="17">
         <v>0</v>
@@ -3229,7 +3235,7 @@
     </row>
     <row r="57" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B57" s="17">
         <v>0</v>
@@ -3245,26 +3251,26 @@
         <v>1300</v>
       </c>
       <c r="F57" s="17">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="17">
         <v>120</v>
       </c>
       <c r="I57" s="17">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="2"/>
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B58" s="17">
         <v>600</v>
@@ -3287,27 +3293,29 @@
         <v>-8065</v>
       </c>
       <c r="H58" s="17">
-        <v>350</v>
+        <v>1038</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>7750</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="B59" s="17">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="C59" s="17">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E59" s="17">
         <v>0</v>
@@ -3332,7 +3340,7 @@
     </row>
     <row r="60" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
@@ -3367,7 +3375,7 @@
     </row>
     <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B61" s="17">
         <v>0</v>
@@ -3405,7 +3413,7 @@
     </row>
     <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3418,14 +3426,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>60400</v>
+        <v>60765</v>
       </c>
       <c r="F62" s="17">
-        <v>49700</v>
+        <v>49820</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-10700</v>
+        <v>-10945</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3440,7 +3448,7 @@
     </row>
     <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3475,7 +3483,7 @@
     </row>
     <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" s="17">
         <v>600</v>
@@ -3510,7 +3518,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3545,7 +3553,7 @@
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B66" s="17">
         <v>0</v>
@@ -3580,7 +3588,7 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" s="17">
         <v>0</v>
@@ -3614,16 +3622,18 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B68" s="17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E68" s="17">
         <v>0</v>
@@ -3647,9 +3657,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="17">
         <v>0</v>
       </c>
@@ -3661,14 +3669,14 @@
         <v>0</v>
       </c>
       <c r="E69" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F69" s="17">
         <v>0</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H69" s="17">
         <v>0</v>
@@ -3683,7 +3691,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3718,7 +3726,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3753,17 +3761,17 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
       </c>
       <c r="C72" s="17">
-        <v>10350</v>
+        <v>13350</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="3"/>
-        <v>-9270</v>
+        <v>-6270</v>
       </c>
       <c r="E72" s="17">
         <v>0</v>
@@ -3788,7 +3796,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3823,7 +3831,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3858,7 +3866,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3926,7 +3934,7 @@
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3961,17 +3969,17 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
       </c>
       <c r="C78" s="17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E78" s="17">
         <v>0</v>
@@ -3996,7 +4004,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4031,27 +4039,27 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B80" s="17">
-        <v>24000</v>
+        <v>900</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-24000</v>
+        <v>-900</v>
       </c>
       <c r="E80" s="17">
-        <v>42350</v>
+        <v>25765</v>
       </c>
       <c r="F80" s="17">
-        <v>34565</v>
+        <v>16986</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-7785</v>
+        <v>-8779</v>
       </c>
       <c r="H80" s="17">
         <v>204</v>
@@ -4066,27 +4074,27 @@
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B81" s="17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C81" s="17">
         <v>0</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E81" s="17">
-        <v>32565</v>
+        <v>0</v>
       </c>
       <c r="F81" s="17">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="4"/>
-        <v>17435</v>
+        <v>0</v>
       </c>
       <c r="H81" s="17">
         <v>2500</v>
@@ -4101,7 +4109,7 @@
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4136,7 +4144,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4171,17 +4179,17 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
       </c>
       <c r="C84" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E84" s="17">
         <v>0</v>
@@ -4206,7 +4214,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4241,7 +4249,7 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B86" s="17">
         <v>0</v>
@@ -4254,29 +4262,29 @@
         <v>0</v>
       </c>
       <c r="E86" s="17">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F86" s="17">
         <v>0</v>
       </c>
       <c r="G86" s="9">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="H86" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I86" s="17">
         <v>0</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" s="17">
         <v>0</v>
@@ -4311,7 +4319,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4346,7 +4354,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4381,7 +4389,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4416,7 +4424,7 @@
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B91" s="17">
         <v>1000</v>
@@ -4451,7 +4459,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4486,7 +4494,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4521,27 +4529,27 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="E94" s="17">
         <v>9150</v>
       </c>
       <c r="F94" s="17">
-        <v>3900</v>
+        <v>6730</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-5250</v>
+        <v>-2420</v>
       </c>
       <c r="H94" s="17">
         <v>0</v>
@@ -4556,27 +4564,27 @@
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B95" s="17">
-        <v>1500</v>
+        <v>280</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" si="3"/>
-        <v>-1500</v>
+        <v>-280</v>
       </c>
       <c r="E95" s="17">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="F95" s="17">
         <v>0</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="4"/>
-        <v>-3300</v>
+        <v>-2300</v>
       </c>
       <c r="H95" s="17">
         <v>0</v>
@@ -4591,27 +4599,27 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B96" s="17">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-560</v>
       </c>
       <c r="E96" s="17">
-        <v>27100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>13624</v>
+        <v>224</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>-13476</v>
+        <v>224</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4626,7 +4634,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4661,62 +4669,62 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
       </c>
       <c r="C98" s="17">
-        <v>10715</v>
+        <v>0</v>
       </c>
       <c r="D98" s="9">
         <f t="shared" si="3"/>
-        <v>10715</v>
+        <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>95150</v>
+        <v>200</v>
       </c>
       <c r="F98" s="17">
-        <v>99250</v>
+        <v>8400</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>4100</v>
+        <v>8200</v>
       </c>
       <c r="H98" s="17">
-        <v>27650</v>
+        <v>27960</v>
       </c>
       <c r="I98" s="17">
-        <v>31020</v>
+        <v>31960</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>3370</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
       </c>
       <c r="C99" s="17">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="D99" s="9">
         <f t="shared" si="3"/>
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E99" s="17">
         <v>30000</v>
       </c>
       <c r="F99" s="17">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="4"/>
-        <v>-30000</v>
+        <v>-28360</v>
       </c>
       <c r="H99" s="17">
         <v>0</v>
@@ -4731,7 +4739,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4766,13 +4774,13 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B101" s="17">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="C101" s="17">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="D101" s="9">
         <f t="shared" si="3"/>
@@ -4801,7 +4809,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4817,11 +4825,11 @@
         <v>1010</v>
       </c>
       <c r="F102" s="17">
-        <v>900</v>
+        <v>1010</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" si="4"/>
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="H102" s="17">
         <v>0</v>
@@ -4836,27 +4844,27 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B103" s="17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C103" s="17">
         <v>238483</v>
       </c>
       <c r="D103" s="9">
         <f t="shared" si="3"/>
-        <v>238383</v>
+        <v>237983</v>
       </c>
       <c r="E103" s="17">
-        <v>0</v>
+        <v>4056</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4056</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4871,7 +4879,7 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B104" s="17">
         <v>1400</v>
@@ -4884,14 +4892,14 @@
         <v>-1400</v>
       </c>
       <c r="E104" s="17">
-        <v>7962</v>
+        <v>4040</v>
       </c>
       <c r="F104" s="17">
-        <v>0</v>
+        <v>2294</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-7962</v>
+        <v>-1746</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -4906,7 +4914,7 @@
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4941,7 +4949,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -4976,7 +4984,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -5011,7 +5019,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5046,7 +5054,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5080,9 +5088,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="A110" s="11"/>
       <c r="B110" s="17">
         <v>0</v>
       </c>
@@ -5097,11 +5103,11 @@
         <v>0</v>
       </c>
       <c r="F110" s="17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H110" s="17">
         <v>0</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B111" s="17">
         <v>400</v>
@@ -5151,7 +5157,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B113" s="17">
         <v>29920</v>
@@ -5199,14 +5205,14 @@
         <v>-9520</v>
       </c>
       <c r="E113" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F113" s="17">
         <v>400</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>-9600</v>
       </c>
       <c r="H113" s="17">
         <v>0</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5256,7 +5262,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5291,7 +5297,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5304,14 +5310,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>800</v>
+        <v>6400</v>
       </c>
       <c r="F116" s="17">
-        <v>2000</v>
+        <v>6400</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5326,27 +5332,27 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B117" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C117" s="17">
-        <v>129000</v>
+        <v>120000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>129000</v>
+        <v>110000</v>
       </c>
       <c r="E117" s="17">
-        <v>1016</v>
+        <v>4516</v>
       </c>
       <c r="F117" s="17">
         <v>0</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="4"/>
-        <v>-1016</v>
+        <v>-4516</v>
       </c>
       <c r="H117" s="17">
         <v>1500</v>
@@ -5361,7 +5367,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5396,7 +5402,7 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B119" s="17">
         <v>150</v>
@@ -5409,14 +5415,14 @@
         <v>-150</v>
       </c>
       <c r="E119" s="17">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F119" s="17">
         <v>0</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="4"/>
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -5431,27 +5437,27 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B120" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C120" s="17">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E120" s="17">
-        <v>17700</v>
+        <v>19700</v>
       </c>
       <c r="F120" s="17">
         <v>27300</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5466,7 +5472,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5536,27 +5542,27 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B123" s="17">
-        <v>9218</v>
+        <v>10518</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-9218</v>
+        <v>-10518</v>
       </c>
       <c r="E123" s="17">
-        <v>6553</v>
+        <v>5753</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-6553</v>
+        <v>-5753</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5571,17 +5577,17 @@
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B124" s="17">
-        <v>15418</v>
+        <v>10418</v>
       </c>
       <c r="C124" s="17">
         <v>0</v>
       </c>
       <c r="D124" s="9">
         <f t="shared" si="3"/>
-        <v>-15418</v>
+        <v>-10418</v>
       </c>
       <c r="E124" s="17">
         <v>700</v>
@@ -5605,9 +5611,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A125" s="11"/>
       <c r="B125" s="17">
         <v>0</v>
       </c>
@@ -5619,14 +5623,14 @@
         <v>0</v>
       </c>
       <c r="E125" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F125" s="17">
         <v>0</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5641,7 +5645,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5675,16 +5679,18 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B127" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E127" s="17">
         <v>0</v>
@@ -5709,7 +5715,7 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B128" s="17">
         <v>2500</v>
@@ -5742,19 +5748,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B129" s="17">
-        <v>4926</v>
+        <v>3520</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="9">
         <f t="shared" si="3"/>
-        <v>-4926</v>
+        <v>-3520</v>
       </c>
       <c r="E129" s="17">
         <v>0</v>
@@ -5777,9 +5783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5812,9 +5818,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5823,18 +5829,18 @@
         <v>200</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" ref="D131:D152" si="6">C131-B131</f>
+        <f t="shared" ref="D131:D154" si="6">C131-B131</f>
         <v>-200</v>
       </c>
       <c r="E131" s="17">
         <v>100</v>
       </c>
       <c r="F131" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>-100</v>
+        <f t="shared" ref="G131:G154" si="7">F131-E131</f>
+        <v>0</v>
       </c>
       <c r="H131" s="17">
         <v>0</v>
@@ -5843,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="J131" s="9">
-        <f t="shared" ref="J131:J152" si="8">I131-H131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J131:J154" si="8">I131-H131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B132" s="17">
         <v>2500</v>
@@ -5865,11 +5871,11 @@
         <v>720</v>
       </c>
       <c r="F132" s="17">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="G132" s="9">
         <f t="shared" si="7"/>
-        <v>5480</v>
+        <v>-720</v>
       </c>
       <c r="H132" s="17">
         <v>0</v>
@@ -5882,29 +5888,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B133" s="17">
-        <v>15019</v>
+        <v>16019</v>
       </c>
       <c r="C133" s="17">
-        <v>40510</v>
+        <v>27906</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>25491</v>
+        <v>11887</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
       </c>
       <c r="F133" s="17">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="7"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H133" s="17">
         <v>0</v>
@@ -5917,9 +5923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -5952,9 +5958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -5986,13 +5992,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L135" s="1">
-        <v>-5379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6025,9 +6028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6060,9 +6063,9 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6075,14 +6078,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F138" s="17">
-        <v>0</v>
+        <v>2483</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>-300</v>
+        <v>2483</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -6095,9 +6098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B139" s="17">
         <v>0</v>
@@ -6130,9 +6133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B140" s="17">
         <v>0</v>
@@ -6165,29 +6168,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B141" s="17">
-        <v>54</v>
+        <v>3270</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>-54</v>
+        <v>-3270</v>
       </c>
       <c r="E141" s="17">
-        <v>1995</v>
+        <v>173911</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-1995</v>
+        <v>-173911</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6200,9 +6203,9 @@
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6215,14 +6218,14 @@
         <v>0</v>
       </c>
       <c r="E142" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F142" s="17">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G142" s="9">
         <f t="shared" si="7"/>
-        <v>-200</v>
+        <v>6000</v>
       </c>
       <c r="H142" s="17">
         <v>0</v>
@@ -6235,29 +6238,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B143" s="17">
-        <v>4990</v>
+        <v>13115</v>
       </c>
       <c r="C143" s="17">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-4990</v>
+        <v>-9515</v>
       </c>
       <c r="E143" s="17">
-        <v>5700</v>
+        <v>2280</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-5700</v>
+        <v>-2280</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6270,9 +6273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6307,7 +6310,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6377,7 +6380,7 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B147" s="17">
         <v>0</v>
@@ -6390,14 +6393,14 @@
         <v>0</v>
       </c>
       <c r="E147" s="17">
-        <v>67922</v>
+        <v>69312</v>
       </c>
       <c r="F147" s="17">
-        <v>14368</v>
+        <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-53554</v>
+        <v>-69312</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6412,17 +6415,17 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B148" s="17">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C148" s="17">
         <v>502460</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>492460</v>
+        <v>487460</v>
       </c>
       <c r="E148" s="17">
         <v>0</v>
@@ -6447,27 +6450,27 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="9">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F149" s="17">
         <v>0</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6482,7 +6485,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B150" s="17">
         <v>1000</v>
@@ -6517,7 +6520,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6551,30 +6554,114 @@
       </c>
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
+      <c r="A152" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="17">
+        <v>0</v>
+      </c>
+      <c r="C152" s="17">
+        <v>0</v>
+      </c>
       <c r="D152" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="E152" s="17">
+        <v>5000</v>
+      </c>
+      <c r="F152" s="17">
+        <v>0</v>
+      </c>
       <c r="G152" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
+        <v>-5000</v>
+      </c>
+      <c r="H152" s="17">
+        <v>0</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0</v>
+      </c>
       <c r="J152" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A153" s="30"/>
+    <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="17">
+        <v>0</v>
+      </c>
+      <c r="C153" s="17">
+        <v>0</v>
+      </c>
+      <c r="D153" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>2200</v>
+      </c>
+      <c r="F153" s="17">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9">
+        <f t="shared" si="7"/>
+        <v>-2200</v>
+      </c>
+      <c r="H153" s="17">
+        <v>0</v>
+      </c>
+      <c r="I153" s="17">
+        <v>0</v>
+      </c>
+      <c r="J153" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L153" s="18"/>
+    </row>
+    <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C154" s="17">
+        <v>0</v>
+      </c>
+      <c r="D154" s="9">
+        <f t="shared" si="6"/>
+        <v>-1000</v>
+      </c>
+      <c r="E154" s="17">
+        <v>0</v>
+      </c>
+      <c r="F154" s="17">
+        <v>0</v>
+      </c>
+      <c r="G154" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="17">
+        <v>0</v>
+      </c>
+      <c r="I154" s="17">
+        <v>0</v>
+      </c>
+      <c r="J154" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6587,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6604,19 +6691,19 @@
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
@@ -6638,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="19">
-        <v>-6100</v>
+        <v>-300</v>
       </c>
       <c r="C3" s="19">
-        <v>-3724</v>
+        <v>-8173</v>
       </c>
       <c r="D3" s="19">
         <v>0</v>
@@ -6663,13 +6750,13 @@
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
       </c>
       <c r="C5" s="19">
-        <v>1725</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -6750,13 +6837,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="19">
-        <v>-39</v>
+        <v>-12664</v>
       </c>
       <c r="C11" s="19">
-        <v>-5067</v>
+        <v>-38197</v>
       </c>
       <c r="D11" s="19">
-        <v>-11200</v>
+        <v>-21000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
@@ -6778,10 +6865,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="19">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C13" s="19">
-        <v>-9893</v>
+        <v>-22329</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -6789,7 +6876,7 @@
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B14" s="19">
         <v>-380</v>
@@ -6809,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -6820,13 +6907,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="19">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="C16" s="19">
-        <v>-2050</v>
+        <v>-1290</v>
       </c>
       <c r="D16" s="19">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -6834,7 +6921,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="19">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C17" s="19">
         <v>0</v>
@@ -6845,13 +6932,13 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="19">
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="C18" s="19">
-        <v>-31000</v>
+        <v>0</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -6879,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="19">
-        <v>-6550</v>
+        <v>0</v>
       </c>
       <c r="D20" s="19">
         <v>66</v>
@@ -6887,16 +6974,16 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B21" s="19">
-        <v>-1544</v>
+        <v>-714</v>
       </c>
       <c r="C21" s="19">
-        <v>0</v>
+        <v>-571</v>
       </c>
       <c r="D21" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -6915,13 +7002,13 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B23" s="19">
-        <v>-530</v>
+        <v>0</v>
       </c>
       <c r="C23" s="19">
-        <v>50</v>
+        <v>-10000</v>
       </c>
       <c r="D23" s="19">
         <v>0</v>
@@ -6929,7 +7016,7 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="19">
         <v>-385</v>
@@ -6943,7 +7030,7 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="19">
         <v>0</v>
@@ -6957,7 +7044,7 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="19">
         <v>-1500</v>
@@ -6971,13 +7058,13 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="19">
         <v>0</v>
       </c>
       <c r="C27" s="19">
-        <v>-355</v>
+        <v>-155</v>
       </c>
       <c r="D27" s="19">
         <v>0</v>
@@ -6985,7 +7072,7 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -6999,21 +7086,21 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="19">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="C29" s="19">
-        <v>-2471</v>
+        <v>661</v>
       </c>
       <c r="D29" s="19">
-        <v>-830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="19">
         <v>-285</v>
@@ -7027,7 +7114,7 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="19">
         <v>-44785</v>
@@ -7041,24 +7128,24 @@
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="19">
-        <v>13670</v>
+        <v>0</v>
       </c>
       <c r="C32" s="19">
-        <v>-296306</v>
+        <v>-65805</v>
       </c>
       <c r="D32" s="19">
-        <v>39195</v>
+        <v>-25712</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="19">
-        <v>44000</v>
+        <v>37000</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
@@ -7069,7 +7156,7 @@
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="19">
         <v>-1156</v>
@@ -7083,7 +7170,7 @@
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="19">
         <v>-650</v>
@@ -7092,18 +7179,18 @@
         <v>-1635</v>
       </c>
       <c r="D35" s="19">
-        <v>-150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" s="19">
-        <v>28000</v>
+        <v>7800</v>
       </c>
       <c r="C36" s="19">
-        <v>13000</v>
+        <v>2940</v>
       </c>
       <c r="D36" s="19">
         <v>0</v>
@@ -7111,13 +7198,13 @@
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="19">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C37" s="19">
-        <v>370</v>
+        <v>-1450</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7125,13 +7212,13 @@
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <v>-2522</v>
+        <v>-2322</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
@@ -7139,7 +7226,7 @@
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="19">
         <v>-1000</v>
@@ -7153,13 +7240,13 @@
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B40" s="19">
-        <v>0</v>
+        <v>-4551</v>
       </c>
       <c r="C40" s="19">
-        <v>-3491</v>
+        <v>0</v>
       </c>
       <c r="D40" s="19">
         <v>0</v>
@@ -7167,22 +7254,24 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="B41" s="19">
-        <v>-1400</v>
+        <v>-250</v>
       </c>
       <c r="C41" s="19">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B42" s="19">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
@@ -7193,13 +7282,13 @@
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="19">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="C43" s="19">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="D43" s="19">
         <v>0</v>
@@ -7207,13 +7296,13 @@
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="19">
-        <v>0</v>
+        <v>-1453</v>
       </c>
       <c r="C44" s="19">
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="D44" s="19">
         <v>0</v>
@@ -7221,13 +7310,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="19">
         <v>0</v>
       </c>
       <c r="C45" s="19">
-        <v>136000</v>
+        <v>111100</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7235,7 +7324,7 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
@@ -7249,13 +7338,13 @@
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B47" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C47" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D47" s="19">
         <v>0</v>
@@ -7263,7 +7352,7 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="19">
         <v>-800</v>
@@ -7277,7 +7366,7 @@
     </row>
     <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="19">
         <v>0</v>
@@ -7291,7 +7380,7 @@
     </row>
     <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="19">
         <v>0</v>
@@ -7305,10 +7394,10 @@
     </row>
     <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="19">
-        <v>25100</v>
+        <v>15900</v>
       </c>
       <c r="C51" s="19">
         <v>-200</v>
@@ -7317,15 +7406,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>39</v>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="B52" s="19">
         <v>0</v>
       </c>
       <c r="C52" s="19">
-        <v>20</v>
+        <v>1534</v>
       </c>
       <c r="D52" s="19">
         <v>0</v>
@@ -7333,13 +7422,13 @@
     </row>
     <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="19">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="C53" s="19">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D53" s="19">
         <v>0</v>
@@ -7347,7 +7436,7 @@
     </row>
     <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B54" s="19">
         <v>-200</v>
@@ -7361,7 +7450,7 @@
     </row>
     <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B55" s="19">
         <v>50</v>
@@ -7375,7 +7464,7 @@
     </row>
     <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B56" s="19">
         <v>0</v>
@@ -7389,21 +7478,21 @@
     </row>
     <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D57" s="19">
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B58" s="19">
         <v>-600</v>
@@ -7412,13 +7501,15 @@
         <v>-8065</v>
       </c>
       <c r="D58" s="19">
-        <v>7750</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="B59" s="19">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="C59" s="19">
         <v>0</v>
@@ -7429,7 +7520,7 @@
     </row>
     <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="19">
         <v>0</v>
@@ -7443,7 +7534,7 @@
     </row>
     <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B61" s="19">
         <v>0</v>
@@ -7460,13 +7551,13 @@
     </row>
     <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" s="19">
         <v>0</v>
       </c>
       <c r="C62" s="19">
-        <v>-10700</v>
+        <v>-10945</v>
       </c>
       <c r="D62" s="19">
         <v>0</v>
@@ -7474,7 +7565,7 @@
     </row>
     <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B63" s="19">
         <v>-4220</v>
@@ -7488,7 +7579,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" s="19">
         <v>-600</v>
@@ -7502,7 +7593,7 @@
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65" s="19">
         <v>0</v>
@@ -7516,7 +7607,7 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B66" s="19">
         <v>0</v>
@@ -7530,7 +7621,7 @@
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" s="19">
         <v>0</v>
@@ -7543,9 +7634,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="B68" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C68" s="19">
         <v>0</v>
@@ -7555,14 +7648,12 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="19">
         <v>0</v>
       </c>
       <c r="C69" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D69" s="19">
         <v>0</v>
@@ -7570,7 +7661,7 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" s="19">
         <v>-700</v>
@@ -7584,7 +7675,7 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B71" s="19">
         <v>0</v>
@@ -7598,10 +7689,10 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B72" s="19">
-        <v>-9270</v>
+        <v>-6270</v>
       </c>
       <c r="C72" s="19">
         <v>0</v>
@@ -7612,7 +7703,7 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B73" s="19">
         <v>0</v>
@@ -7626,7 +7717,7 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
@@ -7640,7 +7731,7 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B75" s="19">
         <v>-350</v>
@@ -7666,7 +7757,7 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B77" s="19">
         <v>-80</v>
@@ -7680,10 +7771,10 @@
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B78" s="19">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="C78" s="19">
         <v>0</v>
@@ -7694,7 +7785,7 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79" s="19">
         <v>0</v>
@@ -7708,13 +7799,13 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B80" s="19">
-        <v>-24000</v>
+        <v>-900</v>
       </c>
       <c r="C80" s="19">
-        <v>-7785</v>
+        <v>-8779</v>
       </c>
       <c r="D80" s="19">
         <v>-204</v>
@@ -7722,13 +7813,13 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B81" s="19">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C81" s="19">
-        <v>17435</v>
+        <v>0</v>
       </c>
       <c r="D81" s="19">
         <v>-2500</v>
@@ -7736,7 +7827,7 @@
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B82" s="19">
         <v>-1000</v>
@@ -7750,7 +7841,7 @@
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B83" s="19">
         <v>-275</v>
@@ -7764,10 +7855,10 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B84" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C84" s="19">
         <v>0</v>
@@ -7778,7 +7869,7 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B85" s="19">
         <v>-1090</v>
@@ -7792,21 +7883,21 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B86" s="19">
         <v>0</v>
       </c>
       <c r="C86" s="19">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D86" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
@@ -7820,7 +7911,7 @@
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" s="19">
         <v>0</v>
@@ -7834,7 +7925,7 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="19">
         <v>-300</v>
@@ -7848,7 +7939,7 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B90" s="19">
         <v>0</v>
@@ -7862,7 +7953,7 @@
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B91" s="19">
         <v>-1000</v>
@@ -7873,16 +7964,14 @@
       <c r="D91" s="19">
         <v>0</v>
       </c>
-      <c r="G91" s="34">
+      <c r="G91" s="31">
         <v>200</v>
       </c>
-      <c r="H91" s="31" t="s">
-        <v>158</v>
-      </c>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B92" s="19">
         <v>0</v>
@@ -7896,7 +7985,7 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B93" s="19">
         <v>133</v>
@@ -7910,13 +7999,13 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B94" s="19">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="C94" s="19">
-        <v>-5250</v>
+        <v>-2420</v>
       </c>
       <c r="D94" s="19">
         <v>0</v>
@@ -7924,13 +8013,13 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B95" s="19">
-        <v>-1500</v>
+        <v>-280</v>
       </c>
       <c r="C95" s="19">
-        <v>-3300</v>
+        <v>-2300</v>
       </c>
       <c r="D95" s="19">
         <v>0</v>
@@ -7938,13 +8027,13 @@
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B96" s="19">
-        <v>0</v>
+        <v>-560</v>
       </c>
       <c r="C96" s="19">
-        <v>-13476</v>
+        <v>224</v>
       </c>
       <c r="D96" s="19">
         <v>0</v>
@@ -7952,7 +8041,7 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B97" s="19">
         <v>-650</v>
@@ -7966,27 +8055,27 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B98" s="19">
-        <v>10715</v>
+        <v>0</v>
       </c>
       <c r="C98" s="19">
-        <v>4100</v>
+        <v>8200</v>
       </c>
       <c r="D98" s="19">
-        <v>3370</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B99" s="19">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="C99" s="19">
-        <v>-30000</v>
+        <v>-28360</v>
       </c>
       <c r="D99" s="19">
         <v>0</v>
@@ -7994,7 +8083,7 @@
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B100" s="19">
         <v>-1260</v>
@@ -8008,7 +8097,7 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B101" s="19">
         <v>-1000</v>
@@ -8022,13 +8111,13 @@
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B102" s="19">
         <v>0</v>
       </c>
       <c r="C102" s="19">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="D102" s="19">
         <v>0</v>
@@ -8036,13 +8125,13 @@
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B103" s="19">
-        <v>238383</v>
+        <v>237983</v>
       </c>
       <c r="C103" s="19">
-        <v>0</v>
+        <v>-4056</v>
       </c>
       <c r="D103" s="19">
         <v>-400</v>
@@ -8050,13 +8139,13 @@
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B104" s="19">
         <v>-1400</v>
       </c>
       <c r="C104" s="19">
-        <v>-7962</v>
+        <v>-1746</v>
       </c>
       <c r="D104" s="19">
         <v>0</v>
@@ -8064,7 +8153,7 @@
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B105" s="19">
         <v>-550</v>
@@ -8078,7 +8167,7 @@
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B106" s="19">
         <v>0</v>
@@ -8092,7 +8181,7 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B107" s="19">
         <v>8000</v>
@@ -8106,7 +8195,7 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B108" s="19">
         <v>0</v>
@@ -8120,7 +8209,7 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B109" s="19">
         <v>-250</v>
@@ -8133,14 +8222,12 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="A110" s="11"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
       <c r="C110" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D110" s="19">
         <v>0</v>
@@ -8148,7 +8235,7 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B111" s="19">
         <v>-400</v>
@@ -8162,7 +8249,7 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B112" s="19">
         <v>1984</v>
@@ -8176,13 +8263,13 @@
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B113" s="19">
         <v>-9520</v>
       </c>
       <c r="C113" s="19">
-        <v>400</v>
+        <v>-9600</v>
       </c>
       <c r="D113" s="19">
         <v>0</v>
@@ -8190,7 +8277,7 @@
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B114" s="19">
         <v>-150</v>
@@ -8204,7 +8291,7 @@
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B115" s="19">
         <v>0</v>
@@ -8218,13 +8305,13 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
@@ -8232,13 +8319,13 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B117" s="19">
-        <v>129000</v>
+        <v>110000</v>
       </c>
       <c r="C117" s="19">
-        <v>-1016</v>
+        <v>-4516</v>
       </c>
       <c r="D117" s="19">
         <v>-1500</v>
@@ -8246,7 +8333,7 @@
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B118" s="19">
         <v>-170</v>
@@ -8260,13 +8347,13 @@
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B119" s="19">
         <v>-150</v>
       </c>
       <c r="C119" s="19">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="D119" s="19">
         <v>0</v>
@@ -8274,13 +8361,13 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B120" s="19">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="C120" s="19">
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
@@ -8288,7 +8375,7 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B121" s="19">
         <v>527</v>
@@ -8302,7 +8389,7 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B122" s="19">
         <v>-2300</v>
@@ -8316,13 +8403,13 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B123" s="19">
-        <v>-9218</v>
+        <v>-10518</v>
       </c>
       <c r="C123" s="19">
-        <v>-6553</v>
+        <v>-5753</v>
       </c>
       <c r="D123" s="19">
         <v>0</v>
@@ -8330,10 +8417,10 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B124" s="19">
-        <v>-15418</v>
+        <v>-10418</v>
       </c>
       <c r="C124" s="19">
         <v>-700</v>
@@ -8343,14 +8430,12 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A125" s="11"/>
       <c r="B125" s="19">
         <v>0</v>
       </c>
       <c r="C125" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D125" s="19">
         <v>0</v>
@@ -8358,7 +8443,7 @@
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
@@ -8371,9 +8456,11 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B127" s="19">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C127" s="19">
         <v>0</v>
@@ -8384,7 +8471,7 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B128" s="19">
         <v>-2500</v>
@@ -8396,12 +8483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B129" s="19">
-        <v>-4926</v>
+        <v>-3520</v>
       </c>
       <c r="C129" s="19">
         <v>0</v>
@@ -8410,9 +8497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B130" s="19">
         <v>-925</v>
@@ -8424,51 +8511,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B131" s="19">
         <v>-200</v>
       </c>
       <c r="C131" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D131" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B132" s="19">
         <v>0</v>
       </c>
       <c r="C132" s="19">
-        <v>5480</v>
+        <v>-720</v>
       </c>
       <c r="D132" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B133" s="19">
-        <v>25491</v>
+        <v>11887</v>
       </c>
       <c r="C133" s="19">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D133" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B134" s="19">
         <v>-830</v>
@@ -8480,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>157</v>
       </c>
@@ -8493,13 +8580,10 @@
       <c r="D135" s="19">
         <v>0</v>
       </c>
-      <c r="F135" s="19">
-        <v>-3379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B136" s="19">
         <v>-1500</v>
@@ -8511,9 +8595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B137" s="19">
         <v>0</v>
@@ -8525,23 +8609,23 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
       </c>
       <c r="C138" s="19">
-        <v>-300</v>
+        <v>2483</v>
       </c>
       <c r="D138" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
@@ -8553,9 +8637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B140" s="19">
         <v>0</v>
@@ -8567,51 +8651,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B141" s="19">
-        <v>-54</v>
+        <v>-3270</v>
       </c>
       <c r="C141" s="19">
-        <v>-1995</v>
+        <v>-173911</v>
       </c>
       <c r="D141" s="19">
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="19">
         <v>0</v>
       </c>
       <c r="C142" s="19">
-        <v>-200</v>
+        <v>6000</v>
       </c>
       <c r="D142" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B143" s="19">
-        <v>-4990</v>
+        <v>-9515</v>
       </c>
       <c r="C143" s="19">
-        <v>-5700</v>
+        <v>-2280</v>
       </c>
       <c r="D143" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B144" s="19">
         <v>-1350</v>
@@ -8625,7 +8709,7 @@
     </row>
     <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B145" s="19">
         <v>-50</v>
@@ -8639,7 +8723,7 @@
     </row>
     <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B146" s="19">
         <v>0</v>
@@ -8653,13 +8737,13 @@
     </row>
     <row r="147" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B147" s="19">
         <v>0</v>
       </c>
       <c r="C147" s="19">
-        <v>-53554</v>
+        <v>-69312</v>
       </c>
       <c r="D147" s="19">
         <v>0</v>
@@ -8667,10 +8751,10 @@
     </row>
     <row r="148" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B148" s="19">
-        <v>492460</v>
+        <v>487460</v>
       </c>
       <c r="C148" s="19">
         <v>0</v>
@@ -8681,13 +8765,13 @@
     </row>
     <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C149" s="19">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="D149" s="19">
         <v>0</v>
@@ -8695,7 +8779,7 @@
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B150" s="19">
         <v>-1000</v>
@@ -8709,7 +8793,7 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B151" s="19">
         <v>0</v>
@@ -8722,169 +8806,203 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="19">
+        <v>0</v>
+      </c>
+      <c r="C152" s="19">
+        <v>-5000</v>
+      </c>
+      <c r="D152" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A153" s="30"/>
+      <c r="A153" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="19">
+        <v>0</v>
+      </c>
+      <c r="C153" s="19">
+        <v>-2200</v>
+      </c>
+      <c r="D153" s="19">
+        <v>0</v>
+      </c>
       <c r="F153" s="20"/>
     </row>
-    <row r="155" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B155" s="25">
+    <row r="154" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="19">
+        <v>-1000</v>
+      </c>
+      <c r="C154" s="19">
+        <v>0</v>
+      </c>
+      <c r="D154" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>868917</v>
-      </c>
-      <c r="C155" s="25">
+        <v>753995</v>
+      </c>
+      <c r="C155" s="24">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>-356835</v>
-      </c>
-      <c r="D155" s="25">
+        <v>-388828</v>
+      </c>
+      <c r="D155" s="24">
         <f t="shared" si="0"/>
-        <v>50892</v>
-      </c>
-      <c r="E155" s="25">
+        <v>-23873</v>
+      </c>
+      <c r="E155" s="24">
         <f t="shared" si="0"/>
         <v>-2500</v>
       </c>
-      <c r="F155" s="25">
+      <c r="F155" s="24">
         <f t="shared" si="0"/>
-        <v>-3379</v>
-      </c>
-      <c r="G155" s="25">
+        <v>0</v>
+      </c>
+      <c r="G155" s="24">
         <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C156" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D156" s="19" t="s">
+      <c r="F156" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E156" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="G156" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="28"/>
+      <c r="D159" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C159" s="29"/>
-      <c r="D159" s="26" t="s">
+      <c r="B160" s="19">
+        <v>-135703</v>
+      </c>
+      <c r="C160" s="28"/>
+      <c r="D160" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="20">
+        <v>3.65</v>
+      </c>
+      <c r="G160" s="19"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E159" s="27" t="s">
+      <c r="B161" s="19">
+        <v>396076</v>
+      </c>
+      <c r="C161" s="28"/>
+      <c r="D161" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="28" t="s">
+      <c r="E161" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="G161" s="19"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="19">
+        <v>53672</v>
+      </c>
+      <c r="C162" s="28"/>
+      <c r="D162" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="19">
-        <v>76400</v>
-      </c>
-      <c r="C160" s="29"/>
-      <c r="D160" s="28" t="s">
+      <c r="E162" s="19">
+        <v>0.115</v>
+      </c>
+      <c r="F162" s="35">
+        <v>31.739130434700002</v>
+      </c>
+      <c r="G162" s="19"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E160" s="19">
-        <v>3.64</v>
-      </c>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="19">
-        <v>498309</v>
-      </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="28" t="s">
+      <c r="B163" s="19">
+        <v>15300</v>
+      </c>
+      <c r="C163" s="28"/>
+      <c r="D163" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="E161" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="G161" s="19"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B162" s="19">
-        <v>-30677</v>
-      </c>
-      <c r="C162" s="29"/>
-      <c r="D162" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="F162" s="19">
-        <v>24.266666600000001</v>
-      </c>
-      <c r="G162" s="19"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="19">
-        <v>16977</v>
-      </c>
-      <c r="C163" s="29"/>
-      <c r="D163" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="E163" s="19">
         <v>0.185</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="35">
         <v>3.83783783783</v>
       </c>
       <c r="G163" s="19"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
-        <v>137</v>
+      <c r="A164" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="B164" s="19">
-        <v>12174</v>
-      </c>
-      <c r="C164" s="29"/>
-      <c r="D164" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E164" s="19">
-        <v>1.0549999999999999</v>
+        <v>9992</v>
+      </c>
+      <c r="C164" s="28"/>
+      <c r="D164" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" s="20">
+        <v>1.08</v>
       </c>
       <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
-        <v>136</v>
+      <c r="A165" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="B165" s="19">
-        <v>8380</v>
+        <v>48200</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\allfiles\palExchange\backend\excel\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D03711-A517-4380-9C86-CF3C8386B819}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{C42FCD73-EBD7-4AF5-9AC2-92FE7BBB7B17}">
+    <comment ref="B129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -540,9 +539,6 @@
     <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
   </si>
   <si>
-    <t>أفطار صائم</t>
-  </si>
-  <si>
     <t>اياد الريس</t>
   </si>
   <si>
@@ -567,19 +563,28 @@
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
-    <t>عديات موظفين</t>
-  </si>
-  <si>
-    <t>صندوق 2 صندوق احمد صندوق 2</t>
-  </si>
-  <si>
-    <t>شـحـاتة بــــــنــــك</t>
+    <t>أبو حسن الغمري</t>
+  </si>
+  <si>
+    <t>رشدي أبو سيدو</t>
+  </si>
+  <si>
+    <t>جبر النزلي</t>
+  </si>
+  <si>
+    <t>زيادة لراس المال</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2احــــمد</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنـك</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -923,24 +928,24 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="ارتباط تشعبي" xfId="5" builtinId="8"/>
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,7 +961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1031,23 +1036,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1083,23 +1071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,23 +1246,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="K154" sqref="K2:K154"/>
+    <sheetView rightToLeft="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="J153" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="26.69921875" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
     <col min="7" max="7" width="9" style="6"/>
     <col min="10" max="11" width="9" style="6"/>
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.5">
       <c r="D1" s="7" t="s">
         <v>117</v>
       </c>
@@ -1308,7 +1279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1314,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1358,14 +1329,14 @@
         <v>-300</v>
       </c>
       <c r="E3" s="17">
-        <v>17535</v>
+        <v>17635</v>
       </c>
       <c r="F3" s="17">
-        <v>9362</v>
+        <v>17500</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-8173</v>
+        <v>-135</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
@@ -1378,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
@@ -1448,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1553,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1638,27 +1609,27 @@
         <v>-12664</v>
       </c>
       <c r="E11" s="17">
-        <v>38197</v>
+        <v>20296</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-38197</v>
+        <v>-20296</v>
       </c>
       <c r="H11" s="17">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
         <v>0</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>-21000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>142</v>
       </c>
@@ -1763,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1804,7 @@
         <v>-1400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>148</v>
       </c>
@@ -1903,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -1973,7 +1944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>143</v>
       </c>
@@ -2008,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2043,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>149</v>
       </c>
@@ -2078,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -2113,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
@@ -2148,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>22</v>
       </c>
@@ -2271,11 +2242,11 @@
         <v>4339</v>
       </c>
       <c r="F29" s="17">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>661</v>
+        <v>2661</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2288,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2358,9 +2329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2373,14 +2344,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>65805</v>
+        <v>29462</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-65805</v>
+        <v>-29462</v>
       </c>
       <c r="H32" s="17">
         <v>25712</v>
@@ -2393,19 +2364,19 @@
         <v>-25712</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="17">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="C33" s="17">
         <v>44000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
@@ -2428,7 +2399,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
@@ -2463,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
@@ -2498,7 +2469,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>121</v>
       </c>
@@ -2533,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -2568,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -2603,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -2638,19 +2609,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="17">
-        <v>4551</v>
+        <v>0</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
-        <v>-4551</v>
+        <v>0</v>
       </c>
       <c r="E40" s="17">
         <v>0</v>
@@ -2673,29 +2644,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B41" s="17">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C41" s="17">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" si="0"/>
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="E41" s="17">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F41" s="17">
         <v>0</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="H41" s="17">
         <v>0</v>
@@ -2708,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>151</v>
       </c>
@@ -2716,11 +2687,11 @@
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2743,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -2813,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
@@ -2848,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>152</v>
       </c>
@@ -2918,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>33</v>
       </c>
@@ -2953,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
@@ -2988,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
@@ -3023,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>36</v>
       </c>
@@ -3058,8 +3029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+    <row r="52" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="17">
@@ -3093,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -3128,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>144</v>
       </c>
@@ -3163,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
@@ -3233,7 +3204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>40</v>
       </c>
@@ -3268,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>41</v>
       </c>
@@ -3303,29 +3274,29 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B59" s="17">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="C59" s="17">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="E59" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F59" s="17">
         <v>0</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H59" s="17">
         <v>0</v>
@@ -3338,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>43</v>
       </c>
@@ -3373,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3382,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>45</v>
       </c>
@@ -3446,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -3481,19 +3452,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="17">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="C64" s="17">
         <v>0</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="E64" s="17">
         <v>0</v>
@@ -3516,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>48</v>
       </c>
@@ -3551,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -3586,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>50</v>
       </c>
@@ -3621,9 +3592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="17">
         <v>1500</v>
@@ -3656,17 +3627,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="B69" s="17">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -3689,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -3759,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -3794,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>145</v>
       </c>
@@ -3829,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>54</v>
       </c>
@@ -3864,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -3899,17 +3872,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="B76" s="17">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="C76" s="17">
         <v>0</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E76" s="17">
         <v>0</v>
@@ -3932,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
@@ -3967,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>57</v>
       </c>
@@ -4002,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>58</v>
       </c>
@@ -4037,29 +4012,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="17">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="E80" s="17">
-        <v>25765</v>
+        <v>36065</v>
       </c>
       <c r="F80" s="17">
-        <v>16986</v>
+        <v>18986</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-8779</v>
+        <v>-17079</v>
       </c>
       <c r="H80" s="17">
         <v>204</v>
@@ -4072,7 +4047,7 @@
         <v>-204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>60</v>
       </c>
@@ -4107,7 +4082,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>61</v>
       </c>
@@ -4142,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>62</v>
       </c>
@@ -4177,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>63</v>
       </c>
@@ -4212,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>64</v>
       </c>
@@ -4247,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>137</v>
       </c>
@@ -4282,7 +4257,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>65</v>
       </c>
@@ -4317,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>66</v>
       </c>
@@ -4352,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>67</v>
       </c>
@@ -4387,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>68</v>
       </c>
@@ -4422,7 +4397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>140</v>
       </c>
@@ -4457,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>69</v>
       </c>
@@ -4492,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
@@ -4527,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>71</v>
       </c>
@@ -4542,14 +4517,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="17">
-        <v>9150</v>
+        <v>9350</v>
       </c>
       <c r="F94" s="17">
         <v>6730</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-2420</v>
+        <v>-2620</v>
       </c>
       <c r="H94" s="17">
         <v>0</v>
@@ -4562,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>72</v>
       </c>
@@ -4597,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>73</v>
       </c>
@@ -4632,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>74</v>
       </c>
@@ -4667,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>75</v>
       </c>
@@ -4702,7 +4677,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>76</v>
       </c>
@@ -4737,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>77</v>
       </c>
@@ -4772,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>78</v>
       </c>
@@ -4807,7 +4782,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>79</v>
       </c>
@@ -4842,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>80</v>
       </c>
@@ -4877,7 +4852,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>81</v>
       </c>
@@ -4892,14 +4867,14 @@
         <v>-1400</v>
       </c>
       <c r="E104" s="17">
-        <v>4040</v>
+        <v>534</v>
       </c>
       <c r="F104" s="17">
-        <v>2294</v>
+        <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-1746</v>
+        <v>-534</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -4912,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>82</v>
       </c>
@@ -4947,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>83</v>
       </c>
@@ -4982,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>84</v>
       </c>
@@ -5017,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>85</v>
       </c>
@@ -5052,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>86</v>
       </c>
@@ -5120,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>141</v>
       </c>
@@ -5155,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>87</v>
       </c>
@@ -5190,7 +5165,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>88</v>
       </c>
@@ -5205,14 +5180,14 @@
         <v>-9520</v>
       </c>
       <c r="E113" s="17">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="F113" s="17">
         <v>400</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="4"/>
-        <v>-9600</v>
+        <v>-5100</v>
       </c>
       <c r="H113" s="17">
         <v>0</v>
@@ -5225,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>89</v>
       </c>
@@ -5260,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>90</v>
       </c>
@@ -5295,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>91</v>
       </c>
@@ -5310,14 +5285,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="F116" s="17">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5330,29 +5305,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="17">
-        <v>10000</v>
+        <v>20800</v>
       </c>
       <c r="C117" s="17">
-        <v>120000</v>
+        <v>132000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>110000</v>
+        <v>111200</v>
       </c>
       <c r="E117" s="17">
-        <v>4516</v>
+        <v>0</v>
       </c>
       <c r="F117" s="17">
         <v>0</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="4"/>
-        <v>-4516</v>
+        <v>0</v>
       </c>
       <c r="H117" s="17">
         <v>1500</v>
@@ -5365,7 +5340,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>93</v>
       </c>
@@ -5400,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>94</v>
       </c>
@@ -5435,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -5470,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>96</v>
       </c>
@@ -5505,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>97</v>
       </c>
@@ -5540,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>98</v>
       </c>
@@ -5555,14 +5530,14 @@
         <v>-10518</v>
       </c>
       <c r="E123" s="17">
-        <v>5753</v>
+        <v>5953</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-5753</v>
+        <v>-5953</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5575,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>99</v>
       </c>
@@ -5590,14 +5565,14 @@
         <v>-10418</v>
       </c>
       <c r="E124" s="17">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F124" s="17">
         <v>0</v>
       </c>
       <c r="G124" s="9">
         <f t="shared" si="4"/>
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H124" s="17">
         <v>810</v>
@@ -5610,8 +5585,10 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="B125" s="17">
         <v>0</v>
       </c>
@@ -5626,11 +5603,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5643,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>100</v>
       </c>
@@ -5678,9 +5655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="17">
         <v>500</v>
@@ -5713,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>138</v>
       </c>
@@ -5748,19 +5725,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B129" s="17">
-        <v>3520</v>
+        <v>3870</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="9">
         <f t="shared" si="3"/>
-        <v>-3520</v>
+        <v>-3870</v>
       </c>
       <c r="E129" s="17">
         <v>0</v>
@@ -5783,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>102</v>
       </c>
@@ -5818,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>103</v>
       </c>
@@ -5853,19 +5830,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B132" s="17">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C132" s="17">
         <v>2500</v>
       </c>
       <c r="D132" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E132" s="17">
         <v>720</v>
@@ -5888,19 +5865,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B133" s="17">
-        <v>16019</v>
+        <v>15019</v>
       </c>
       <c r="C133" s="17">
         <v>27906</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>11887</v>
+        <v>12887</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
@@ -5958,9 +5935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -5993,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>107</v>
       </c>
@@ -6028,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>108</v>
       </c>
@@ -6063,9 +6040,9 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6081,11 +6058,11 @@
         <v>0</v>
       </c>
       <c r="F138" s="17">
-        <v>2483</v>
+        <v>5500</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>2483</v>
+        <v>5500</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -6098,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>146</v>
       </c>
@@ -6133,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>109</v>
       </c>
@@ -6168,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>125</v>
       </c>
@@ -6183,14 +6160,14 @@
         <v>-3270</v>
       </c>
       <c r="E141" s="17">
-        <v>173911</v>
+        <v>159830</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-173911</v>
+        <v>-159830</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6203,9 +6180,9 @@
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6221,11 +6198,11 @@
         <v>0</v>
       </c>
       <c r="F142" s="17">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G142" s="9">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H142" s="17">
         <v>0</v>
@@ -6238,29 +6215,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B143" s="17">
-        <v>13115</v>
+        <v>5015</v>
       </c>
       <c r="C143" s="17">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-9515</v>
+        <v>-5015</v>
       </c>
       <c r="E143" s="17">
-        <v>2280</v>
+        <v>6080</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-2280</v>
+        <v>-6080</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6273,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>110</v>
       </c>
@@ -6308,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>111</v>
       </c>
@@ -6343,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>112</v>
       </c>
@@ -6378,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>113</v>
       </c>
@@ -6413,19 +6390,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B148" s="17">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="C148" s="17">
         <v>502460</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>487460</v>
+        <v>483460</v>
       </c>
       <c r="E148" s="17">
         <v>0</v>
@@ -6448,9 +6425,9 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6483,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>115</v>
       </c>
@@ -6518,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>116</v>
       </c>
@@ -6553,9 +6530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6589,9 +6566,9 @@
       </c>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A153" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6626,35 +6603,21 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C154" s="17">
-        <v>0</v>
-      </c>
+      <c r="A154" s="14"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
-        <v>-1000</v>
-      </c>
-      <c r="E154" s="17">
-        <v>0</v>
-      </c>
-      <c r="F154" s="17">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H154" s="17">
-        <v>0</v>
-      </c>
-      <c r="I154" s="17">
-        <v>0</v>
-      </c>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
       <c r="J154" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6671,24 +6634,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="23" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="11" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
         <v>117</v>
@@ -6706,7 +6669,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +6683,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -6728,13 +6691,13 @@
         <v>-300</v>
       </c>
       <c r="C3" s="19">
-        <v>-8173</v>
+        <v>-135</v>
       </c>
       <c r="D3" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -6748,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
@@ -6762,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -6776,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -6790,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -6804,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -6818,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -6832,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -6840,13 +6803,13 @@
         <v>-12664</v>
       </c>
       <c r="C11" s="19">
-        <v>-38197</v>
+        <v>-20296</v>
       </c>
       <c r="D11" s="19">
-        <v>-21000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -6860,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -6874,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>142</v>
       </c>
@@ -6888,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -6902,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -6916,7 +6879,7 @@
         <v>-1400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -6930,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>148</v>
       </c>
@@ -6944,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -6958,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -6972,7 +6935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>143</v>
       </c>
@@ -6986,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -7000,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>149</v>
       </c>
@@ -7014,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -7028,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
@@ -7042,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -7056,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -7070,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -7084,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>22</v>
       </c>
@@ -7092,13 +7055,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <v>661</v>
+        <v>2661</v>
       </c>
       <c r="D29" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>23</v>
       </c>
@@ -7112,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>24</v>
       </c>
@@ -7126,26 +7089,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B32" s="19">
         <v>0</v>
       </c>
       <c r="C32" s="19">
-        <v>-65805</v>
+        <v>-29462</v>
       </c>
       <c r="D32" s="19">
         <v>-25712</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="19">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
@@ -7154,7 +7117,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
@@ -7168,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
@@ -7182,7 +7145,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>121</v>
       </c>
@@ -7196,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -7210,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -7224,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7238,12 +7201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="19">
-        <v>-4551</v>
+        <v>0</v>
       </c>
       <c r="C40" s="19">
         <v>0</v>
@@ -7252,26 +7215,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B41" s="19">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C41" s="19">
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B42" s="19">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
@@ -7280,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
@@ -7294,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -7308,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
@@ -7322,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -7336,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>152</v>
       </c>
@@ -7350,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>33</v>
       </c>
@@ -7364,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
@@ -7378,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
@@ -7392,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>36</v>
       </c>
@@ -7406,8 +7369,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+    <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="19">
@@ -7420,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -7434,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>144</v>
       </c>
@@ -7448,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
@@ -7462,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
@@ -7476,7 +7439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>40</v>
       </c>
@@ -7490,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>41</v>
       </c>
@@ -7504,21 +7467,21 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B59" s="19">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="C59" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D59" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>43</v>
       </c>
@@ -7532,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>44</v>
       </c>
@@ -7549,7 +7512,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>45</v>
       </c>
@@ -7563,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -7582,7 +7545,7 @@
         <v>47</v>
       </c>
       <c r="B64" s="19">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="C64" s="19">
         <v>0</v>
@@ -7591,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>48</v>
       </c>
@@ -7605,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -7619,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>50</v>
       </c>
@@ -7633,9 +7596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="19">
         <v>-1500</v>
@@ -7647,10 +7610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="B69" s="19">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="C69" s="19">
         <v>0</v>
@@ -7659,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>51</v>
       </c>
@@ -7673,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -7687,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -7701,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>145</v>
       </c>
@@ -7715,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>54</v>
       </c>
@@ -7729,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -7743,10 +7708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="B76" s="19">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="C76" s="19">
         <v>0</v>
@@ -7755,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
@@ -7769,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>57</v>
       </c>
@@ -7783,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>58</v>
       </c>
@@ -7797,21 +7764,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="19">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="C80" s="19">
-        <v>-8779</v>
+        <v>-17079</v>
       </c>
       <c r="D80" s="19">
         <v>-204</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>60</v>
       </c>
@@ -7825,7 +7792,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>61</v>
       </c>
@@ -7839,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>62</v>
       </c>
@@ -7853,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>63</v>
       </c>
@@ -7867,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>64</v>
       </c>
@@ -7881,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>137</v>
       </c>
@@ -7895,7 +7862,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>65</v>
       </c>
@@ -7909,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>66</v>
       </c>
@@ -7923,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>67</v>
       </c>
@@ -7937,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>68</v>
       </c>
@@ -7951,7 +7918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A91" s="11" t="s">
         <v>140</v>
       </c>
@@ -7969,7 +7936,7 @@
       </c>
       <c r="H91" s="30"/>
     </row>
-    <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>69</v>
       </c>
@@ -7983,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
@@ -7997,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>71</v>
       </c>
@@ -8005,13 +7972,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="19">
-        <v>-2420</v>
+        <v>-2620</v>
       </c>
       <c r="D94" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>72</v>
       </c>
@@ -8025,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>73</v>
       </c>
@@ -8039,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>74</v>
       </c>
@@ -8053,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>75</v>
       </c>
@@ -8067,7 +8034,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>76</v>
       </c>
@@ -8081,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>77</v>
       </c>
@@ -8095,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>78</v>
       </c>
@@ -8109,7 +8076,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>79</v>
       </c>
@@ -8123,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>80</v>
       </c>
@@ -8137,7 +8104,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>81</v>
       </c>
@@ -8145,13 +8112,13 @@
         <v>-1400</v>
       </c>
       <c r="C104" s="19">
-        <v>-1746</v>
+        <v>-534</v>
       </c>
       <c r="D104" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>82</v>
       </c>
@@ -8165,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>83</v>
       </c>
@@ -8179,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>84</v>
       </c>
@@ -8193,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>85</v>
       </c>
@@ -8207,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>86</v>
       </c>
@@ -8221,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="19">
         <v>0</v>
@@ -8233,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>141</v>
       </c>
@@ -8247,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>87</v>
       </c>
@@ -8261,7 +8228,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>88</v>
       </c>
@@ -8269,13 +8236,13 @@
         <v>-9520</v>
       </c>
       <c r="C113" s="19">
-        <v>-9600</v>
+        <v>-5100</v>
       </c>
       <c r="D113" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>89</v>
       </c>
@@ -8289,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>90</v>
       </c>
@@ -8303,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>91</v>
       </c>
@@ -8311,27 +8278,27 @@
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="19">
-        <v>110000</v>
+        <v>111200</v>
       </c>
       <c r="C117" s="19">
-        <v>-4516</v>
+        <v>0</v>
       </c>
       <c r="D117" s="19">
         <v>-1500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>93</v>
       </c>
@@ -8345,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>94</v>
       </c>
@@ -8359,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -8373,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>96</v>
       </c>
@@ -8387,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>97</v>
       </c>
@@ -8401,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>98</v>
       </c>
@@ -8409,13 +8376,13 @@
         <v>-10518</v>
       </c>
       <c r="C123" s="19">
-        <v>-5753</v>
+        <v>-5953</v>
       </c>
       <c r="D123" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>99</v>
       </c>
@@ -8423,25 +8390,27 @@
         <v>-10418</v>
       </c>
       <c r="C124" s="19">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="D124" s="19">
         <v>-810</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="B125" s="19">
         <v>0</v>
       </c>
       <c r="C125" s="19">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="D125" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>100</v>
       </c>
@@ -8455,9 +8424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="19">
         <v>-500</v>
@@ -8469,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>138</v>
       </c>
@@ -8483,12 +8452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B129" s="19">
-        <v>-3520</v>
+        <v>-3870</v>
       </c>
       <c r="C129" s="19">
         <v>0</v>
@@ -8497,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>102</v>
       </c>
@@ -8511,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>103</v>
       </c>
@@ -8525,12 +8494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B132" s="19">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C132" s="19">
         <v>-720</v>
@@ -8539,12 +8508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B133" s="19">
-        <v>11887</v>
+        <v>12887</v>
       </c>
       <c r="C133" s="19">
         <v>0</v>
@@ -8553,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>106</v>
       </c>
@@ -8567,9 +8536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="19">
         <v>0</v>
@@ -8581,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>107</v>
       </c>
@@ -8595,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>108</v>
       </c>
@@ -8609,21 +8578,21 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
       </c>
       <c r="C138" s="19">
-        <v>2483</v>
+        <v>5500</v>
       </c>
       <c r="D138" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>146</v>
       </c>
@@ -8637,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>109</v>
       </c>
@@ -8651,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>125</v>
       </c>
@@ -8659,41 +8628,41 @@
         <v>-3270</v>
       </c>
       <c r="C141" s="19">
-        <v>-173911</v>
+        <v>-159830</v>
       </c>
       <c r="D141" s="19">
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="19">
         <v>0</v>
       </c>
       <c r="C142" s="19">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D142" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B143" s="19">
-        <v>-9515</v>
+        <v>-5015</v>
       </c>
       <c r="C143" s="19">
-        <v>-2280</v>
+        <v>-6080</v>
       </c>
       <c r="D143" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>110</v>
       </c>
@@ -8707,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>111</v>
       </c>
@@ -8721,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>112</v>
       </c>
@@ -8735,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>113</v>
       </c>
@@ -8749,12 +8718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B148" s="19">
-        <v>487460</v>
+        <v>483460</v>
       </c>
       <c r="C148" s="19">
         <v>0</v>
@@ -8763,9 +8732,9 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="19">
         <v>0</v>
@@ -8777,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>115</v>
       </c>
@@ -8791,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>116</v>
       </c>
@@ -8805,9 +8774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="19">
         <v>0</v>
@@ -8819,9 +8788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8834,33 +8803,22 @@
       </c>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154" s="19">
-        <v>-1000</v>
-      </c>
-      <c r="C154" s="19">
-        <v>0</v>
-      </c>
-      <c r="D154" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+    </row>
+    <row r="155" spans="1:7" s="24" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>753995</v>
+        <v>760446</v>
       </c>
       <c r="C155" s="24">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>-388828</v>
+        <v>-304545</v>
       </c>
       <c r="D155" s="24">
         <f t="shared" si="0"/>
-        <v>-23873</v>
+        <v>-2873</v>
       </c>
       <c r="E155" s="24">
         <f t="shared" si="0"/>
@@ -8874,7 +8832,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B156" s="19" t="s">
         <v>117</v>
       </c>
@@ -8894,7 +8852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
         <v>126</v>
       </c>
@@ -8906,12 +8864,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B160" s="19">
-        <v>-135703</v>
+        <v>-229715</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
@@ -8922,12 +8880,12 @@
       </c>
       <c r="G160" s="19"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B161" s="19">
-        <v>396076</v>
+        <v>436870</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
@@ -8938,12 +8896,12 @@
       </c>
       <c r="G161" s="19"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B162" s="19">
-        <v>53672</v>
+        <v>37964</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
@@ -8952,17 +8910,17 @@
       <c r="E162" s="19">
         <v>0.115</v>
       </c>
-      <c r="F162" s="35">
+      <c r="F162" s="33">
         <v>31.739130434700002</v>
       </c>
       <c r="G162" s="19"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B163" s="19">
-        <v>15300</v>
+        <v>38150</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
@@ -8971,12 +8929,12 @@
       <c r="E163" s="19">
         <v>0.185</v>
       </c>
-      <c r="F163" s="35">
+      <c r="F163" s="33">
         <v>3.83783783783</v>
       </c>
       <c r="G163" s="19"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="27" t="s">
         <v>134</v>
       </c>
@@ -8992,22 +8950,22 @@
       </c>
       <c r="G164" s="19"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B165" s="19">
-        <v>48200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="32" t="s">
+        <v>50350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B169" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9020,14 +8978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\allfiles\palExchange\backend\excel\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F82D1-81A0-4A1F-9939-5AFB21F3BB21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6540" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{E6CBD4B9-E124-40C5-92B9-81A4BDBCB0AC}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="167">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -548,18 +549,12 @@
     <t>أبوداير</t>
   </si>
   <si>
-    <t>سامي احلو</t>
-  </si>
-  <si>
     <t>ام خليل لظن</t>
   </si>
   <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t>الزهارنة ألمنيوم</t>
-  </si>
-  <si>
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
@@ -575,16 +570,19 @@
     <t>زيادة لراس المال</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2احــــمد</t>
-  </si>
-  <si>
     <t>شـحاتة بـنـك</t>
+  </si>
+  <si>
+    <t>شرين مشتهى</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق2 احمد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -940,12 +938,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="ارتباط تشعبي" xfId="5" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,7 +959,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,6 +1034,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,6 +1086,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1246,23 +1278,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A147" workbookViewId="0">
       <selection activeCell="J153" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.69921875" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
     <col min="7" max="7" width="9" style="6"/>
     <col min="10" max="11" width="9" style="6"/>
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
         <v>117</v>
       </c>
@@ -1279,7 +1311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1346,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1559,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1594,29 +1626,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="17">
-        <v>12664</v>
+        <v>73445</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-12664</v>
+        <v>-73445</v>
       </c>
       <c r="E11" s="17">
-        <v>20296</v>
+        <v>26721</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-20296</v>
+        <v>-26721</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1629,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>142</v>
       </c>
@@ -1734,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1784,14 +1816,14 @@
         <v>-6400</v>
       </c>
       <c r="E16" s="17">
-        <v>38290</v>
+        <v>38805</v>
       </c>
       <c r="F16" s="17">
         <v>37000</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-1290</v>
+        <v>-1805</v>
       </c>
       <c r="H16" s="17">
         <v>1400</v>
@@ -1804,7 +1836,7 @@
         <v>-1400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1839,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>148</v>
       </c>
@@ -1874,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +1976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>143</v>
       </c>
@@ -1979,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>149</v>
       </c>
@@ -2049,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -2084,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -2224,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>22</v>
       </c>
@@ -2259,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>166</v>
       </c>
@@ -2354,29 +2386,29 @@
         <v>-29462</v>
       </c>
       <c r="H32" s="17">
-        <v>25712</v>
+        <v>27712</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-25712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+        <v>-27712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="17">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="C33" s="17">
         <v>44000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
@@ -2399,7 +2431,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
@@ -2469,19 +2501,19 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="17">
-        <v>42200</v>
+        <v>45200</v>
       </c>
       <c r="C36" s="17">
         <v>50000</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>4800</v>
       </c>
       <c r="E36" s="17">
         <v>10060</v>
@@ -2504,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -2574,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -2609,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -2644,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>150</v>
       </c>
@@ -2679,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>151</v>
       </c>
@@ -2714,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
@@ -2749,15 +2781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="17">
-        <v>148453</v>
+        <v>1453</v>
       </c>
       <c r="C44" s="17">
-        <v>147000</v>
+        <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
@@ -2784,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
@@ -2819,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>152</v>
       </c>
@@ -2889,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>33</v>
       </c>
@@ -2924,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
@@ -2959,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>36</v>
       </c>
@@ -3029,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>153</v>
       </c>
@@ -3064,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -3079,14 +3111,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F53" s="17">
         <v>10000</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3099,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>144</v>
       </c>
@@ -3134,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
@@ -3169,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
@@ -3204,7 +3236,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>40</v>
       </c>
@@ -3239,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>41</v>
       </c>
@@ -3264,19 +3296,19 @@
         <v>-8065</v>
       </c>
       <c r="H58" s="17">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>7062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="17">
         <v>0</v>
@@ -3309,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>43</v>
       </c>
@@ -3344,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>44</v>
       </c>
@@ -3382,7 +3414,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>45</v>
       </c>
@@ -3417,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -3452,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
@@ -3487,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>48</v>
       </c>
@@ -3522,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -3557,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>50</v>
       </c>
@@ -3592,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -3627,9 +3659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="17">
         <v>350</v>
@@ -3662,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -3732,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -3767,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>145</v>
       </c>
@@ -3802,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>54</v>
       </c>
@@ -3837,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -3872,9 +3904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B76" s="17">
         <v>2700</v>
@@ -3907,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
@@ -3942,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>57</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>58</v>
       </c>
@@ -4012,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
@@ -4030,11 +4062,11 @@
         <v>36065</v>
       </c>
       <c r="F80" s="17">
-        <v>18986</v>
+        <v>22986</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-17079</v>
+        <v>-13079</v>
       </c>
       <c r="H80" s="17">
         <v>204</v>
@@ -4047,7 +4079,7 @@
         <v>-204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>60</v>
       </c>
@@ -4082,7 +4114,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>61</v>
       </c>
@@ -4117,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>62</v>
       </c>
@@ -4152,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>63</v>
       </c>
@@ -4187,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>64</v>
       </c>
@@ -4222,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>137</v>
       </c>
@@ -4257,7 +4289,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>65</v>
       </c>
@@ -4292,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>66</v>
       </c>
@@ -4327,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>67</v>
       </c>
@@ -4362,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>68</v>
       </c>
@@ -4397,7 +4429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>140</v>
       </c>
@@ -4432,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>69</v>
       </c>
@@ -4467,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
@@ -4502,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>71</v>
       </c>
@@ -4517,14 +4549,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="17">
-        <v>9350</v>
+        <v>9550</v>
       </c>
       <c r="F94" s="17">
         <v>6730</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-2620</v>
+        <v>-2820</v>
       </c>
       <c r="H94" s="17">
         <v>0</v>
@@ -4537,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>72</v>
       </c>
@@ -4572,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>73</v>
       </c>
@@ -4607,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>74</v>
       </c>
@@ -4642,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>75</v>
       </c>
@@ -4677,7 +4709,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>76</v>
       </c>
@@ -4712,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>77</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>78</v>
       </c>
@@ -4782,7 +4814,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>79</v>
       </c>
@@ -4817,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>80</v>
       </c>
@@ -4852,19 +4884,19 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="17">
-        <v>1400</v>
+        <v>4400</v>
       </c>
       <c r="C104" s="17">
         <v>0</v>
       </c>
       <c r="D104" s="9">
         <f t="shared" si="3"/>
-        <v>-1400</v>
+        <v>-4400</v>
       </c>
       <c r="E104" s="17">
         <v>534</v>
@@ -4887,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>82</v>
       </c>
@@ -4922,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>83</v>
       </c>
@@ -4957,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>84</v>
       </c>
@@ -4992,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>85</v>
       </c>
@@ -5027,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>86</v>
       </c>
@@ -5063,7 +5095,9 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="B110" s="17">
         <v>0</v>
       </c>
@@ -5075,14 +5109,14 @@
         <v>0</v>
       </c>
       <c r="E110" s="17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F110" s="17">
         <v>0</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H110" s="17">
         <v>0</v>
@@ -5095,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>141</v>
       </c>
@@ -5130,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>87</v>
       </c>
@@ -5165,7 +5199,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>88</v>
       </c>
@@ -5200,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>89</v>
       </c>
@@ -5235,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>90</v>
       </c>
@@ -5270,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>91</v>
       </c>
@@ -5288,11 +5322,11 @@
         <v>0</v>
       </c>
       <c r="F116" s="17">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5305,29 +5339,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="17">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="C117" s="17">
         <v>132000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>111200</v>
+        <v>132000</v>
       </c>
       <c r="E117" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F117" s="17">
         <v>0</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H117" s="17">
         <v>1500</v>
@@ -5340,7 +5374,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>93</v>
       </c>
@@ -5375,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>94</v>
       </c>
@@ -5410,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -5425,14 +5459,14 @@
         <v>0</v>
       </c>
       <c r="E120" s="17">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="F120" s="17">
         <v>27300</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5445,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>96</v>
       </c>
@@ -5480,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>97</v>
       </c>
@@ -5515,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>98</v>
       </c>
@@ -5550,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>99</v>
       </c>
@@ -5585,9 +5619,9 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5620,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>100</v>
       </c>
@@ -5655,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>155</v>
       </c>
@@ -5690,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>138</v>
       </c>
@@ -5725,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>101</v>
       </c>
@@ -5760,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>102</v>
       </c>
@@ -5795,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>103</v>
       </c>
@@ -5830,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>104</v>
       </c>
@@ -5865,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>105</v>
       </c>
@@ -5935,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>156</v>
       </c>
@@ -5970,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>107</v>
       </c>
@@ -6005,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>108</v>
       </c>
@@ -6040,10 +6074,8 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>157</v>
-      </c>
+    <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
       <c r="B138" s="17">
         <v>0</v>
       </c>
@@ -6058,11 +6090,11 @@
         <v>0</v>
       </c>
       <c r="F138" s="17">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -6075,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>146</v>
       </c>
@@ -6110,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>109</v>
       </c>
@@ -6145,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>125</v>
       </c>
@@ -6160,14 +6192,14 @@
         <v>-3270</v>
       </c>
       <c r="E141" s="17">
-        <v>159830</v>
+        <v>139830</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-159830</v>
+        <v>-139830</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6180,9 +6212,9 @@
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6215,9 +6247,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B143" s="17">
         <v>5015</v>
@@ -6230,14 +6262,14 @@
         <v>-5015</v>
       </c>
       <c r="E143" s="17">
-        <v>6080</v>
+        <v>1080</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-6080</v>
+        <v>-1080</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6250,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>110</v>
       </c>
@@ -6285,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>111</v>
       </c>
@@ -6320,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>112</v>
       </c>
@@ -6355,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>113</v>
       </c>
@@ -6370,14 +6402,14 @@
         <v>0</v>
       </c>
       <c r="E147" s="17">
-        <v>69312</v>
+        <v>53384</v>
       </c>
       <c r="F147" s="17">
         <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-69312</v>
+        <v>-53384</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6390,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>114</v>
       </c>
@@ -6425,9 +6457,9 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6460,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>115</v>
       </c>
@@ -6495,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>116</v>
       </c>
@@ -6530,10 +6562,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
-        <v>160</v>
-      </c>
+    <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
       <c r="B152" s="17">
         <v>0</v>
       </c>
@@ -6545,14 +6575,14 @@
         <v>0</v>
       </c>
       <c r="E152" s="17">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F152" s="17">
         <v>0</v>
       </c>
       <c r="G152" s="9">
         <f t="shared" si="7"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="H152" s="17">
         <v>0</v>
@@ -6566,9 +6596,9 @@
       </c>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:12" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6634,24 +6664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="11" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
         <v>117</v>
@@ -6669,7 +6699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -6683,7 +6713,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -6711,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
@@ -6725,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -6739,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -6753,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -6767,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -6781,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -6795,21 +6825,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="19">
-        <v>-12664</v>
+        <v>-73445</v>
       </c>
       <c r="C11" s="19">
-        <v>-20296</v>
+        <v>-26721</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -6823,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -6837,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>142</v>
       </c>
@@ -6851,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -6865,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -6873,13 +6903,13 @@
         <v>-6400</v>
       </c>
       <c r="C16" s="19">
-        <v>-1290</v>
+        <v>-1805</v>
       </c>
       <c r="D16" s="19">
         <v>-1400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -6893,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>148</v>
       </c>
@@ -6907,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +6965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>143</v>
       </c>
@@ -6949,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -6963,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>149</v>
       </c>
@@ -6977,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -6991,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
@@ -7005,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -7019,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -7033,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -7047,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>22</v>
       </c>
@@ -7061,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>23</v>
       </c>
@@ -7075,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>24</v>
       </c>
@@ -7089,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>166</v>
       </c>
@@ -7100,15 +7130,15 @@
         <v>-29462</v>
       </c>
       <c r="D32" s="19">
-        <v>-25712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+        <v>-27712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="19">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
@@ -7117,7 +7147,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
@@ -7131,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
@@ -7145,12 +7175,12 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="19">
-        <v>7800</v>
+        <v>4800</v>
       </c>
       <c r="C36" s="19">
         <v>2940</v>
@@ -7159,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -7173,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -7187,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7201,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>139</v>
       </c>
@@ -7215,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>150</v>
       </c>
@@ -7229,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>151</v>
       </c>
@@ -7243,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>31</v>
       </c>
@@ -7257,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -7271,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>124</v>
       </c>
@@ -7285,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -7299,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>152</v>
       </c>
@@ -7313,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>33</v>
       </c>
@@ -7327,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
@@ -7341,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
@@ -7355,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>36</v>
       </c>
@@ -7369,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>153</v>
       </c>
@@ -7383,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -7391,13 +7421,13 @@
         <v>-5000</v>
       </c>
       <c r="C53" s="19">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="D53" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>144</v>
       </c>
@@ -7411,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>38</v>
       </c>
@@ -7425,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
@@ -7439,7 +7469,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>40</v>
       </c>
@@ -7453,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>41</v>
       </c>
@@ -7464,12 +7494,12 @@
         <v>-8065</v>
       </c>
       <c r="D58" s="19">
-        <v>7062</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="19">
         <v>0</v>
@@ -7481,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>43</v>
       </c>
@@ -7495,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>44</v>
       </c>
@@ -7512,7 +7542,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>45</v>
       </c>
@@ -7526,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>46</v>
       </c>
@@ -7554,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>48</v>
       </c>
@@ -7568,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -7582,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>50</v>
       </c>
@@ -7596,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -7610,9 +7640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="19">
         <v>-350</v>
@@ -7624,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>51</v>
       </c>
@@ -7638,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>52</v>
       </c>
@@ -7652,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>53</v>
       </c>
@@ -7666,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>145</v>
       </c>
@@ -7680,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>54</v>
       </c>
@@ -7694,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -7708,9 +7738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B76" s="19">
         <v>-2700</v>
@@ -7722,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
@@ -7736,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>57</v>
       </c>
@@ -7750,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>58</v>
       </c>
@@ -7764,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
@@ -7772,13 +7802,13 @@
         <v>-100</v>
       </c>
       <c r="C80" s="19">
-        <v>-17079</v>
+        <v>-13079</v>
       </c>
       <c r="D80" s="19">
         <v>-204</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>60</v>
       </c>
@@ -7792,7 +7822,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>61</v>
       </c>
@@ -7806,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>62</v>
       </c>
@@ -7820,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>63</v>
       </c>
@@ -7834,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>64</v>
       </c>
@@ -7848,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>137</v>
       </c>
@@ -7862,7 +7892,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>65</v>
       </c>
@@ -7876,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>66</v>
       </c>
@@ -7890,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>67</v>
       </c>
@@ -7904,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>68</v>
       </c>
@@ -7918,7 +7948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
         <v>140</v>
       </c>
@@ -7936,7 +7966,7 @@
       </c>
       <c r="H91" s="30"/>
     </row>
-    <row r="92" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>69</v>
       </c>
@@ -7950,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>70</v>
       </c>
@@ -7964,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>71</v>
       </c>
@@ -7972,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="19">
-        <v>-2620</v>
+        <v>-2820</v>
       </c>
       <c r="D94" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>72</v>
       </c>
@@ -7992,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>73</v>
       </c>
@@ -8006,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>74</v>
       </c>
@@ -8020,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>75</v>
       </c>
@@ -8034,7 +8064,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>76</v>
       </c>
@@ -8048,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>77</v>
       </c>
@@ -8062,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>78</v>
       </c>
@@ -8076,7 +8106,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>79</v>
       </c>
@@ -8090,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>80</v>
       </c>
@@ -8104,12 +8134,12 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="19">
-        <v>-1400</v>
+        <v>-4400</v>
       </c>
       <c r="C104" s="19">
         <v>-534</v>
@@ -8118,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>82</v>
       </c>
@@ -8132,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>83</v>
       </c>
@@ -8146,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>84</v>
       </c>
@@ -8160,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>85</v>
       </c>
@@ -8174,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>86</v>
       </c>
@@ -8188,19 +8218,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+    <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="B110" s="19">
         <v>0</v>
       </c>
       <c r="C110" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D110" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>141</v>
       </c>
@@ -8214,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>87</v>
       </c>
@@ -8228,7 +8260,7 @@
         <v>-550</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>88</v>
       </c>
@@ -8242,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>89</v>
       </c>
@@ -8256,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>90</v>
       </c>
@@ -8270,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>91</v>
       </c>
@@ -8278,27 +8310,27 @@
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="19">
-        <v>111200</v>
+        <v>132000</v>
       </c>
       <c r="C117" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D117" s="19">
         <v>-1500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>93</v>
       </c>
@@ -8312,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>94</v>
       </c>
@@ -8326,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -8334,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="C120" s="19">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>96</v>
       </c>
@@ -8354,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>97</v>
       </c>
@@ -8368,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>98</v>
       </c>
@@ -8382,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>99</v>
       </c>
@@ -8396,9 +8428,9 @@
         <v>-810</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B125" s="19">
         <v>0</v>
@@ -8410,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>100</v>
       </c>
@@ -8424,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>155</v>
       </c>
@@ -8438,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>138</v>
       </c>
@@ -8452,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>101</v>
       </c>
@@ -8466,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>102</v>
       </c>
@@ -8480,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>103</v>
       </c>
@@ -8494,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>104</v>
       </c>
@@ -8508,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>105</v>
       </c>
@@ -8522,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>106</v>
       </c>
@@ -8536,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>156</v>
       </c>
@@ -8550,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>107</v>
       </c>
@@ -8564,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>108</v>
       </c>
@@ -8578,21 +8610,19 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>157</v>
-      </c>
+    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
       <c r="B138" s="19">
         <v>0</v>
       </c>
       <c r="C138" s="19">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="D138" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>146</v>
       </c>
@@ -8606,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>109</v>
       </c>
@@ -8620,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>125</v>
       </c>
@@ -8628,15 +8658,15 @@
         <v>-3270</v>
       </c>
       <c r="C141" s="19">
-        <v>-159830</v>
+        <v>-139830</v>
       </c>
       <c r="D141" s="19">
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" s="19">
         <v>0</v>
@@ -8648,21 +8678,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B143" s="19">
         <v>-5015</v>
       </c>
       <c r="C143" s="19">
-        <v>-6080</v>
+        <v>-1080</v>
       </c>
       <c r="D143" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>110</v>
       </c>
@@ -8676,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>111</v>
       </c>
@@ -8690,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>112</v>
       </c>
@@ -8704,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>113</v>
       </c>
@@ -8712,13 +8742,13 @@
         <v>0</v>
       </c>
       <c r="C147" s="19">
-        <v>-69312</v>
+        <v>-53384</v>
       </c>
       <c r="D147" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>114</v>
       </c>
@@ -8732,9 +8762,9 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B149" s="19">
         <v>0</v>
@@ -8746,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>115</v>
       </c>
@@ -8760,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>116</v>
       </c>
@@ -8774,23 +8804,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
-        <v>160</v>
-      </c>
+    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
       <c r="B152" s="19">
         <v>0</v>
       </c>
       <c r="C152" s="19">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="D152" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8803,22 +8831,22 @@
       </c>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:7" s="24" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>760446</v>
+        <v>711465</v>
       </c>
       <c r="C155" s="24">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>-304545</v>
+        <v>-275757</v>
       </c>
       <c r="D155" s="24">
         <f t="shared" si="0"/>
-        <v>-2873</v>
+        <v>-5173</v>
       </c>
       <c r="E155" s="24">
         <f t="shared" si="0"/>
@@ -8832,7 +8860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="19" t="s">
         <v>117</v>
       </c>
@@ -8852,7 +8880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
         <v>126</v>
       </c>
@@ -8864,12 +8892,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B160" s="19">
-        <v>-229715</v>
+        <v>-297573</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
@@ -8880,12 +8908,12 @@
       </c>
       <c r="G160" s="19"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B161" s="19">
-        <v>436870</v>
+        <v>447981</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
@@ -8896,12 +8924,12 @@
       </c>
       <c r="G161" s="19"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B162" s="19">
-        <v>37964</v>
+        <v>43484</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
@@ -8915,12 +8943,12 @@
       </c>
       <c r="G162" s="19"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B163" s="19">
-        <v>38150</v>
+        <v>26130</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
@@ -8934,12 +8962,12 @@
       </c>
       <c r="G163" s="19"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B164" s="19">
-        <v>9992</v>
+        <v>10492</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
@@ -8950,15 +8978,15 @@
       </c>
       <c r="G164" s="19"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B165" s="19">
-        <v>50350</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="34" t="s">
         <v>136</v>
       </c>
@@ -8978,14 +9006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F82D1-81A0-4A1F-9939-5AFB21F3BB21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D56412-6BD7-402C-9B74-39727E36E1EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{E6CBD4B9-E124-40C5-92B9-81A4BDBCB0AC}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{17674226-88DE-4164-964E-7536BA85A915}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -197,9 +197,6 @@
     <t>عمر أبو سيدو</t>
   </si>
   <si>
-    <t>ابو حمزة المشهراوي</t>
-  </si>
-  <si>
     <t>مجموع عملات أجنبية</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>أبو مدللة</t>
   </si>
   <si>
-    <t>أبو علي أبو طويلة</t>
-  </si>
-  <si>
     <t>الشيخ رضوان</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>أبو خميس الجرجاوي 2</t>
   </si>
   <si>
-    <t>حساينة الرمال</t>
-  </si>
-  <si>
     <t>البنك الاسلامي الفلسطيني</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
   </si>
   <si>
     <t>الجنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جبركحيل </t>
   </si>
   <si>
     <t>الريال</t>
@@ -501,9 +489,6 @@
     <t xml:space="preserve">ابو انس </t>
   </si>
   <si>
-    <t>خالد الغندور</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
@@ -516,51 +501,24 @@
     <t>مالك أبو معروف</t>
   </si>
   <si>
-    <t>أبو يعقوب لظن</t>
-  </si>
-  <si>
     <t>يورو</t>
   </si>
   <si>
-    <t>محمد فورة</t>
-  </si>
-  <si>
     <t>أبو علي أبو طويلة  2 تشغيل</t>
   </si>
   <si>
-    <t>جهاد الريس</t>
-  </si>
-  <si>
     <t>تجميع كهرباء</t>
   </si>
   <si>
-    <t>أبو علاء سكيك</t>
-  </si>
-  <si>
     <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
   </si>
   <si>
-    <t>اياد الريس</t>
-  </si>
-  <si>
-    <t>نهاد المدهون   أبو فياض</t>
-  </si>
-  <si>
-    <t>أبوداير</t>
-  </si>
-  <si>
     <t>ام خليل لظن</t>
   </si>
   <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t xml:space="preserve">منيب أبو سيد </t>
-  </si>
-  <si>
-    <t>أبو حسن الغمري</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -573,10 +531,43 @@
     <t>شـحاتة بـنـك</t>
   </si>
   <si>
-    <t>شرين مشتهى</t>
-  </si>
-  <si>
-    <t>صندوق2 صندوق احمد صندوق2 احمد</t>
+    <t>حسام صالحة</t>
+  </si>
+  <si>
+    <t>ابو حمزة المشهراوي + أسامة سفر</t>
+  </si>
+  <si>
+    <t>أبو علاء  سكيك</t>
+  </si>
+  <si>
+    <t>مصاريف عزومة العبادلة</t>
+  </si>
+  <si>
+    <t>حسان صوان كومدووور</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>الزهارنة المنيوم</t>
+  </si>
+  <si>
+    <t>عابدين</t>
+  </si>
+  <si>
+    <t>اعديات الموظفين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البسمة </t>
+  </si>
+  <si>
+    <t>شيكات أجلة للصرف</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احـــــــــــــمـــــــــد 2</t>
+  </si>
+  <si>
+    <t>منيب أبو سيدو</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="J153" sqref="J2:J153"/>
+    <sheetView rightToLeft="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,19 +1287,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1351,14 +1342,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="17">
-        <v>300</v>
+        <v>2150</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-300</v>
+        <v>-2150</v>
       </c>
       <c r="E3" s="17">
         <v>17635</v>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1631,24 +1622,24 @@
         <v>8</v>
       </c>
       <c r="B11" s="17">
-        <v>73445</v>
+        <v>193778</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-73445</v>
+        <v>-193778</v>
       </c>
       <c r="E11" s="17">
-        <v>26721</v>
+        <v>606</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-26721</v>
+        <v>-606</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1733,7 +1724,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1806,34 +1797,34 @@
         <v>12</v>
       </c>
       <c r="B16" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C16" s="17">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>38805</v>
+        <v>515</v>
       </c>
       <c r="F16" s="17">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-1805</v>
+        <v>-515</v>
       </c>
       <c r="H16" s="17">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>-1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -1872,18 +1863,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="17">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -1978,27 +1967,27 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B21" s="17">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="C21" s="17">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-714</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="17">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
         <v>0</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>-571</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -2048,27 +2037,27 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B23" s="17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C23" s="17">
         <v>0</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="17">
         <v>100000</v>
       </c>
       <c r="F23" s="17">
-        <v>90000</v>
+        <v>91883</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>-10000</v>
+        <v>-8117</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2271,14 +2260,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>4339</v>
+        <v>5339</v>
       </c>
       <c r="F29" s="17">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>2661</v>
+        <v>3661</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2363,7 +2352,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2376,24 +2365,24 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>29462</v>
+        <v>152370</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-29462</v>
+        <v>-152370</v>
       </c>
       <c r="H32" s="17">
-        <v>27712</v>
+        <v>10848</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-27712</v>
+        <v>-10848</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2401,14 +2390,14 @@
         <v>25</v>
       </c>
       <c r="B33" s="17">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="C33" s="17">
-        <v>44000</v>
+        <v>96150</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>67150</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
@@ -2421,14 +2410,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="17">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="I33" s="17">
         <v>40000</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2491,39 +2480,37 @@
         <v>-1635</v>
       </c>
       <c r="H35" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="17">
-        <v>45200</v>
+        <v>0</v>
       </c>
       <c r="C36" s="17">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E36" s="17">
-        <v>10060</v>
+        <v>0</v>
       </c>
       <c r="F36" s="17">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2642,9 +2629,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="17">
         <v>0</v>
       </c>
@@ -2677,9 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="17">
         <v>0</v>
       </c>
@@ -2713,17 +2696,17 @@
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B42" s="17">
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2786,24 +2769,24 @@
         <v>42</v>
       </c>
       <c r="B44" s="17">
-        <v>1453</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-1453</v>
+        <v>-2000</v>
       </c>
       <c r="E44" s="17">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-30000</v>
+        <v>-40000</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2818,7 +2801,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2888,27 +2871,27 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B47" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F47" s="17">
         <v>0</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -3031,24 +3014,24 @@
         <v>36</v>
       </c>
       <c r="B51" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C51" s="17">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="E51" s="17">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="F51" s="17">
         <v>700</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="H51" s="17">
         <v>0</v>
@@ -3063,7 +3046,7 @@
     </row>
     <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -3111,14 +3094,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>3500</v>
+        <v>7700</v>
       </c>
       <c r="F53" s="17">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3133,7 +3116,7 @@
     </row>
     <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3276,39 +3259,39 @@
         <v>41</v>
       </c>
       <c r="B58" s="17">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C58" s="17">
         <v>0</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E58" s="17">
-        <v>8065</v>
+        <v>8265</v>
       </c>
       <c r="F58" s="17">
         <v>0</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>-8065</v>
+        <v>-8265</v>
       </c>
       <c r="H58" s="17">
-        <v>1338</v>
+        <v>1638</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>6762</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B59" s="17">
         <v>0</v>
@@ -3321,14 +3304,14 @@
         <v>0</v>
       </c>
       <c r="E59" s="17">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F59" s="17">
         <v>0</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H59" s="17">
         <v>0</v>
@@ -3378,27 +3361,27 @@
     </row>
     <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="B61" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
       </c>
       <c r="D61" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E61" s="17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F61" s="17">
         <v>0</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="H61" s="17">
         <v>0</v>
@@ -3416,7 +3399,7 @@
     </row>
     <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3429,14 +3412,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>60765</v>
+        <v>61500</v>
       </c>
       <c r="F62" s="17">
         <v>49820</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-10945</v>
+        <v>-11680</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3451,7 +3434,7 @@
     </row>
     <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3486,17 +3469,17 @@
     </row>
     <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="17">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C64" s="17">
         <v>0</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E64" s="17">
         <v>0</v>
@@ -3521,7 +3504,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3556,7 +3539,7 @@
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="17">
         <v>0</v>
@@ -3591,7 +3574,7 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" s="17">
         <v>0</v>
@@ -3626,17 +3609,17 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="17">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>-1500</v>
+        <v>-200</v>
       </c>
       <c r="E68" s="17">
         <v>0</v>
@@ -3661,27 +3644,27 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B69" s="17">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>-350</v>
+        <v>-620</v>
       </c>
       <c r="E69" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F69" s="17">
         <v>0</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H69" s="17">
         <v>0</v>
@@ -3696,7 +3679,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3731,7 +3714,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3766,7 +3749,7 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
@@ -3801,7 +3784,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3814,14 +3797,14 @@
         <v>0</v>
       </c>
       <c r="E73" s="17">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="F73" s="17">
         <v>0</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="4"/>
-        <v>-350</v>
+        <v>-422</v>
       </c>
       <c r="H73" s="17">
         <v>0</v>
@@ -3836,7 +3819,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3871,7 +3854,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3906,7 +3889,7 @@
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B76" s="17">
         <v>2700</v>
@@ -3941,7 +3924,7 @@
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3976,7 +3959,7 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
@@ -4011,7 +3994,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4046,52 +4029,52 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="17">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-2100</v>
       </c>
       <c r="E80" s="17">
-        <v>36065</v>
+        <v>21930</v>
       </c>
       <c r="F80" s="17">
-        <v>22986</v>
+        <v>0</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-13079</v>
+        <v>-21930</v>
       </c>
       <c r="H80" s="17">
-        <v>204</v>
+        <v>2704</v>
       </c>
       <c r="I80" s="17">
         <v>0</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="5"/>
-        <v>-204</v>
+        <v>-2704</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C81" s="17">
         <v>0</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4104,19 +4087,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="17">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="5"/>
-        <v>-2500</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4151,7 +4134,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4186,7 +4169,7 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
@@ -4221,7 +4204,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4256,7 +4239,7 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B86" s="17">
         <v>0</v>
@@ -4279,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="H86" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I86" s="17">
         <v>0</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="17">
         <v>0</v>
@@ -4326,7 +4309,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4361,7 +4344,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4396,7 +4379,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4431,17 +4414,17 @@
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B91" s="17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E91" s="17">
         <v>0</v>
@@ -4466,7 +4449,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4501,7 +4484,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4536,7 +4519,7 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
@@ -4549,14 +4532,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="17">
-        <v>9550</v>
+        <v>10250</v>
       </c>
       <c r="F94" s="17">
         <v>6730</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-2820</v>
+        <v>-3520</v>
       </c>
       <c r="H94" s="17">
         <v>0</v>
@@ -4571,7 +4554,7 @@
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="17">
         <v>280</v>
@@ -4584,14 +4567,14 @@
         <v>-280</v>
       </c>
       <c r="E95" s="17">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="F95" s="17">
         <v>0</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="4"/>
-        <v>-2300</v>
+        <v>-1500</v>
       </c>
       <c r="H95" s="17">
         <v>0</v>
@@ -4605,28 +4588,26 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="A96" s="11"/>
       <c r="B96" s="17">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" si="3"/>
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="E96" s="17">
         <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4641,7 +4622,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4676,7 +4657,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
@@ -4689,29 +4670,29 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="F98" s="17">
         <v>8400</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>8200</v>
+        <v>3400</v>
       </c>
       <c r="H98" s="17">
-        <v>27960</v>
+        <v>31634</v>
       </c>
       <c r="I98" s="17">
         <v>31960</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
@@ -4746,7 +4727,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4781,7 +4762,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101" s="17">
         <v>8000</v>
@@ -4794,14 +4775,14 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="17">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="F101" s="17">
         <v>0</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>-650</v>
       </c>
       <c r="H101" s="17">
         <v>40</v>
@@ -4816,7 +4797,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4851,7 +4832,7 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B103" s="17">
         <v>500</v>
@@ -4886,27 +4867,27 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B104" s="17">
-        <v>4400</v>
+        <v>1600</v>
       </c>
       <c r="C104" s="17">
         <v>0</v>
       </c>
       <c r="D104" s="9">
         <f t="shared" si="3"/>
-        <v>-4400</v>
+        <v>-1600</v>
       </c>
       <c r="E104" s="17">
-        <v>534</v>
+        <v>10176</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-534</v>
+        <v>-10176</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -4921,7 +4902,7 @@
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4956,7 +4937,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -4991,7 +4972,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -5026,7 +5007,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5061,7 +5042,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5096,27 +5077,27 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B110" s="17">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
       <c r="D110" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="E110" s="17">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F110" s="17">
         <v>0</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="4"/>
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H110" s="17">
         <v>0</v>
@@ -5131,17 +5112,17 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B111" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E111" s="17">
         <v>0</v>
@@ -5166,7 +5147,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5201,7 +5182,7 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B113" s="17">
         <v>29920</v>
@@ -5214,14 +5195,14 @@
         <v>-9520</v>
       </c>
       <c r="E113" s="17">
-        <v>5500</v>
+        <v>1700</v>
       </c>
       <c r="F113" s="17">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="4"/>
-        <v>-5100</v>
+        <v>700</v>
       </c>
       <c r="H113" s="17">
         <v>0</v>
@@ -5236,7 +5217,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5271,7 +5252,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5306,7 +5287,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5319,14 +5300,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F116" s="17">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5341,27 +5322,27 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B117" s="17">
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>132000</v>
+        <v>135000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>132000</v>
+        <v>135000</v>
       </c>
       <c r="E117" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F117" s="17">
         <v>0</v>
       </c>
       <c r="G117" s="9">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H117" s="17">
         <v>1500</v>
@@ -5376,7 +5357,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5411,27 +5392,27 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B119" s="17">
-        <v>150</v>
+        <v>5150</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="9">
         <f t="shared" si="3"/>
-        <v>-150</v>
+        <v>-5150</v>
       </c>
       <c r="E119" s="17">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="F119" s="17">
         <v>0</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>-2700</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -5446,27 +5427,27 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B120" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C120" s="17">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="E120" s="17">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F120" s="17">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5481,7 +5462,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5516,7 +5497,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5551,27 +5532,27 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B123" s="17">
-        <v>10518</v>
+        <v>11618</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-10518</v>
+        <v>-11618</v>
       </c>
       <c r="E123" s="17">
-        <v>5953</v>
+        <v>4968</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-5953</v>
+        <v>-4968</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5586,17 +5567,17 @@
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B124" s="17">
-        <v>10418</v>
+        <v>14678</v>
       </c>
       <c r="C124" s="17">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="D124" s="9">
         <f t="shared" si="3"/>
-        <v>-10418</v>
+        <v>-13918</v>
       </c>
       <c r="E124" s="17">
         <v>800</v>
@@ -5621,7 +5602,7 @@
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5637,11 +5618,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>2365</v>
+        <v>8350</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>2365</v>
+        <v>8350</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5656,7 +5637,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5691,17 +5672,17 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" s="17">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="9">
         <f t="shared" si="3"/>
-        <v>-500</v>
+        <v>-3500</v>
       </c>
       <c r="E127" s="17">
         <v>0</v>
@@ -5726,7 +5707,7 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B128" s="17">
         <v>2500</v>
@@ -5761,7 +5742,7 @@
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B129" s="17">
         <v>3870</v>
@@ -5796,7 +5777,7 @@
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5831,7 +5812,7 @@
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5866,17 +5847,17 @@
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B132" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C132" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D132" s="9">
         <f t="shared" si="6"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E132" s="17">
         <v>720</v>
@@ -5901,7 +5882,7 @@
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B133" s="17">
         <v>15019</v>
@@ -5936,7 +5917,7 @@
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -5971,7 +5952,7 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -5984,14 +5965,14 @@
         <v>0</v>
       </c>
       <c r="E135" s="17">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F135" s="17">
         <v>0</v>
       </c>
       <c r="G135" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="H135" s="17">
         <v>0</v>
@@ -6006,7 +5987,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6041,7 +6022,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6075,7 +6056,9 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B138" s="17">
         <v>0</v>
       </c>
@@ -6090,46 +6073,46 @@
         <v>0</v>
       </c>
       <c r="F138" s="17">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H138" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I138" s="17">
         <v>0</v>
       </c>
       <c r="J138" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B139" s="17">
         <v>0</v>
       </c>
       <c r="C139" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E139" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F139" s="17">
         <v>0</v>
       </c>
       <c r="G139" s="9">
         <f t="shared" si="7"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H139" s="17">
         <v>0</v>
@@ -6143,9 +6126,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A140" s="14"/>
       <c r="B140" s="17">
         <v>0</v>
       </c>
@@ -6157,14 +6138,14 @@
         <v>0</v>
       </c>
       <c r="E140" s="17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F140" s="17">
         <v>0</v>
       </c>
       <c r="G140" s="9">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H140" s="17">
         <v>0</v>
@@ -6179,27 +6160,27 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B141" s="17">
-        <v>3270</v>
+        <v>1075</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>-3270</v>
+        <v>-1075</v>
       </c>
       <c r="E141" s="17">
-        <v>139830</v>
+        <v>135727</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-139830</v>
+        <v>-135727</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6214,7 +6195,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6249,27 +6230,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B143" s="17">
-        <v>5015</v>
+        <v>2415</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-5015</v>
+        <v>-2415</v>
       </c>
       <c r="E143" s="17">
-        <v>1080</v>
+        <v>7430</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-1080</v>
+        <v>-7430</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6284,7 +6265,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6319,7 +6300,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6354,7 +6335,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6389,7 +6370,7 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B147" s="17">
         <v>0</v>
@@ -6402,14 +6383,14 @@
         <v>0</v>
       </c>
       <c r="E147" s="17">
-        <v>53384</v>
+        <v>49704</v>
       </c>
       <c r="F147" s="17">
         <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-53384</v>
+        <v>-49704</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6424,7 +6405,7 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B148" s="17">
         <v>19000</v>
@@ -6459,7 +6440,7 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6472,14 +6453,14 @@
         <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F149" s="17">
         <v>0</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6494,7 +6475,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B150" s="17">
         <v>1000</v>
@@ -6529,7 +6510,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6563,7 +6544,9 @@
       </c>
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="B152" s="17">
         <v>0</v>
       </c>
@@ -6575,14 +6558,14 @@
         <v>0</v>
       </c>
       <c r="E152" s="17">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F152" s="17">
         <v>0</v>
       </c>
       <c r="G152" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="H152" s="17">
         <v>0</v>
@@ -6598,7 +6581,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6611,14 +6594,14 @@
         <v>0</v>
       </c>
       <c r="E153" s="17">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="F153" s="17">
         <v>0</v>
       </c>
       <c r="G153" s="9">
         <f t="shared" si="7"/>
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="H153" s="17">
         <v>0</v>
@@ -6633,21 +6616,35 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
+      <c r="A154" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="17">
+        <v>0</v>
+      </c>
+      <c r="C154" s="17">
+        <v>13000</v>
+      </c>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
+        <v>13000</v>
+      </c>
+      <c r="E154" s="17">
+        <v>0</v>
+      </c>
+      <c r="F154" s="17">
+        <v>1200</v>
+      </c>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
+        <v>1200</v>
+      </c>
+      <c r="H154" s="17">
+        <v>0</v>
+      </c>
+      <c r="I154" s="17">
+        <v>0</v>
+      </c>
       <c r="J154" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6667,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6678,64 +6675,53 @@
     <col min="3" max="3" width="11" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="19" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19">
-        <v>-75</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19">
-        <v>-17</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="19">
-        <v>-300</v>
+        <v>-75</v>
       </c>
       <c r="C3" s="19">
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="D3" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="19">
-        <v>0</v>
+        <v>-2150</v>
       </c>
       <c r="C4" s="19">
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -6743,13 +6729,13 @@
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
       </c>
       <c r="C5" s="19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -6757,13 +6743,13 @@
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
       </c>
       <c r="C6" s="19">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -6771,13 +6757,13 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
       </c>
       <c r="C7" s="19">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -6785,13 +6771,13 @@
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="19">
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>100000</v>
+        <v>1824</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -6799,13 +6785,13 @@
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="19">
         <v>0</v>
       </c>
       <c r="C9" s="19">
-        <v>590</v>
+        <v>100000</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -6813,13 +6799,13 @@
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="19">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C10" s="19">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -6827,13 +6813,13 @@
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="19">
-        <v>-73445</v>
+        <v>-200</v>
       </c>
       <c r="C11" s="19">
-        <v>-26721</v>
+        <v>0</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -6841,13 +6827,13 @@
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="19">
-        <v>0</v>
+        <v>-193778</v>
       </c>
       <c r="C12" s="19">
-        <v>-300</v>
+        <v>-606</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6855,13 +6841,13 @@
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="19">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="19">
-        <v>-22329</v>
+        <v>-300</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -6869,13 +6855,13 @@
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="B14" s="19">
-        <v>-380</v>
+        <v>-30</v>
       </c>
       <c r="C14" s="19">
-        <v>-250</v>
+        <v>-22329</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -6883,13 +6869,13 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B15" s="19">
-        <v>0</v>
+        <v>-380</v>
       </c>
       <c r="C15" s="19">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -6897,27 +6883,27 @@
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="19">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="C16" s="19">
-        <v>-1805</v>
+        <v>0</v>
       </c>
       <c r="D16" s="19">
-        <v>-1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <v>0</v>
+        <v>-515</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -6925,10 +6911,10 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B18" s="19">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="C18" s="19">
         <v>0</v>
@@ -6938,14 +6924,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="19">
         <v>0</v>
       </c>
       <c r="C19" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -6953,41 +6937,41 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
       </c>
       <c r="C20" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D20" s="19">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="B21" s="19">
-        <v>-714</v>
+        <v>0</v>
       </c>
       <c r="C21" s="19">
-        <v>-571</v>
+        <v>0</v>
       </c>
       <c r="D21" s="19">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B22" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C22" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -6995,13 +6979,13 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B23" s="19">
         <v>0</v>
       </c>
       <c r="C23" s="19">
-        <v>-10000</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="19">
         <v>0</v>
@@ -7009,13 +6993,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B24" s="19">
-        <v>-385</v>
+        <v>-600</v>
       </c>
       <c r="C24" s="19">
-        <v>-4557</v>
+        <v>-8117</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7023,13 +7007,13 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="19">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="C25" s="19">
-        <v>-450</v>
+        <v>-4557</v>
       </c>
       <c r="D25" s="19">
         <v>0</v>
@@ -7037,13 +7021,13 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="19">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C26" s="19">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="D26" s="19">
         <v>0</v>
@@ -7051,13 +7035,13 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C27" s="19">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="D27" s="19">
         <v>0</v>
@@ -7065,13 +7049,13 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
       </c>
       <c r="C28" s="19">
-        <v>4320</v>
+        <v>-155</v>
       </c>
       <c r="D28" s="19">
         <v>0</v>
@@ -7079,13 +7063,13 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="19">
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <v>2661</v>
+        <v>4320</v>
       </c>
       <c r="D29" s="19">
         <v>0</v>
@@ -7093,13 +7077,13 @@
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="19">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="C30" s="19">
-        <v>-8220</v>
+        <v>3661</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -7107,97 +7091,95 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="19">
+        <v>-285</v>
+      </c>
+      <c r="C31" s="19">
+        <v>-8220</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B32" s="19">
         <v>-44785</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C32" s="19">
         <v>11079</v>
       </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19">
-        <v>-29462</v>
-      </c>
       <c r="D32" s="19">
-        <v>-27712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>25</v>
+      <c r="A33" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="B33" s="19">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>0</v>
+        <v>-152370</v>
       </c>
       <c r="D33" s="19">
-        <v>20000</v>
+        <v>-10848</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="19">
-        <v>-1156</v>
+        <v>67150</v>
       </c>
       <c r="C34" s="19">
         <v>0</v>
       </c>
       <c r="D34" s="19">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="19">
-        <v>-650</v>
+        <v>-1156</v>
       </c>
       <c r="C35" s="19">
-        <v>-1635</v>
+        <v>0</v>
       </c>
       <c r="D35" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B36" s="19">
-        <v>4800</v>
+        <v>-650</v>
       </c>
       <c r="C36" s="19">
-        <v>2940</v>
+        <v>-1635</v>
       </c>
       <c r="D36" s="19">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="19">
         <v>0</v>
       </c>
       <c r="C37" s="19">
-        <v>-1450</v>
+        <v>0</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7205,13 +7187,13 @@
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <v>-2322</v>
+        <v>-1450</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
@@ -7219,13 +7201,13 @@
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="19">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C39" s="19">
-        <v>0</v>
+        <v>-2322</v>
       </c>
       <c r="D39" s="19">
         <v>0</v>
@@ -7233,10 +7215,10 @@
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="B40" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C40" s="19">
         <v>0</v>
@@ -7246,9 +7228,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>150</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="19">
         <v>0</v>
       </c>
@@ -7260,11 +7240,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="A42" s="11"/>
       <c r="B42" s="19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
@@ -7275,13 +7253,13 @@
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B43" s="19">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C43" s="19">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="D43" s="19">
         <v>0</v>
@@ -7289,13 +7267,13 @@
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B44" s="19">
-        <v>-1453</v>
+        <v>0</v>
       </c>
       <c r="C44" s="19">
-        <v>-30000</v>
+        <v>565</v>
       </c>
       <c r="D44" s="19">
         <v>0</v>
@@ -7303,13 +7281,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B45" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C45" s="19">
-        <v>111100</v>
+        <v>-40000</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7317,13 +7295,13 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
       </c>
       <c r="C46" s="19">
-        <v>-100</v>
+        <v>111100</v>
       </c>
       <c r="D46" s="19">
         <v>0</v>
@@ -7331,13 +7309,13 @@
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B47" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C47" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D47" s="19">
         <v>0</v>
@@ -7345,13 +7323,13 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="B48" s="19">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
@@ -7359,13 +7337,13 @@
     </row>
     <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="19">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C49" s="19">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="D49" s="19">
         <v>0</v>
@@ -7373,13 +7351,13 @@
     </row>
     <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="19">
         <v>0</v>
       </c>
       <c r="C50" s="19">
-        <v>-523</v>
+        <v>-170</v>
       </c>
       <c r="D50" s="19">
         <v>0</v>
@@ -7387,41 +7365,41 @@
     </row>
     <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="19">
+        <v>0</v>
+      </c>
+      <c r="C51" s="19">
+        <v>-523</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="19">
-        <v>15900</v>
-      </c>
-      <c r="C51" s="19">
-        <v>-200</v>
-      </c>
-      <c r="D51" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>153</v>
-      </c>
       <c r="B52" s="19">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="C52" s="19">
+        <v>-1400</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="19">
+        <v>0</v>
+      </c>
+      <c r="C53" s="19">
         <v>1534</v>
-      </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="19">
-        <v>-5000</v>
-      </c>
-      <c r="C53" s="19">
-        <v>6500</v>
       </c>
       <c r="D53" s="19">
         <v>0</v>
@@ -7429,13 +7407,13 @@
     </row>
     <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="B54" s="19">
-        <v>-200</v>
+        <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7443,13 +7421,13 @@
     </row>
     <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B55" s="19">
-        <v>50</v>
+        <v>-200</v>
       </c>
       <c r="C55" s="19">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D55" s="19">
         <v>0</v>
@@ -7457,69 +7435,69 @@
     </row>
     <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C56" s="19">
-        <v>29013</v>
+        <v>-500</v>
       </c>
       <c r="D56" s="19">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <v>0</v>
+        <v>29013</v>
       </c>
       <c r="D57" s="19">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="19">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C58" s="19">
-        <v>-8065</v>
+        <v>0</v>
       </c>
       <c r="D58" s="19">
-        <v>6762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B59" s="19">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="C59" s="19">
-        <v>-300</v>
+        <v>-8265</v>
       </c>
       <c r="D59" s="19">
-        <v>0</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="B60" s="19">
         <v>0</v>
       </c>
       <c r="C60" s="19">
-        <v>-280</v>
+        <v>-100</v>
       </c>
       <c r="D60" s="19">
         <v>0</v>
@@ -7527,72 +7505,75 @@
     </row>
     <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="19">
         <v>0</v>
       </c>
       <c r="C61" s="19">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="D61" s="19">
         <v>0</v>
       </c>
       <c r="E61" s="19">
-        <v>-2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B62" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C62" s="19">
-        <v>-10945</v>
+        <v>-40</v>
       </c>
       <c r="D62" s="19">
         <v>0</v>
+      </c>
+      <c r="E62" s="19">
+        <v>-2500</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0</v>
+      </c>
+      <c r="C63" s="19">
+        <v>-11680</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="19">
+        <v>-4220</v>
+      </c>
+      <c r="C64" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="19">
-        <v>-4220</v>
-      </c>
-      <c r="C63" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="19">
-        <v>-100</v>
-      </c>
-      <c r="C64" s="19">
-        <v>0</v>
-      </c>
-      <c r="D64" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="B65" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C65" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D65" s="19">
         <v>0</v>
@@ -7600,41 +7581,41 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="19">
+        <v>0</v>
+      </c>
+      <c r="C66" s="19">
+        <v>-300</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="19">
+        <v>0</v>
+      </c>
+      <c r="C67" s="19">
+        <v>4000</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="19">
-        <v>0</v>
-      </c>
-      <c r="C66" s="19">
-        <v>4000</v>
-      </c>
-      <c r="D66" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="19">
-        <v>0</v>
-      </c>
-      <c r="C67" s="19">
+      <c r="B68" s="19">
+        <v>0</v>
+      </c>
+      <c r="C68" s="19">
         <v>3000</v>
-      </c>
-      <c r="D67" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="19">
-        <v>-1500</v>
-      </c>
-      <c r="C68" s="19">
-        <v>0</v>
       </c>
       <c r="D68" s="19">
         <v>0</v>
@@ -7642,10 +7623,10 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B69" s="19">
-        <v>-350</v>
+        <v>-200</v>
       </c>
       <c r="C69" s="19">
         <v>0</v>
@@ -7655,14 +7636,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>51</v>
+      <c r="A70" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B70" s="19">
-        <v>-700</v>
+        <v>-620</v>
       </c>
       <c r="C70" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D70" s="19">
         <v>0</v>
@@ -7670,13 +7651,13 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" s="19">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C71" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D71" s="19">
         <v>0</v>
@@ -7684,13 +7665,13 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72" s="19">
-        <v>-6270</v>
+        <v>0</v>
       </c>
       <c r="C72" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D72" s="19">
         <v>0</v>
@@ -7698,13 +7679,13 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="B73" s="19">
-        <v>0</v>
+        <v>-6270</v>
       </c>
       <c r="C73" s="19">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="D73" s="19">
         <v>0</v>
@@ -7712,13 +7693,13 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
       </c>
       <c r="C74" s="19">
-        <v>-1700</v>
+        <v>-422</v>
       </c>
       <c r="D74" s="19">
         <v>0</v>
@@ -7726,13 +7707,13 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B75" s="19">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C75" s="19">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="D75" s="19">
         <v>0</v>
@@ -7740,10 +7721,10 @@
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B76" s="19">
-        <v>-2700</v>
+        <v>-350</v>
       </c>
       <c r="C76" s="19">
         <v>0</v>
@@ -7754,13 +7735,13 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B77" s="19">
-        <v>-80</v>
+        <v>-2700</v>
       </c>
       <c r="C77" s="19">
-        <v>-1244</v>
+        <v>0</v>
       </c>
       <c r="D77" s="19">
         <v>0</v>
@@ -7768,13 +7749,13 @@
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B78" s="19">
-        <v>-400</v>
+        <v>-80</v>
       </c>
       <c r="C78" s="19">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="D78" s="19">
         <v>0</v>
@@ -7782,13 +7763,13 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" s="19">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C79" s="19">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="D79" s="19">
         <v>0</v>
@@ -7796,55 +7777,55 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B80" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C80" s="19">
-        <v>-13079</v>
+        <v>-122</v>
       </c>
       <c r="D80" s="19">
-        <v>-204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B81" s="19">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="C81" s="19">
-        <v>0</v>
+        <v>-21930</v>
       </c>
       <c r="D81" s="19">
-        <v>-2500</v>
+        <v>-2704</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B82" s="19">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="C82" s="19">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D82" s="19">
-        <v>0</v>
+        <v>-360</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="19">
-        <v>-275</v>
+        <v>-1000</v>
       </c>
       <c r="C83" s="19">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="D83" s="19">
         <v>0</v>
@@ -7852,10 +7833,10 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B84" s="19">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="C84" s="19">
         <v>0</v>
@@ -7866,10 +7847,10 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B85" s="19">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C85" s="19">
         <v>0</v>
@@ -7880,27 +7861,27 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="B86" s="19">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C86" s="19">
         <v>0</v>
       </c>
       <c r="D86" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
       </c>
       <c r="C87" s="19">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="D87" s="19">
         <v>0</v>
@@ -7908,13 +7889,13 @@
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B88" s="19">
         <v>0</v>
       </c>
       <c r="C88" s="19">
-        <v>-915</v>
+        <v>-30000</v>
       </c>
       <c r="D88" s="19">
         <v>0</v>
@@ -7922,13 +7903,13 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B89" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C89" s="19">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="D89" s="19">
         <v>0</v>
@@ -7936,45 +7917,43 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C90" s="19">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="19">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="B91" s="19">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C91" s="19">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D91" s="19">
-        <v>0</v>
-      </c>
-      <c r="G91" s="31">
-        <v>200</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G91" s="31"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -7982,13 +7961,13 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B93" s="19">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C93" s="19">
-        <v>791</v>
+        <v>-615</v>
       </c>
       <c r="D93" s="19">
         <v>0</v>
@@ -7996,13 +7975,13 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="19">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C94" s="19">
-        <v>-2820</v>
+        <v>791</v>
       </c>
       <c r="D94" s="19">
         <v>0</v>
@@ -8010,13 +7989,13 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B95" s="19">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="C95" s="19">
-        <v>-2300</v>
+        <v>-3520</v>
       </c>
       <c r="D95" s="19">
         <v>0</v>
@@ -8024,27 +8003,25 @@
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B96" s="19">
-        <v>-560</v>
+        <v>-280</v>
       </c>
       <c r="C96" s="19">
-        <v>224</v>
+        <v>-1500</v>
       </c>
       <c r="D96" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="A97" s="11"/>
       <c r="B97" s="19">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>-2781</v>
+        <v>0</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8052,41 +8029,41 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B98" s="19">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C98" s="19">
-        <v>8200</v>
+        <v>-2781</v>
       </c>
       <c r="D98" s="19">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B99" s="19">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C99" s="19">
-        <v>-28360</v>
+        <v>3400</v>
       </c>
       <c r="D99" s="19">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B100" s="19">
-        <v>-1260</v>
+        <v>6000</v>
       </c>
       <c r="C100" s="19">
-        <v>125</v>
+        <v>-28360</v>
       </c>
       <c r="D100" s="19">
         <v>0</v>
@@ -8094,69 +8071,69 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B101" s="19">
-        <v>-1000</v>
+        <v>-1260</v>
       </c>
       <c r="C101" s="19">
-        <v>-100</v>
+        <v>125</v>
       </c>
       <c r="D101" s="19">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B102" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C102" s="19">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="D102" s="19">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B103" s="19">
-        <v>237983</v>
+        <v>0</v>
       </c>
       <c r="C103" s="19">
-        <v>-4056</v>
+        <v>0</v>
       </c>
       <c r="D103" s="19">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B104" s="19">
-        <v>-4400</v>
+        <v>237983</v>
       </c>
       <c r="C104" s="19">
-        <v>-534</v>
+        <v>-4056</v>
       </c>
       <c r="D104" s="19">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B105" s="19">
-        <v>-550</v>
+        <v>-1600</v>
       </c>
       <c r="C105" s="19">
-        <v>0</v>
+        <v>-10176</v>
       </c>
       <c r="D105" s="19">
         <v>0</v>
@@ -8164,13 +8141,13 @@
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B106" s="19">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="C106" s="19">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="D106" s="19">
         <v>0</v>
@@ -8178,13 +8155,13 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B107" s="19">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C107" s="19">
-        <v>-2440</v>
+        <v>1550</v>
       </c>
       <c r="D107" s="19">
         <v>0</v>
@@ -8192,13 +8169,13 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B108" s="19">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C108" s="19">
-        <v>-600</v>
+        <v>-2440</v>
       </c>
       <c r="D108" s="19">
         <v>0</v>
@@ -8206,13 +8183,13 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B109" s="19">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C109" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D109" s="19">
         <v>0</v>
@@ -8220,13 +8197,13 @@
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B110" s="19">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C110" s="19">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D110" s="19">
         <v>0</v>
@@ -8234,10 +8211,10 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B111" s="19">
-        <v>-400</v>
+        <v>-625</v>
       </c>
       <c r="C111" s="19">
         <v>0</v>
@@ -8248,52 +8225,52 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B112" s="19">
+        <v>-200</v>
+      </c>
+      <c r="C112" s="19">
+        <v>0</v>
+      </c>
+      <c r="D112" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="19">
         <v>1984</v>
       </c>
-      <c r="C112" s="19">
-        <v>0</v>
-      </c>
-      <c r="D112" s="19">
+      <c r="C113" s="19">
+        <v>0</v>
+      </c>
+      <c r="D113" s="19">
         <v>-550</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B113" s="19">
-        <v>-9520</v>
-      </c>
-      <c r="C113" s="19">
-        <v>-5100</v>
-      </c>
-      <c r="D113" s="19">
-        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B114" s="19">
+        <v>-9520</v>
+      </c>
+      <c r="C114" s="19">
+        <v>700</v>
+      </c>
+      <c r="D114" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="19">
         <v>-150</v>
-      </c>
-      <c r="C114" s="19">
-        <v>0</v>
-      </c>
-      <c r="D114" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="19">
-        <v>0</v>
       </c>
       <c r="C115" s="19">
         <v>0</v>
@@ -8304,13 +8281,13 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
@@ -8318,41 +8295,41 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B117" s="19">
-        <v>132000</v>
+        <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>-100</v>
+        <v>3000</v>
       </c>
       <c r="D117" s="19">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B118" s="19">
-        <v>-170</v>
+        <v>135000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
       </c>
       <c r="D118" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B119" s="19">
-        <v>-150</v>
+        <v>-170</v>
       </c>
       <c r="C119" s="19">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D119" s="19">
         <v>0</v>
@@ -8360,13 +8337,13 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B120" s="19">
-        <v>0</v>
+        <v>-5150</v>
       </c>
       <c r="C120" s="19">
-        <v>7300</v>
+        <v>-2700</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
@@ -8374,13 +8351,13 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B121" s="19">
-        <v>527</v>
+        <v>24000</v>
       </c>
       <c r="C121" s="19">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="D121" s="19">
         <v>0</v>
@@ -8388,13 +8365,13 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B122" s="19">
-        <v>-2300</v>
+        <v>527</v>
       </c>
       <c r="C122" s="19">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="D122" s="19">
         <v>0</v>
@@ -8402,13 +8379,13 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B123" s="19">
-        <v>-10518</v>
+        <v>-2300</v>
       </c>
       <c r="C123" s="19">
-        <v>-5953</v>
+        <v>0</v>
       </c>
       <c r="D123" s="19">
         <v>0</v>
@@ -8416,41 +8393,41 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B124" s="19">
-        <v>-10418</v>
+        <v>-11618</v>
       </c>
       <c r="C124" s="19">
-        <v>-800</v>
+        <v>-4968</v>
       </c>
       <c r="D124" s="19">
-        <v>-810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B125" s="19">
-        <v>0</v>
+        <v>-13918</v>
       </c>
       <c r="C125" s="19">
-        <v>2365</v>
+        <v>-800</v>
       </c>
       <c r="D125" s="19">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
       </c>
       <c r="C126" s="19">
-        <v>-300</v>
+        <v>8350</v>
       </c>
       <c r="D126" s="19">
         <v>0</v>
@@ -8458,13 +8435,13 @@
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B127" s="19">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C127" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D127" s="19">
         <v>0</v>
@@ -8472,10 +8449,10 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B128" s="19">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="C128" s="19">
         <v>0</v>
@@ -8486,10 +8463,10 @@
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B129" s="19">
-        <v>-3870</v>
+        <v>-2500</v>
       </c>
       <c r="C129" s="19">
         <v>0</v>
@@ -8500,13 +8477,13 @@
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B130" s="19">
-        <v>-925</v>
+        <v>-3870</v>
       </c>
       <c r="C130" s="19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D130" s="19">
         <v>0</v>
@@ -8514,13 +8491,13 @@
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B131" s="19">
-        <v>-200</v>
+        <v>-925</v>
       </c>
       <c r="C131" s="19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D131" s="19">
         <v>0</v>
@@ -8528,41 +8505,41 @@
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B132" s="19">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="C132" s="19">
+        <v>0</v>
+      </c>
+      <c r="D132" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="19">
+        <v>0</v>
+      </c>
+      <c r="C133" s="19">
         <v>-720</v>
       </c>
-      <c r="D132" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B133" s="19">
+      <c r="D133" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="19">
         <v>12887</v>
       </c>
-      <c r="C133" s="19">
-        <v>0</v>
-      </c>
-      <c r="D133" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134" s="19">
-        <v>-830</v>
-      </c>
       <c r="C134" s="19">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="D134" s="19">
         <v>0</v>
@@ -8570,13 +8547,13 @@
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B135" s="19">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="C135" s="19">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="D135" s="19">
         <v>0</v>
@@ -8584,13 +8561,13 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B136" s="19">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C136" s="19">
-        <v>-900</v>
+        <v>-5000</v>
       </c>
       <c r="D136" s="19">
         <v>0</v>
@@ -8598,123 +8575,123 @@
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B137" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C137" s="19">
+        <v>-900</v>
+      </c>
+      <c r="D137" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B138" s="19">
+        <v>0</v>
+      </c>
+      <c r="C138" s="19">
         <v>-937</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D138" s="19">
         <v>-215</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="19">
-        <v>0</v>
-      </c>
-      <c r="C138" s="19">
-        <v>0</v>
-      </c>
-      <c r="D138" s="19">
-        <v>0</v>
-      </c>
-    </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
-        <v>146</v>
+      <c r="A139" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>-200</v>
+        <v>30000</v>
       </c>
       <c r="D139" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B140" s="19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C140" s="19">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D140" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="A141" s="14"/>
       <c r="B141" s="19">
-        <v>-3270</v>
+        <v>0</v>
       </c>
       <c r="C141" s="19">
-        <v>-139830</v>
+        <v>0</v>
       </c>
       <c r="D141" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="19">
+        <v>-1075</v>
+      </c>
+      <c r="C142" s="19">
+        <v>-135727</v>
+      </c>
+      <c r="D142" s="19">
         <v>-383</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B142" s="19">
-        <v>0</v>
-      </c>
-      <c r="C142" s="19">
+    <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="19">
+        <v>0</v>
+      </c>
+      <c r="C143" s="19">
         <v>4000</v>
       </c>
-      <c r="D142" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="19">
-        <v>-5015</v>
-      </c>
-      <c r="C143" s="19">
-        <v>-1080</v>
-      </c>
       <c r="D143" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>110</v>
+    <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="B144" s="19">
+        <v>-2415</v>
+      </c>
+      <c r="C144" s="19">
+        <v>-7430</v>
+      </c>
+      <c r="D144" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B145" s="19">
         <v>-1350</v>
       </c>
-      <c r="C144" s="19">
+      <c r="C145" s="19">
         <v>-2421</v>
-      </c>
-      <c r="D144" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B145" s="19">
-        <v>-50</v>
-      </c>
-      <c r="C145" s="19">
-        <v>0</v>
       </c>
       <c r="D145" s="19">
         <v>0</v>
@@ -8722,69 +8699,69 @@
     </row>
     <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B146" s="19">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C146" s="19">
+        <v>0</v>
+      </c>
+      <c r="D146" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="19">
+        <v>0</v>
+      </c>
+      <c r="C147" s="19">
         <v>-100</v>
       </c>
-      <c r="D146" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="19">
-        <v>0</v>
-      </c>
-      <c r="C147" s="19">
-        <v>-53384</v>
-      </c>
       <c r="D147" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
-        <v>114</v>
+    <row r="148" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B148" s="19">
-        <v>483460</v>
+        <v>0</v>
       </c>
       <c r="C148" s="19">
-        <v>0</v>
+        <v>-49704</v>
       </c>
       <c r="D148" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B149" s="19">
-        <v>0</v>
+        <v>483460</v>
       </c>
       <c r="C149" s="19">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="D149" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="B150" s="19">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>-77500</v>
+        <v>0</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
@@ -8792,33 +8769,35 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B151" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C151" s="19">
+        <v>-77500</v>
+      </c>
+      <c r="D151" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B152" s="19">
+        <v>0</v>
+      </c>
+      <c r="C152" s="19">
         <v>1500</v>
       </c>
-      <c r="D151" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="19">
-        <v>0</v>
-      </c>
-      <c r="C152" s="19">
-        <v>0</v>
-      </c>
       <c r="D152" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
-        <v>159</v>
+    <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8831,93 +8810,100 @@
       </c>
       <c r="F153" s="20"/>
     </row>
-    <row r="154" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+    <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="19">
+        <v>0</v>
+      </c>
+      <c r="C154" s="19">
+        <v>-1800</v>
+      </c>
+      <c r="D154" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="B155" s="24">
-        <f>SUM(B2:B154)</f>
-        <v>711465</v>
+        <v>13000</v>
       </c>
       <c r="C155" s="24">
-        <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>-275757</v>
+        <v>1200</v>
       </c>
       <c r="D155" s="24">
-        <f t="shared" si="0"/>
-        <v>-5173</v>
+        <v>0</v>
       </c>
       <c r="E155" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C155:F155" si="0">SUM(E2:E154)</f>
         <v>-2500</v>
       </c>
       <c r="F155" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G155" s="24">
-        <v>200</v>
-      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="F156" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>122</v>
-      </c>
       <c r="G156" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C159" s="28"/>
       <c r="D159" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B160" s="19">
-        <v>-297573</v>
+        <v>237962</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E160" s="20">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B161" s="19">
-        <v>447981</v>
+        <v>384148</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E161" s="20">
         <v>0.71</v>
@@ -8926,33 +8912,33 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B162" s="19">
-        <v>43484</v>
+        <v>12235</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E162" s="19">
         <v>0.115</v>
       </c>
       <c r="F162" s="33">
-        <v>31.739130434700002</v>
+        <v>32.3478260869</v>
       </c>
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B163" s="19">
-        <v>26130</v>
+        <v>2500</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E163" s="19">
         <v>0.185</v>
@@ -8964,14 +8950,14 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B164" s="19">
-        <v>10492</v>
+        <v>15892</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E164" s="20">
         <v>1.08</v>
@@ -8980,15 +8966,15 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B165" s="19">
-        <v>50400</v>
+        <v>15090</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D56412-6BD7-402C-9B74-39727E36E1EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D16B4-4565-4CA1-99FE-3398B3464896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{17674226-88DE-4164-964E-7536BA85A915}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{AAD8CB0C-9A2E-42E0-B24D-215582AC20B3}">
       <text>
         <r>
           <rPr>
@@ -63,14 +63,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="169">
   <si>
     <t>بنك فلسطين</t>
   </si>
   <si>
-    <t>زكاه سنه 2023</t>
-  </si>
-  <si>
     <t>ايجار 2024</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>عمر زقوت</t>
   </si>
   <si>
-    <t>سلام عليوة شيكات ش43900</t>
-  </si>
-  <si>
     <t>محمد عليوة</t>
   </si>
   <si>
@@ -426,9 +420,6 @@
   </si>
   <si>
     <t>وفيق ابو سيدو</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> بنك القدس22-01-2023 $</t>
   </si>
   <si>
     <t>رصيد اول اليوم</t>
@@ -486,9 +477,6 @@
     <t>حمود الحايك</t>
   </si>
   <si>
-    <t xml:space="preserve">ابو انس </t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
@@ -513,12 +501,6 @@
     <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
   </si>
   <si>
-    <t>ام خليل لظن</t>
-  </si>
-  <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -528,46 +510,79 @@
     <t>زيادة لراس المال</t>
   </si>
   <si>
-    <t>شـحاتة بـنـك</t>
-  </si>
-  <si>
     <t>حسام صالحة</t>
   </si>
   <si>
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
-    <t>أبو علاء  سكيك</t>
-  </si>
-  <si>
-    <t>مصاريف عزومة العبادلة</t>
-  </si>
-  <si>
-    <t>حسان صوان كومدووور</t>
-  </si>
-  <si>
     <t>أياد الريس</t>
   </si>
   <si>
-    <t>الزهارنة المنيوم</t>
-  </si>
-  <si>
     <t>عابدين</t>
   </si>
   <si>
-    <t>اعديات الموظفين</t>
-  </si>
-  <si>
     <t xml:space="preserve">البسمة </t>
   </si>
   <si>
     <t>شيكات أجلة للصرف</t>
   </si>
   <si>
-    <t>صندوق2 صندوق احـــــــــــــمـــــــــد 2</t>
-  </si>
-  <si>
-    <t>منيب أبو سيدو</t>
+    <t>زكاه سنه 2024</t>
+  </si>
+  <si>
+    <t>سامي الحلو</t>
+  </si>
+  <si>
+    <t>أبو أنس يورو</t>
+  </si>
+  <si>
+    <t>حسين سالم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو داير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صوان </t>
+  </si>
+  <si>
+    <t>نور عبيد</t>
+  </si>
+  <si>
+    <t>سلام عليوة شيكات</t>
+  </si>
+  <si>
+    <t>أبو طلعت الحساينة</t>
+  </si>
+  <si>
+    <t>الأصيل ألمنيوم</t>
+  </si>
+  <si>
+    <t>خالد الحداد</t>
+  </si>
+  <si>
+    <t>يوسف الغز</t>
+  </si>
+  <si>
+    <t>علاء أبو شعبان سيارات</t>
+  </si>
+  <si>
+    <t>محمد فورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بنك القدس17-06-2023 $</t>
+  </si>
+  <si>
+    <t>أبو يعقوب لظن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منيب أبو سيد </t>
+  </si>
+  <si>
+    <t>صندوق2 احمد صندوق 2 احــــمــد</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنك</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView rightToLeft="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="J154" sqref="J2:J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,19 +1302,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1339,27 +1354,27 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17">
-        <v>2150</v>
+        <v>770</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-2150</v>
+        <v>-770</v>
       </c>
       <c r="E3" s="17">
-        <v>17635</v>
+        <v>1655</v>
       </c>
       <c r="F3" s="17">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-135</v>
+        <v>-1655</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
@@ -1374,7 +1389,7 @@
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -1409,7 +1424,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1422,14 +1437,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="17">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="F5" s="17">
         <v>9500</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
@@ -1444,7 +1459,7 @@
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -1479,7 +1494,7 @@
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="17">
         <v>0</v>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="17">
         <v>0</v>
@@ -1549,7 +1564,7 @@
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="17">
         <v>0</v>
@@ -1584,7 +1599,7 @@
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="17">
         <v>200</v>
@@ -1619,27 +1634,27 @@
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="17">
-        <v>193778</v>
+        <v>41099</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-193778</v>
+        <v>-41099</v>
       </c>
       <c r="E11" s="17">
-        <v>606</v>
+        <v>20445</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-606</v>
+        <v>-20445</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1654,7 +1669,7 @@
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="17">
         <v>0</v>
@@ -1689,7 +1704,7 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="17">
         <v>30</v>
@@ -1702,14 +1717,14 @@
         <v>-30</v>
       </c>
       <c r="E13" s="17">
-        <v>22329</v>
+        <v>27329</v>
       </c>
       <c r="F13" s="17">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>-22329</v>
+        <v>-23329</v>
       </c>
       <c r="H13" s="17">
         <v>0</v>
@@ -1724,7 +1739,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1759,7 +1774,7 @@
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="17">
         <v>0</v>
@@ -1794,7 +1809,7 @@
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="17">
         <v>0</v>
@@ -1807,14 +1822,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>515</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-515</v>
+        <v>-1200</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -1829,7 +1844,7 @@
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="17">
         <v>800</v>
@@ -1863,7 +1878,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B18" s="17">
         <v>0</v>
       </c>
@@ -1897,7 +1914,7 @@
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="17">
         <v>0</v>
@@ -1932,7 +1949,7 @@
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="17">
         <v>0</v>
@@ -1967,17 +1984,17 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B21" s="17">
-        <v>885</v>
+        <v>1235</v>
       </c>
       <c r="C21" s="17">
-        <v>285</v>
+        <v>945</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-290</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2002,7 +2019,7 @@
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="17">
         <v>0</v>
@@ -2037,7 +2054,7 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B23" s="17">
         <v>600</v>
@@ -2053,11 +2070,11 @@
         <v>100000</v>
       </c>
       <c r="F23" s="17">
-        <v>91883</v>
+        <v>113622</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>-8117</v>
+        <v>13622</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2072,7 +2089,7 @@
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="17">
         <v>385</v>
@@ -2107,7 +2124,7 @@
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -2142,7 +2159,7 @@
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="17">
         <v>1500</v>
@@ -2177,7 +2194,7 @@
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -2212,7 +2229,7 @@
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -2247,7 +2264,7 @@
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -2260,14 +2277,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>5339</v>
+        <v>6212</v>
       </c>
       <c r="F29" s="17">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>3661</v>
+        <v>3788</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2282,7 +2299,7 @@
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="17">
         <v>285</v>
@@ -2317,7 +2334,7 @@
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="17">
         <v>44785</v>
@@ -2352,7 +2369,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2365,49 +2382,49 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>152370</v>
+        <v>259891</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-152370</v>
+        <v>-259891</v>
       </c>
       <c r="H32" s="17">
-        <v>10848</v>
+        <v>10621</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-10848</v>
+        <v>-10621</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="17">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="C33" s="17">
-        <v>96150</v>
+        <v>40000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>67150</v>
+        <v>0</v>
       </c>
       <c r="E33" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="17">
         <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="17">
         <v>30000</v>
@@ -2422,7 +2439,7 @@
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="17">
         <v>2156</v>
@@ -2457,7 +2474,7 @@
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="17">
         <v>3500</v>
@@ -2480,18 +2497,20 @@
         <v>-1635</v>
       </c>
       <c r="H35" s="17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="B36" s="17">
         <v>0</v>
       </c>
@@ -2503,14 +2522,14 @@
         <v>0</v>
       </c>
       <c r="E36" s="17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2525,7 +2544,7 @@
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="17">
         <v>0</v>
@@ -2560,7 +2579,7 @@
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="17">
         <v>0</v>
@@ -2595,7 +2614,7 @@
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="17">
         <v>1000</v>
@@ -2629,16 +2648,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="B40" s="17">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="E40" s="17">
         <v>0</v>
@@ -2662,7 +2683,9 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="B41" s="17">
         <v>0</v>
       </c>
@@ -2684,29 +2707,29 @@
         <v>0</v>
       </c>
       <c r="H41" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B42" s="17">
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2731,7 +2754,7 @@
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="17">
         <v>0</v>
@@ -2766,27 +2789,27 @@
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E44" s="17">
-        <v>40000</v>
+        <v>22991</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-40000</v>
+        <v>-22991</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2801,7 +2824,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2836,7 +2859,7 @@
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="17">
         <v>0</v>
@@ -2871,7 +2894,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -2884,14 +2907,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F47" s="17">
         <v>0</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>-4000</v>
+        <v>-40000</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -2906,7 +2929,7 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="17">
         <v>800</v>
@@ -2939,9 +2962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="17">
         <v>0</v>
@@ -2974,9 +2997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -3009,9 +3032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="17">
         <v>200</v>
@@ -3044,9 +3067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -3079,9 +3102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="17">
         <v>5000</v>
@@ -3094,14 +3117,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>7700</v>
+        <v>15000</v>
       </c>
       <c r="F53" s="17">
-        <v>12000</v>
+        <v>25100</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>4300</v>
+        <v>10100</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3114,9 +3137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3149,9 +3172,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="17">
         <v>0</v>
@@ -3184,9 +3207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="17">
         <v>0</v>
@@ -3219,9 +3242,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="17">
         <v>0</v>
@@ -3254,44 +3277,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="17">
-        <v>1200</v>
+        <v>1512</v>
       </c>
       <c r="C58" s="17">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>-1200</v>
+        <v>-1362</v>
       </c>
       <c r="E58" s="17">
-        <v>8265</v>
+        <v>9042</v>
       </c>
       <c r="F58" s="17">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>-8265</v>
+        <v>-7800</v>
       </c>
       <c r="H58" s="17">
-        <v>1638</v>
+        <v>1938</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B59" s="17">
         <v>0</v>
@@ -3304,14 +3327,14 @@
         <v>0</v>
       </c>
       <c r="E59" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="17">
         <v>0</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="17">
         <v>0</v>
@@ -3324,9 +3347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
@@ -3359,9 +3382,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B61" s="17">
         <v>1000</v>
@@ -3374,14 +3397,14 @@
         <v>-1000</v>
       </c>
       <c r="E61" s="17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F61" s="17">
         <v>0</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H61" s="17">
         <v>0</v>
@@ -3393,13 +3416,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K61" s="6">
-        <v>-2500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3412,14 +3432,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>61500</v>
+        <v>61630</v>
       </c>
       <c r="F62" s="17">
-        <v>49820</v>
+        <v>53145</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-11680</v>
+        <v>-8485</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3432,9 +3452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3467,9 +3487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="17">
         <v>600</v>
@@ -3504,7 +3524,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3539,7 +3559,7 @@
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="17">
         <v>0</v>
@@ -3574,7 +3594,7 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" s="17">
         <v>0</v>
@@ -3609,7 +3629,7 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B68" s="17">
         <v>200</v>
@@ -3644,27 +3664,27 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B69" s="17">
-        <v>620</v>
+        <v>120</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>-620</v>
+        <v>-120</v>
       </c>
       <c r="E69" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F69" s="17">
         <v>0</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H69" s="17">
         <v>0</v>
@@ -3679,7 +3699,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3714,7 +3734,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3749,7 +3769,7 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
@@ -3784,7 +3804,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3797,14 +3817,14 @@
         <v>0</v>
       </c>
       <c r="E73" s="17">
-        <v>422</v>
+        <v>1600</v>
       </c>
       <c r="F73" s="17">
         <v>0</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="4"/>
-        <v>-422</v>
+        <v>-1600</v>
       </c>
       <c r="H73" s="17">
         <v>0</v>
@@ -3819,7 +3839,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3854,7 +3874,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3889,42 +3909,42 @@
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B76" s="17">
-        <v>2700</v>
+        <v>6200</v>
       </c>
       <c r="C76" s="17">
         <v>0</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
-        <v>-2700</v>
+        <v>-6200</v>
       </c>
       <c r="E76" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F76" s="17">
         <v>0</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="17">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I76" s="17">
         <v>0</v>
       </c>
       <c r="J76" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3959,7 +3979,7 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
@@ -3994,7 +4014,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4029,52 +4049,52 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="B80" s="17">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-2100</v>
+        <v>-4400</v>
       </c>
       <c r="E80" s="17">
-        <v>21930</v>
+        <v>15115</v>
       </c>
       <c r="F80" s="17">
         <v>0</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-21930</v>
+        <v>-15115</v>
       </c>
       <c r="H80" s="17">
-        <v>2704</v>
+        <v>1850</v>
       </c>
       <c r="I80" s="17">
         <v>0</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="5"/>
-        <v>-2704</v>
+        <v>-1850</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B81" s="17">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C81" s="17">
         <v>0</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>-500</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4087,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="17">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4134,7 +4154,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4169,7 +4189,7 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
@@ -4204,7 +4224,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4239,7 +4259,7 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B86" s="17">
         <v>0</v>
@@ -4274,7 +4294,7 @@
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87" s="17">
         <v>0</v>
@@ -4309,7 +4329,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4344,7 +4364,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4379,7 +4399,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4413,9 +4433,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="A91" s="11"/>
       <c r="B91" s="17">
         <v>0</v>
       </c>
@@ -4449,7 +4467,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4484,7 +4502,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
@@ -4532,14 +4550,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="17">
-        <v>10250</v>
+        <v>3205</v>
       </c>
       <c r="F94" s="17">
-        <v>6730</v>
+        <v>0</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-3520</v>
+        <v>-3205</v>
       </c>
       <c r="H94" s="17">
         <v>0</v>
@@ -4554,7 +4572,7 @@
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B95" s="17">
         <v>280</v>
@@ -4588,7 +4606,9 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="B96" s="17">
         <v>0</v>
       </c>
@@ -4603,11 +4623,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4622,7 +4642,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4657,7 +4677,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
@@ -4670,29 +4690,29 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F98" s="17">
-        <v>8400</v>
+        <v>4100</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="H98" s="17">
-        <v>31634</v>
+        <v>145</v>
       </c>
       <c r="I98" s="17">
-        <v>31960</v>
+        <v>958</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
@@ -4727,7 +4747,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4762,7 +4782,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B101" s="17">
         <v>8000</v>
@@ -4797,7 +4817,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4832,7 +4852,7 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B103" s="17">
         <v>500</v>
@@ -4845,14 +4865,14 @@
         <v>237983</v>
       </c>
       <c r="E103" s="17">
-        <v>4056</v>
+        <v>4083</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-4056</v>
+        <v>-4083</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4867,7 +4887,7 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B104" s="17">
         <v>1600</v>
@@ -4880,14 +4900,14 @@
         <v>-1600</v>
       </c>
       <c r="E104" s="17">
-        <v>10176</v>
+        <v>5987</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-10176</v>
+        <v>-5987</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -4902,7 +4922,7 @@
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4937,7 +4957,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -4972,7 +4992,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -5007,7 +5027,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5042,7 +5062,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5077,17 +5097,17 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B110" s="17">
-        <v>625</v>
+        <v>100</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
       <c r="D110" s="9">
         <f t="shared" si="3"/>
-        <v>-625</v>
+        <v>-100</v>
       </c>
       <c r="E110" s="17">
         <v>0</v>
@@ -5112,17 +5132,17 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B111" s="17">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>-225</v>
       </c>
       <c r="E111" s="17">
         <v>0</v>
@@ -5147,7 +5167,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5182,27 +5202,27 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" s="17">
-        <v>29920</v>
+        <v>0</v>
       </c>
       <c r="C113" s="17">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="D113" s="9">
         <f t="shared" si="3"/>
-        <v>-9520</v>
+        <v>0</v>
       </c>
       <c r="E113" s="17">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="F113" s="17">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H113" s="17">
         <v>0</v>
@@ -5217,7 +5237,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5252,7 +5272,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5287,7 +5307,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5300,14 +5320,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>200</v>
+        <v>10300</v>
       </c>
       <c r="F116" s="17">
-        <v>3200</v>
+        <v>10700</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5322,7 +5342,7 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B117" s="17">
         <v>0</v>
@@ -5357,7 +5377,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5392,27 +5412,27 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="17">
-        <v>5150</v>
+        <v>150</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="9">
         <f t="shared" si="3"/>
-        <v>-5150</v>
+        <v>-150</v>
       </c>
       <c r="E119" s="17">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F119" s="17">
         <v>0</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="4"/>
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -5427,7 +5447,7 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B120" s="17">
         <v>1000</v>
@@ -5443,11 +5463,11 @@
         <v>0</v>
       </c>
       <c r="F120" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5462,7 +5482,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5497,7 +5517,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5532,27 +5552,27 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B123" s="17">
-        <v>11618</v>
+        <v>4218</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-11618</v>
+        <v>-4218</v>
       </c>
       <c r="E123" s="17">
-        <v>4968</v>
+        <v>2968</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-4968</v>
+        <v>-2968</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5567,7 +5587,7 @@
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B124" s="17">
         <v>14678</v>
@@ -5580,14 +5600,14 @@
         <v>-13918</v>
       </c>
       <c r="E124" s="17">
-        <v>800</v>
+        <v>1303</v>
       </c>
       <c r="F124" s="17">
         <v>0</v>
       </c>
       <c r="G124" s="9">
         <f t="shared" si="4"/>
-        <v>-800</v>
+        <v>-1303</v>
       </c>
       <c r="H124" s="17">
         <v>810</v>
@@ -5602,7 +5622,7 @@
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5618,11 +5638,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>8350</v>
+        <v>9631</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>8350</v>
+        <v>9631</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5637,7 +5657,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5672,27 +5692,27 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B127" s="17">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="C127" s="17">
         <v>0</v>
       </c>
       <c r="D127" s="9">
         <f t="shared" si="3"/>
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="E127" s="17">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="F127" s="17">
         <v>0</v>
       </c>
       <c r="G127" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1152</v>
       </c>
       <c r="H127" s="17">
         <v>0</v>
@@ -5707,7 +5727,7 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B128" s="17">
         <v>2500</v>
@@ -5742,17 +5762,17 @@
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B129" s="17">
-        <v>3870</v>
+        <v>3900</v>
       </c>
       <c r="C129" s="17">
         <v>0</v>
       </c>
       <c r="D129" s="9">
         <f t="shared" si="3"/>
-        <v>-3870</v>
+        <v>-3900</v>
       </c>
       <c r="E129" s="17">
         <v>0</v>
@@ -5777,7 +5797,7 @@
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5812,7 +5832,7 @@
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5847,7 +5867,7 @@
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B132" s="17">
         <v>0</v>
@@ -5882,7 +5902,7 @@
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B133" s="17">
         <v>15019</v>
@@ -5917,7 +5937,7 @@
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -5952,27 +5972,27 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B135" s="17">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
       <c r="D135" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="E135" s="17">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F135" s="17">
         <v>0</v>
       </c>
       <c r="G135" s="9">
         <f t="shared" si="7"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="H135" s="17">
         <v>0</v>
@@ -5987,7 +6007,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6022,7 +6042,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6057,7 +6077,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6070,14 +6090,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>0</v>
+        <v>5180</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>24820</v>
       </c>
       <c r="H138" s="17">
         <v>2000</v>
@@ -6092,17 +6112,17 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B139" s="17">
         <v>0</v>
       </c>
       <c r="C139" s="17">
-        <v>1000</v>
+        <v>44310</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>44310</v>
       </c>
       <c r="E139" s="17">
         <v>0</v>
@@ -6126,26 +6146,28 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="B140" s="17">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="C140" s="17">
         <v>0</v>
       </c>
       <c r="D140" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-297</v>
       </c>
       <c r="E140" s="17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F140" s="17">
         <v>0</v>
       </c>
       <c r="G140" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="H140" s="17">
         <v>0</v>
@@ -6160,27 +6182,27 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B141" s="17">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>-1075</v>
+        <v>0</v>
       </c>
       <c r="E141" s="17">
-        <v>135727</v>
+        <v>72175</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-135727</v>
+        <v>-72175</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6195,7 +6217,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6208,14 +6230,14 @@
         <v>0</v>
       </c>
       <c r="E142" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F142" s="17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G142" s="9">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>-200</v>
       </c>
       <c r="H142" s="17">
         <v>0</v>
@@ -6230,27 +6252,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B143" s="17">
-        <v>2415</v>
+        <v>2715</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-2415</v>
+        <v>-2715</v>
       </c>
       <c r="E143" s="17">
-        <v>7430</v>
+        <v>1430</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-7430</v>
+        <v>-1430</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6265,7 +6287,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6300,7 +6322,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6335,7 +6357,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6370,27 +6392,27 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B147" s="17">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="C147" s="17">
         <v>0</v>
       </c>
       <c r="D147" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-9600</v>
       </c>
       <c r="E147" s="17">
-        <v>49704</v>
+        <v>42334</v>
       </c>
       <c r="F147" s="17">
         <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-49704</v>
+        <v>-42334</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6405,27 +6427,27 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B148" s="17">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="C148" s="17">
-        <v>502460</v>
+        <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>483460</v>
+        <v>561360</v>
       </c>
       <c r="E148" s="17">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F148" s="17">
         <v>0</v>
       </c>
       <c r="G148" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="H148" s="17">
         <v>300</v>
@@ -6440,7 +6462,7 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6453,14 +6475,14 @@
         <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F149" s="17">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6475,7 +6497,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B150" s="17">
         <v>1000</v>
@@ -6510,7 +6532,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6545,7 +6567,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6558,14 +6580,14 @@
         <v>0</v>
       </c>
       <c r="E152" s="17">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="F152" s="17">
         <v>0</v>
       </c>
       <c r="G152" s="9">
         <f t="shared" si="7"/>
-        <v>-2200</v>
+        <v>-200</v>
       </c>
       <c r="H152" s="17">
         <v>0</v>
@@ -6581,7 +6603,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6594,14 +6616,14 @@
         <v>0</v>
       </c>
       <c r="E153" s="17">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F153" s="17">
         <v>0</v>
       </c>
       <c r="G153" s="9">
         <f t="shared" si="7"/>
-        <v>-1800</v>
+        <v>-900</v>
       </c>
       <c r="H153" s="17">
         <v>0</v>
@@ -6617,27 +6639,27 @@
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B154" s="17">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="C154" s="17">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
-        <v>13000</v>
+        <v>-16000</v>
       </c>
       <c r="E154" s="17">
         <v>0</v>
       </c>
       <c r="F154" s="17">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H154" s="17">
         <v>0</v>
@@ -6664,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6681,19 +6703,19 @@
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -6715,13 +6737,13 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B4" s="19">
-        <v>-2150</v>
+        <v>-770</v>
       </c>
       <c r="C4" s="19">
-        <v>-135</v>
+        <v>-1655</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -6729,7 +6751,7 @@
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="19">
         <v>0</v>
@@ -6743,13 +6765,13 @@
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
       </c>
       <c r="C6" s="19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -6757,7 +6779,7 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
@@ -6771,7 +6793,7 @@
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="19">
         <v>0</v>
@@ -6785,7 +6807,7 @@
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="19">
         <v>0</v>
@@ -6799,7 +6821,7 @@
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="19">
         <v>0</v>
@@ -6813,7 +6835,7 @@
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="19">
         <v>-200</v>
@@ -6827,13 +6849,13 @@
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="19">
-        <v>-193778</v>
+        <v>-41099</v>
       </c>
       <c r="C12" s="19">
-        <v>-606</v>
+        <v>-20445</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6841,7 +6863,7 @@
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -6855,13 +6877,13 @@
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="19">
         <v>-30</v>
       </c>
       <c r="C14" s="19">
-        <v>-22329</v>
+        <v>-23329</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -6869,7 +6891,7 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="19">
         <v>-380</v>
@@ -6883,7 +6905,7 @@
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="19">
         <v>0</v>
@@ -6897,13 +6919,13 @@
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <v>-515</v>
+        <v>-1200</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -6911,7 +6933,7 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="19">
         <v>0</v>
@@ -6924,7 +6946,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B19" s="19">
         <v>0</v>
       </c>
@@ -6937,7 +6961,7 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
@@ -6951,7 +6975,7 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="19">
         <v>0</v>
@@ -6965,10 +6989,10 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B22" s="19">
-        <v>-600</v>
+        <v>-290</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -6979,7 +7003,7 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="19">
         <v>0</v>
@@ -6993,13 +7017,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B24" s="19">
         <v>-600</v>
       </c>
       <c r="C24" s="19">
-        <v>-8117</v>
+        <v>13622</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7007,7 +7031,7 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="19">
         <v>-385</v>
@@ -7021,7 +7045,7 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="19">
         <v>0</v>
@@ -7035,7 +7059,7 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="19">
         <v>-1500</v>
@@ -7049,7 +7073,7 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -7063,7 +7087,7 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="19">
         <v>0</v>
@@ -7077,13 +7101,13 @@
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="19">
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <v>3661</v>
+        <v>3788</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -7091,7 +7115,7 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="19">
         <v>-285</v>
@@ -7105,7 +7129,7 @@
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="19">
         <v>-44785</v>
@@ -7119,27 +7143,27 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-152370</v>
+        <v>-259891</v>
       </c>
       <c r="D33" s="19">
-        <v>-10848</v>
+        <v>-10621</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="19">
-        <v>67150</v>
+        <v>0</v>
       </c>
       <c r="C34" s="19">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D34" s="19">
         <v>10000</v>
@@ -7147,7 +7171,7 @@
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="19">
         <v>-1156</v>
@@ -7161,7 +7185,7 @@
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="19">
         <v>-650</v>
@@ -7170,16 +7194,18 @@
         <v>-1635</v>
       </c>
       <c r="D36" s="19">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="B37" s="19">
         <v>0</v>
       </c>
       <c r="C37" s="19">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7187,7 +7213,7 @@
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -7201,7 +7227,7 @@
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="19">
         <v>0</v>
@@ -7215,7 +7241,7 @@
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="19">
         <v>-1000</v>
@@ -7228,9 +7254,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="B41" s="19">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="C41" s="19">
         <v>0</v>
@@ -7240,7 +7268,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="B42" s="19">
         <v>0</v>
       </c>
@@ -7248,15 +7278,15 @@
         <v>0</v>
       </c>
       <c r="D42" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="19">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -7267,7 +7297,7 @@
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="19">
         <v>0</v>
@@ -7281,13 +7311,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C45" s="19">
-        <v>-40000</v>
+        <v>-22991</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7295,7 +7325,7 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
@@ -7309,7 +7339,7 @@
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="19">
         <v>0</v>
@@ -7323,21 +7353,21 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>-4000</v>
+        <v>-40000</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="19">
         <v>-800</v>
@@ -7349,9 +7379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="19">
         <v>0</v>
@@ -7363,9 +7393,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>
@@ -7377,9 +7407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="19">
         <v>14800</v>
@@ -7391,9 +7421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B53" s="19">
         <v>0</v>
@@ -7405,23 +7435,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="19">
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>4300</v>
+        <v>10100</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B55" s="19">
         <v>-200</v>
@@ -7433,9 +7463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="19">
         <v>50</v>
@@ -7447,9 +7477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
@@ -7461,51 +7491,51 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="19">
+        <v>0</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="19">
-        <v>0</v>
-      </c>
-      <c r="C58" s="19">
-        <v>0</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="B59" s="19">
-        <v>-1200</v>
+        <v>-1362</v>
       </c>
       <c r="C59" s="19">
-        <v>-8265</v>
+        <v>-7800</v>
       </c>
       <c r="D59" s="19">
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B60" s="19">
         <v>0</v>
       </c>
       <c r="C60" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D60" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="19">
         <v>0</v>
@@ -7516,44 +7546,38 @@
       <c r="D61" s="19">
         <v>0</v>
       </c>
-      <c r="E61" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B62" s="19">
         <v>-1000</v>
       </c>
       <c r="C62" s="19">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D62" s="19">
         <v>0</v>
       </c>
-      <c r="E62" s="19">
-        <v>-2500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0</v>
+      </c>
+      <c r="C63" s="19">
+        <v>-8485</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B63" s="19">
-        <v>0</v>
-      </c>
-      <c r="C63" s="19">
-        <v>-11680</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="B64" s="19">
         <v>-4220</v>
@@ -7567,7 +7591,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="19">
         <v>-600</v>
@@ -7581,7 +7605,7 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="19">
         <v>0</v>
@@ -7595,7 +7619,7 @@
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" s="19">
         <v>0</v>
@@ -7609,7 +7633,7 @@
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="19">
         <v>0</v>
@@ -7623,7 +7647,7 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B69" s="19">
         <v>-200</v>
@@ -7637,13 +7661,13 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B70" s="19">
-        <v>-620</v>
+        <v>-120</v>
       </c>
       <c r="C70" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D70" s="19">
         <v>0</v>
@@ -7651,7 +7675,7 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="19">
         <v>-700</v>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="19">
         <v>0</v>
@@ -7679,7 +7703,7 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="19">
         <v>-6270</v>
@@ -7693,13 +7717,13 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
       </c>
       <c r="C74" s="19">
-        <v>-422</v>
+        <v>-1600</v>
       </c>
       <c r="D74" s="19">
         <v>0</v>
@@ -7707,7 +7731,7 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="19">
         <v>0</v>
@@ -7721,7 +7745,7 @@
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="19">
         <v>-350</v>
@@ -7735,21 +7759,21 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B77" s="19">
-        <v>-2700</v>
+        <v>-6200</v>
       </c>
       <c r="C77" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D77" s="19">
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="19">
         <v>-80</v>
@@ -7763,7 +7787,7 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="19">
         <v>-400</v>
@@ -7777,7 +7801,7 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="19">
         <v>0</v>
@@ -7791,35 +7815,35 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="B81" s="19">
-        <v>-2100</v>
+        <v>-4400</v>
       </c>
       <c r="C81" s="19">
-        <v>-21930</v>
+        <v>-15115</v>
       </c>
       <c r="D81" s="19">
-        <v>-2704</v>
+        <v>-1850</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="19">
-        <v>-500</v>
+        <v>-5000</v>
       </c>
       <c r="C82" s="19">
         <v>0</v>
       </c>
       <c r="D82" s="19">
-        <v>-360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B83" s="19">
         <v>-1000</v>
@@ -7833,7 +7857,7 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B84" s="19">
         <v>-275</v>
@@ -7847,7 +7871,7 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B85" s="19">
         <v>0</v>
@@ -7861,7 +7885,7 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B86" s="19">
         <v>-1090</v>
@@ -7875,7 +7899,7 @@
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
@@ -7889,7 +7913,7 @@
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B88" s="19">
         <v>0</v>
@@ -7903,7 +7927,7 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B89" s="19">
         <v>0</v>
@@ -7917,7 +7941,7 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B90" s="19">
         <v>-300</v>
@@ -7931,7 +7955,7 @@
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" s="19">
         <v>0</v>
@@ -7946,9 +7970,7 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="A92" s="11"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -7961,7 +7983,7 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93" s="19">
         <v>0</v>
@@ -7975,7 +7997,7 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B94" s="19">
         <v>133</v>
@@ -7989,13 +8011,13 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B95" s="19">
         <v>0</v>
       </c>
       <c r="C95" s="19">
-        <v>-3520</v>
+        <v>-3205</v>
       </c>
       <c r="D95" s="19">
         <v>0</v>
@@ -8003,7 +8025,7 @@
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B96" s="19">
         <v>-280</v>
@@ -8016,12 +8038,14 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="B97" s="19">
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8029,7 +8053,7 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B98" s="19">
         <v>-650</v>
@@ -8043,21 +8067,21 @@
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B99" s="19">
         <v>0</v>
       </c>
       <c r="C99" s="19">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="D99" s="19">
-        <v>326</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B100" s="19">
         <v>6000</v>
@@ -8071,7 +8095,7 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B101" s="19">
         <v>-1260</v>
@@ -8085,7 +8109,7 @@
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B102" s="19">
         <v>-1000</v>
@@ -8099,7 +8123,7 @@
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B103" s="19">
         <v>0</v>
@@ -8113,13 +8137,13 @@
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B104" s="19">
         <v>237983</v>
       </c>
       <c r="C104" s="19">
-        <v>-4056</v>
+        <v>-4083</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8127,13 +8151,13 @@
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B105" s="19">
         <v>-1600</v>
       </c>
       <c r="C105" s="19">
-        <v>-10176</v>
+        <v>-5987</v>
       </c>
       <c r="D105" s="19">
         <v>0</v>
@@ -8141,7 +8165,7 @@
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B106" s="19">
         <v>-550</v>
@@ -8155,7 +8179,7 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B107" s="19">
         <v>0</v>
@@ -8169,7 +8193,7 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B108" s="19">
         <v>8000</v>
@@ -8183,7 +8207,7 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B109" s="19">
         <v>0</v>
@@ -8197,7 +8221,7 @@
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B110" s="19">
         <v>-250</v>
@@ -8211,10 +8235,10 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B111" s="19">
-        <v>-625</v>
+        <v>-100</v>
       </c>
       <c r="C111" s="19">
         <v>0</v>
@@ -8225,10 +8249,10 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B112" s="19">
-        <v>-200</v>
+        <v>-225</v>
       </c>
       <c r="C112" s="19">
         <v>0</v>
@@ -8239,7 +8263,7 @@
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B113" s="19">
         <v>1984</v>
@@ -8253,13 +8277,13 @@
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B114" s="19">
-        <v>-9520</v>
+        <v>0</v>
       </c>
       <c r="C114" s="19">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D114" s="19">
         <v>0</v>
@@ -8267,7 +8291,7 @@
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B115" s="19">
         <v>-150</v>
@@ -8281,7 +8305,7 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
@@ -8295,13 +8319,13 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B117" s="19">
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8309,7 +8333,7 @@
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B118" s="19">
         <v>135000</v>
@@ -8323,7 +8347,7 @@
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B119" s="19">
         <v>-170</v>
@@ -8337,13 +8361,13 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B120" s="19">
-        <v>-5150</v>
+        <v>-150</v>
       </c>
       <c r="C120" s="19">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
@@ -8351,13 +8375,13 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B121" s="19">
         <v>24000</v>
       </c>
       <c r="C121" s="19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D121" s="19">
         <v>0</v>
@@ -8365,7 +8389,7 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B122" s="19">
         <v>527</v>
@@ -8379,7 +8403,7 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B123" s="19">
         <v>-2300</v>
@@ -8393,13 +8417,13 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B124" s="19">
-        <v>-11618</v>
+        <v>-4218</v>
       </c>
       <c r="C124" s="19">
-        <v>-4968</v>
+        <v>-2968</v>
       </c>
       <c r="D124" s="19">
         <v>0</v>
@@ -8407,13 +8431,13 @@
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B125" s="19">
         <v>-13918</v>
       </c>
       <c r="C125" s="19">
-        <v>-800</v>
+        <v>-1303</v>
       </c>
       <c r="D125" s="19">
         <v>-810</v>
@@ -8421,13 +8445,13 @@
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
       </c>
       <c r="C126" s="19">
-        <v>8350</v>
+        <v>9631</v>
       </c>
       <c r="D126" s="19">
         <v>0</v>
@@ -8435,7 +8459,7 @@
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B127" s="19">
         <v>0</v>
@@ -8449,13 +8473,13 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B128" s="19">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="C128" s="19">
-        <v>0</v>
+        <v>-1152</v>
       </c>
       <c r="D128" s="19">
         <v>0</v>
@@ -8463,7 +8487,7 @@
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B129" s="19">
         <v>-2500</v>
@@ -8477,10 +8501,10 @@
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" s="19">
-        <v>-3870</v>
+        <v>-3900</v>
       </c>
       <c r="C130" s="19">
         <v>0</v>
@@ -8491,7 +8515,7 @@
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B131" s="19">
         <v>-925</v>
@@ -8505,7 +8529,7 @@
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B132" s="19">
         <v>-200</v>
@@ -8519,7 +8543,7 @@
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B133" s="19">
         <v>0</v>
@@ -8533,7 +8557,7 @@
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B134" s="19">
         <v>12887</v>
@@ -8547,7 +8571,7 @@
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B135" s="19">
         <v>-830</v>
@@ -8561,13 +8585,13 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B136" s="19">
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="C136" s="19">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="D136" s="19">
         <v>0</v>
@@ -8575,7 +8599,7 @@
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B137" s="19">
         <v>-1500</v>
@@ -8589,7 +8613,7 @@
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
@@ -8603,13 +8627,13 @@
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>30000</v>
+        <v>24820</v>
       </c>
       <c r="D139" s="19">
         <v>-2000</v>
@@ -8617,10 +8641,10 @@
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B140" s="19">
-        <v>1000</v>
+        <v>44310</v>
       </c>
       <c r="C140" s="19">
         <v>0</v>
@@ -8630,12 +8654,14 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="B141" s="19">
-        <v>0</v>
+        <v>-297</v>
       </c>
       <c r="C141" s="19">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="D141" s="19">
         <v>0</v>
@@ -8643,13 +8669,13 @@
     </row>
     <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B142" s="19">
-        <v>-1075</v>
+        <v>0</v>
       </c>
       <c r="C142" s="19">
-        <v>-135727</v>
+        <v>-72175</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8657,13 +8683,13 @@
     </row>
     <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B143" s="19">
         <v>0</v>
       </c>
       <c r="C143" s="19">
-        <v>4000</v>
+        <v>-200</v>
       </c>
       <c r="D143" s="19">
         <v>0</v>
@@ -8671,13 +8697,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B144" s="19">
-        <v>-2415</v>
+        <v>-2715</v>
       </c>
       <c r="C144" s="19">
-        <v>-7430</v>
+        <v>-1430</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8685,7 +8711,7 @@
     </row>
     <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B145" s="19">
         <v>-1350</v>
@@ -8699,7 +8725,7 @@
     </row>
     <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B146" s="19">
         <v>-50</v>
@@ -8713,7 +8739,7 @@
     </row>
     <row r="147" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B147" s="19">
         <v>0</v>
@@ -8727,13 +8753,13 @@
     </row>
     <row r="148" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B148" s="19">
-        <v>0</v>
+        <v>-9600</v>
       </c>
       <c r="C148" s="19">
-        <v>-49704</v>
+        <v>-42334</v>
       </c>
       <c r="D148" s="19">
         <v>0</v>
@@ -8741,13 +8767,13 @@
     </row>
     <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B149" s="19">
-        <v>483460</v>
+        <v>561360</v>
       </c>
       <c r="C149" s="19">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="D149" s="19">
         <v>-300</v>
@@ -8755,13 +8781,13 @@
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B150" s="19">
         <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
@@ -8769,7 +8795,7 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" s="19">
         <v>-1000</v>
@@ -8783,7 +8809,7 @@
     </row>
     <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B152" s="19">
         <v>0</v>
@@ -8797,13 +8823,13 @@
     </row>
     <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
       </c>
       <c r="C153" s="19">
-        <v>-2200</v>
+        <v>-200</v>
       </c>
       <c r="D153" s="19">
         <v>0</v>
@@ -8812,13 +8838,13 @@
     </row>
     <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B154" s="19">
         <v>0</v>
       </c>
       <c r="C154" s="19">
-        <v>-1800</v>
+        <v>-900</v>
       </c>
       <c r="D154" s="19">
         <v>0</v>
@@ -8826,84 +8852,88 @@
     </row>
     <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B155" s="24">
-        <v>13000</v>
+        <f t="shared" ref="B155:D155" si="0">SUM(B2:B154)</f>
+        <v>862674</v>
       </c>
       <c r="C155" s="24">
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>-374690</v>
       </c>
       <c r="D155" s="24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2465</v>
       </c>
       <c r="E155" s="24">
-        <f t="shared" ref="C155:F155" si="0">SUM(E2:E154)</f>
-        <v>-2500</v>
+        <f t="shared" ref="E155:F155" si="1">SUM(E2:E154)</f>
+        <v>0</v>
       </c>
       <c r="F155" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
       <c r="B156" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D156" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="E156" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="F156" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E156" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="G156" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C159" s="28"/>
       <c r="D159" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B160" s="19">
-        <v>237962</v>
+        <v>-232152</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E160" s="20">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B161" s="19">
-        <v>384148</v>
+        <v>505517</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E161" s="20">
         <v>0.71</v>
@@ -8912,33 +8942,33 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B162" s="19">
-        <v>12235</v>
+        <v>16610</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E162" s="19">
         <v>0.115</v>
       </c>
       <c r="F162" s="33">
-        <v>32.3478260869</v>
+        <v>32.173913043399999</v>
       </c>
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B163" s="19">
-        <v>2500</v>
+        <v>19190</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E163" s="19">
         <v>0.185</v>
@@ -8950,14 +8980,14 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B164" s="19">
-        <v>15892</v>
+        <v>10676</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E164" s="20">
         <v>1.08</v>
@@ -8966,15 +8996,15 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B165" s="19">
-        <v>15090</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D16B4-4565-4CA1-99FE-3398B3464896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA14A5-09EB-472D-A762-643606080794}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{AAD8CB0C-9A2E-42E0-B24D-215582AC20B3}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{FBD86F73-DFB9-4B8E-A9DE-04E9B4F03EC1}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -510,9 +510,6 @@
     <t>زيادة لراس المال</t>
   </si>
   <si>
-    <t>حسام صالحة</t>
-  </si>
-  <si>
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
@@ -546,27 +543,18 @@
     <t xml:space="preserve">صوان </t>
   </si>
   <si>
-    <t>نور عبيد</t>
-  </si>
-  <si>
     <t>سلام عليوة شيكات</t>
   </si>
   <si>
     <t>أبو طلعت الحساينة</t>
   </si>
   <si>
-    <t>الأصيل ألمنيوم</t>
-  </si>
-  <si>
     <t>خالد الحداد</t>
   </si>
   <si>
     <t>يوسف الغز</t>
   </si>
   <si>
-    <t>علاء أبو شعبان سيارات</t>
-  </si>
-  <si>
     <t>محمد فورة</t>
   </si>
   <si>
@@ -579,10 +567,28 @@
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
-    <t>صندوق2 احمد صندوق 2 احــــمــد</t>
-  </si>
-  <si>
     <t>شـحاتة بـنك</t>
+  </si>
+  <si>
+    <t>صندوق  (2)</t>
+  </si>
+  <si>
+    <t>ساري فرودة</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t>أم علي الهبلة</t>
+  </si>
+  <si>
+    <t>شحاتة</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 احــــــــمــــــد</t>
+  </si>
+  <si>
+    <t>المجموع</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +777,13 @@
       <name val="Simplified Arabic"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Simple Indust Shaded"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1287,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J154" sqref="J2:J154"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,17 +1370,17 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17">
-        <v>770</v>
+        <v>970</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-770</v>
+        <v>-970</v>
       </c>
       <c r="E3" s="17">
         <v>1655</v>
@@ -1720,11 +1736,11 @@
         <v>27329</v>
       </c>
       <c r="F13" s="17">
-        <v>4000</v>
+        <v>6555</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>-23329</v>
+        <v>-20774</v>
       </c>
       <c r="H13" s="17">
         <v>0</v>
@@ -1879,7 +1895,7 @@
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="17">
         <v>0</v>
@@ -1987,14 +2003,14 @@
         <v>134</v>
       </c>
       <c r="B21" s="17">
-        <v>1235</v>
+        <v>690</v>
       </c>
       <c r="C21" s="17">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-290</v>
+        <v>-690</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2057,14 +2073,14 @@
         <v>138</v>
       </c>
       <c r="B23" s="17">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="C23" s="17">
         <v>0</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-970</v>
       </c>
       <c r="E23" s="17">
         <v>100000</v>
@@ -2369,7 +2385,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2382,14 +2398,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>259891</v>
+        <v>307891</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-259891</v>
+        <v>-307891</v>
       </c>
       <c r="H32" s="17">
         <v>10621</v>
@@ -2407,14 +2423,14 @@
         <v>24</v>
       </c>
       <c r="B33" s="17">
-        <v>40000</v>
+        <v>1500</v>
       </c>
       <c r="C33" s="17">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="17">
         <v>200</v>
@@ -2512,14 +2528,14 @@
         <v>141</v>
       </c>
       <c r="B36" s="17">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="E36" s="17">
         <v>400</v>
@@ -2557,14 +2573,14 @@
         <v>0</v>
       </c>
       <c r="E37" s="17">
-        <v>3800</v>
+        <v>4372</v>
       </c>
       <c r="F37" s="17">
-        <v>2350</v>
+        <v>2950</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>-1450</v>
+        <v>-1422</v>
       </c>
       <c r="H37" s="17">
         <v>0</v>
@@ -2649,7 +2665,7 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="17">
         <v>130</v>
@@ -2684,7 +2700,7 @@
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="17">
         <v>0</v>
@@ -2725,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
       </c>
       <c r="F42" s="17">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H42" s="17">
         <v>0</v>
@@ -2792,24 +2808,24 @@
         <v>41</v>
       </c>
       <c r="B44" s="17">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E44" s="17">
-        <v>22991</v>
+        <v>0</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-22991</v>
+        <v>0</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2894,7 +2910,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -3040,11 +3056,11 @@
         <v>200</v>
       </c>
       <c r="C51" s="17">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>14800</v>
+        <v>6800</v>
       </c>
       <c r="E51" s="17">
         <v>2100</v>
@@ -3117,14 +3133,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>15000</v>
+        <v>20100</v>
       </c>
       <c r="F53" s="17">
-        <v>25100</v>
+        <v>50100</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>10100</v>
+        <v>30000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3313,9 +3329,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="A59" s="11"/>
       <c r="B59" s="17">
         <v>0</v>
       </c>
@@ -3384,7 +3398,7 @@
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="17">
         <v>1000</v>
@@ -3629,7 +3643,7 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="17">
         <v>200</v>
@@ -3664,17 +3678,17 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B69" s="17">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>-120</v>
+        <v>-5000</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
@@ -4049,7 +4063,7 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" s="17">
         <v>4400</v>
@@ -4087,14 +4101,14 @@
         <v>57</v>
       </c>
       <c r="B81" s="17">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C81" s="17">
         <v>0</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4262,14 +4276,14 @@
         <v>130</v>
       </c>
       <c r="B86" s="17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C86" s="17">
         <v>0</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E86" s="17">
         <v>0</v>
@@ -4433,7 +4447,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="B91" s="17">
         <v>0</v>
       </c>
@@ -4445,14 +4461,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F91" s="17">
         <v>0</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="17">
         <v>0</v>
@@ -4575,14 +4591,14 @@
         <v>69</v>
       </c>
       <c r="B95" s="17">
-        <v>280</v>
+        <v>5680</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" si="3"/>
-        <v>-280</v>
+        <v>-5680</v>
       </c>
       <c r="E95" s="17">
         <v>1500</v>
@@ -4607,7 +4623,7 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B96" s="17">
         <v>0</v>
@@ -4623,11 +4639,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>17700</v>
+        <v>9200</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>17700</v>
+        <v>9200</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4900,14 +4916,14 @@
         <v>-1600</v>
       </c>
       <c r="E104" s="17">
-        <v>5987</v>
+        <v>7352</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-5987</v>
+        <v>-7352</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -5097,17 +5113,17 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B110" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
       <c r="D110" s="9">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E110" s="17">
         <v>0</v>
@@ -5132,7 +5148,7 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B111" s="17">
         <v>225</v>
@@ -5323,11 +5339,11 @@
         <v>10300</v>
       </c>
       <c r="F116" s="17">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5415,24 +5431,24 @@
         <v>90</v>
       </c>
       <c r="B119" s="17">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="9">
         <f t="shared" si="3"/>
-        <v>-150</v>
+        <v>-400</v>
       </c>
       <c r="E119" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F119" s="17">
         <v>0</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -5565,14 +5581,14 @@
         <v>-4218</v>
       </c>
       <c r="E123" s="17">
-        <v>2968</v>
+        <v>3168</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-2968</v>
+        <v>-3168</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5692,7 +5708,7 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" s="17">
         <v>0</v>
@@ -5972,7 +5988,7 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B135" s="17">
         <v>570</v>
@@ -6077,7 +6093,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6112,17 +6128,17 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B139" s="17">
         <v>0</v>
       </c>
       <c r="C139" s="17">
-        <v>44310</v>
+        <v>0</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="6"/>
-        <v>44310</v>
+        <v>0</v>
       </c>
       <c r="E139" s="17">
         <v>0</v>
@@ -6147,7 +6163,7 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B140" s="17">
         <v>297</v>
@@ -6182,7 +6198,7 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B141" s="17">
         <v>0</v>
@@ -6195,14 +6211,14 @@
         <v>0</v>
       </c>
       <c r="E141" s="17">
-        <v>72175</v>
+        <v>35975</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-72175</v>
+        <v>-35975</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6217,7 +6233,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6255,24 +6271,24 @@
         <v>168</v>
       </c>
       <c r="B143" s="17">
-        <v>2715</v>
+        <v>3405</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-2715</v>
+        <v>-3405</v>
       </c>
       <c r="E143" s="17">
-        <v>1430</v>
+        <v>2430</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-1430</v>
+        <v>-2430</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6462,17 +6478,17 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="17">
-        <v>0</v>
+        <v>1532</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1532</v>
       </c>
       <c r="E149" s="17">
         <v>3000</v>
@@ -6567,7 +6583,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6603,7 +6619,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6642,24 +6658,24 @@
         <v>132</v>
       </c>
       <c r="B154" s="17">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="C154" s="17">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
-        <v>-16000</v>
+        <v>-6000</v>
       </c>
       <c r="E154" s="17">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F154" s="17">
         <v>0</v>
       </c>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H154" s="17">
         <v>0</v>
@@ -6684,10 +6700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6737,10 +6753,10 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="19">
-        <v>-770</v>
+        <v>-970</v>
       </c>
       <c r="C4" s="19">
         <v>-1655</v>
@@ -6883,7 +6899,7 @@
         <v>-30</v>
       </c>
       <c r="C14" s="19">
-        <v>-23329</v>
+        <v>-20774</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -6947,7 +6963,7 @@
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="19">
         <v>0</v>
@@ -6992,7 +7008,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="19">
-        <v>-290</v>
+        <v>-690</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -7020,7 +7036,7 @@
         <v>138</v>
       </c>
       <c r="B24" s="19">
-        <v>-600</v>
+        <v>-970</v>
       </c>
       <c r="C24" s="19">
         <v>13622</v>
@@ -7143,13 +7159,13 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-259891</v>
+        <v>-307891</v>
       </c>
       <c r="D33" s="19">
         <v>-10621</v>
@@ -7160,7 +7176,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C34" s="19">
         <v>-200</v>
@@ -7202,7 +7218,7 @@
         <v>141</v>
       </c>
       <c r="B37" s="19">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C37" s="19">
         <v>-400</v>
@@ -7219,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <v>-1450</v>
+        <v>-1422</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
@@ -7255,7 +7271,7 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="19">
         <v>-130</v>
@@ -7269,7 +7285,7 @@
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -7286,10 +7302,10 @@
         <v>139</v>
       </c>
       <c r="B43" s="19">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C43" s="19">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D43" s="19">
         <v>0</v>
@@ -7314,10 +7330,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="19">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="C45" s="19">
-        <v>-22991</v>
+        <v>0</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7353,7 +7369,7 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
@@ -7412,7 +7428,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="19">
-        <v>14800</v>
+        <v>6800</v>
       </c>
       <c r="C52" s="19">
         <v>-1400</v>
@@ -7443,7 +7459,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>10100</v>
+        <v>30000</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7520,9 +7536,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="A60" s="11"/>
       <c r="B60" s="19">
         <v>0</v>
       </c>
@@ -7549,7 +7563,7 @@
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="19">
         <v>-1000</v>
@@ -7647,7 +7661,7 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="19">
         <v>-200</v>
@@ -7661,10 +7675,10 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B70" s="19">
-        <v>-120</v>
+        <v>-5000</v>
       </c>
       <c r="C70" s="19">
         <v>0</v>
@@ -7815,7 +7829,7 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B81" s="19">
         <v>-4400</v>
@@ -7832,7 +7846,7 @@
         <v>57</v>
       </c>
       <c r="B82" s="19">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="C82" s="19">
         <v>0</v>
@@ -7902,7 +7916,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="19">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C87" s="19">
         <v>0</v>
@@ -7970,12 +7984,14 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -8028,7 +8044,7 @@
         <v>69</v>
       </c>
       <c r="B96" s="19">
-        <v>-280</v>
+        <v>-5680</v>
       </c>
       <c r="C96" s="19">
         <v>-1500</v>
@@ -8039,13 +8055,13 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="19">
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>17700</v>
+        <v>9200</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8157,7 +8173,7 @@
         <v>-1600</v>
       </c>
       <c r="C105" s="19">
-        <v>-5987</v>
+        <v>-7352</v>
       </c>
       <c r="D105" s="19">
         <v>0</v>
@@ -8235,10 +8251,10 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B111" s="19">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C111" s="19">
         <v>0</v>
@@ -8249,7 +8265,7 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B112" s="19">
         <v>-225</v>
@@ -8325,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8364,10 +8380,10 @@
         <v>90</v>
       </c>
       <c r="B120" s="19">
-        <v>-150</v>
+        <v>-400</v>
       </c>
       <c r="C120" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
@@ -8423,7 +8439,7 @@
         <v>-4218</v>
       </c>
       <c r="C124" s="19">
-        <v>-2968</v>
+        <v>-3168</v>
       </c>
       <c r="D124" s="19">
         <v>0</v>
@@ -8473,7 +8489,7 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" s="19">
         <v>0</v>
@@ -8585,7 +8601,7 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B136" s="19">
         <v>-570</v>
@@ -8627,7 +8643,7 @@
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
@@ -8641,10 +8657,10 @@
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B140" s="19">
-        <v>44310</v>
+        <v>0</v>
       </c>
       <c r="C140" s="19">
         <v>0</v>
@@ -8655,7 +8671,7 @@
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B141" s="19">
         <v>-297</v>
@@ -8669,13 +8685,13 @@
     </row>
     <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B142" s="19">
         <v>0</v>
       </c>
       <c r="C142" s="19">
-        <v>-72175</v>
+        <v>-35975</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8683,7 +8699,7 @@
     </row>
     <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B143" s="19">
         <v>0</v>
@@ -8697,13 +8713,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B144" s="19">
-        <v>-2715</v>
+        <v>-3405</v>
       </c>
       <c r="C144" s="19">
-        <v>-1430</v>
+        <v>-2430</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8781,10 +8797,10 @@
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="19">
-        <v>0</v>
+        <v>-1532</v>
       </c>
       <c r="C150" s="19">
         <v>24000</v>
@@ -8823,7 +8839,7 @@
     </row>
     <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8834,11 +8850,10 @@
       <c r="D153" s="19">
         <v>0</v>
       </c>
-      <c r="F153" s="20"/>
     </row>
     <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" s="19">
         <v>0</v>
@@ -8849,172 +8864,187 @@
       <c r="D154" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="F154" s="20"/>
+    </row>
+    <row r="155" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B155" s="24">
-        <f t="shared" ref="B155:D155" si="0">SUM(B2:B154)</f>
-        <v>862674</v>
-      </c>
-      <c r="C155" s="24">
+      <c r="B155" s="19">
+        <v>-6000</v>
+      </c>
+      <c r="C155" s="19">
+        <v>-1400</v>
+      </c>
+      <c r="D155" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A156" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="24">
+        <f t="shared" ref="B156:D156" si="0">SUM(B2:B155)</f>
+        <v>791292</v>
+      </c>
+      <c r="C156" s="24">
         <f t="shared" si="0"/>
-        <v>-374690</v>
-      </c>
-      <c r="D155" s="24">
+        <v>-355981</v>
+      </c>
+      <c r="D156" s="24">
         <f t="shared" si="0"/>
         <v>-2465</v>
       </c>
-      <c r="E155" s="24">
-        <f t="shared" ref="E155:F155" si="1">SUM(E2:E154)</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="24">
+      <c r="E156" s="24">
+        <f t="shared" ref="E156:F156" si="1">SUM(E2:E155)</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="19" t="s">
+    <row r="157" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C157" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D157" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E156" s="19" t="s">
+      <c r="E157" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F156" s="19" t="s">
+      <c r="F157" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G156" s="19" t="s">
+      <c r="G157" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+    <row r="160" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C159" s="28"/>
-      <c r="D159" s="25" t="s">
+      <c r="C160" s="28"/>
+      <c r="D160" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E160" s="26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B160" s="19">
-        <v>-232152</v>
-      </c>
-      <c r="C160" s="28"/>
-      <c r="D160" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E160" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B161" s="19">
-        <v>505517</v>
+        <v>13090</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E161" s="20">
-        <v>0.71</v>
+        <v>3.7</v>
       </c>
       <c r="G161" s="19"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B162" s="19">
-        <v>16610</v>
+        <v>457274</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E162" s="19">
-        <v>0.115</v>
-      </c>
-      <c r="F162" s="33">
-        <v>32.173913043399999</v>
+        <v>124</v>
+      </c>
+      <c r="E162" s="20">
+        <v>0.71</v>
       </c>
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B163" s="19">
-        <v>19190</v>
+        <v>15660</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E163" s="19">
-        <v>0.185</v>
+        <v>0.115</v>
       </c>
       <c r="F163" s="33">
-        <v>3.83783783783</v>
+        <v>32.173913043399999</v>
       </c>
       <c r="G163" s="19"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B164" s="19">
-        <v>10676</v>
+        <v>3335</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E164" s="20">
-        <v>1.08</v>
+        <v>127</v>
+      </c>
+      <c r="E164" s="19">
+        <v>0.185</v>
+      </c>
+      <c r="F164" s="33">
+        <v>3.83783783783</v>
       </c>
       <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B165" s="19">
+        <v>13008</v>
+      </c>
+      <c r="C165" s="28"/>
+      <c r="D165" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E165" s="20">
+        <v>1.08</v>
+      </c>
+      <c r="G165" s="19"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B165" s="19">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="34" t="s">
+      <c r="B166" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B170" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="E170:F170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA14A5-09EB-472D-A762-643606080794}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70250CF-FAAF-4275-84D1-66676CC090FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{FBD86F73-DFB9-4B8E-A9DE-04E9B4F03EC1}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{5679D130-E15B-4367-BCAE-F99D71C2AB8A}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>أرباح دهب</t>
-  </si>
-  <si>
-    <t>أبو طلعت</t>
   </si>
   <si>
     <t>العجلة محامي</t>
@@ -474,9 +471,6 @@
     <t xml:space="preserve"> أبو جهاد عاشور</t>
   </si>
   <si>
-    <t>حمود الحايك</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>يورو</t>
   </si>
   <si>
-    <t>أبو علي أبو طويلة  2 تشغيل</t>
-  </si>
-  <si>
     <t>تجميع كهرباء</t>
   </si>
   <si>
@@ -513,9 +504,6 @@
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
     <t>عابدين</t>
   </si>
   <si>
@@ -531,30 +519,15 @@
     <t>سامي الحلو</t>
   </si>
   <si>
-    <t>أبو أنس يورو</t>
-  </si>
-  <si>
     <t>حسين سالم</t>
   </si>
   <si>
-    <t xml:space="preserve">أبو داير </t>
-  </si>
-  <si>
-    <t xml:space="preserve">صوان </t>
-  </si>
-  <si>
     <t>سلام عليوة شيكات</t>
   </si>
   <si>
     <t>أبو طلعت الحساينة</t>
   </si>
   <si>
-    <t>خالد الحداد</t>
-  </si>
-  <si>
-    <t>يوسف الغز</t>
-  </si>
-  <si>
     <t>محمد فورة</t>
   </si>
   <si>
@@ -570,25 +543,43 @@
     <t>شـحاتة بـنك</t>
   </si>
   <si>
-    <t>صندوق  (2)</t>
-  </si>
-  <si>
-    <t>ساري فرودة</t>
-  </si>
-  <si>
-    <t>الزهارنة ألمنيوم</t>
-  </si>
-  <si>
     <t>أم علي الهبلة</t>
   </si>
   <si>
-    <t>شحاتة</t>
-  </si>
-  <si>
-    <t>صندوق 2 صندوق احمد صندوق2 احــــــــمــــــد</t>
-  </si>
-  <si>
-    <t>المجموع</t>
+    <t>ارباح استثمار ابوعلي</t>
+  </si>
+  <si>
+    <t>أبو أنس يورو + بو أنس سيدو</t>
+  </si>
+  <si>
+    <t>عبد الله المصري</t>
+  </si>
+  <si>
+    <t>ابو طويله 3</t>
+  </si>
+  <si>
+    <t>الرنتيسي</t>
+  </si>
+  <si>
+    <t>أبو تامر عزااام</t>
+  </si>
+  <si>
+    <t>أنور بنك القاهرة عمان</t>
+  </si>
+  <si>
+    <t>شركة الأدوية أستثمار</t>
+  </si>
+  <si>
+    <t>الميدنا حمزة محاسب</t>
+  </si>
+  <si>
+    <t>ساري فرودة + صوان</t>
+  </si>
+  <si>
+    <t>أبو علي طويلة 3</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق2 احمـــــــد</t>
   </si>
 </sst>
 </file>
@@ -599,7 +590,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,13 +768,6 @@
       <name val="Simplified Arabic"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Simple Indust Shaded"/>
-      <charset val="178"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -888,7 +872,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,9 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1301,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J154"/>
+      <selection activeCell="J156" sqref="J2:J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,19 +1299,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1370,17 +1351,17 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" s="17">
-        <v>970</v>
+        <v>1820</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-970</v>
+        <v>-1820</v>
       </c>
       <c r="E3" s="17">
         <v>1655</v>
@@ -1440,7 +1421,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1653,24 +1634,24 @@
         <v>7</v>
       </c>
       <c r="B11" s="17">
-        <v>41099</v>
+        <v>3179</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-41099</v>
+        <v>-3179</v>
       </c>
       <c r="E11" s="17">
-        <v>20445</v>
+        <v>29453</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-20445</v>
+        <v>-29453</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1755,7 +1736,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1838,14 +1819,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-1200</v>
+        <v>-2300</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -1895,7 +1876,7 @@
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" s="17">
         <v>0</v>
@@ -2000,17 +1981,17 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="17">
-        <v>690</v>
+        <v>890</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-690</v>
+        <v>-890</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2070,27 +2051,27 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B23" s="17">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="C23" s="17">
         <v>0</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="17">
-        <v>113622</v>
+        <v>700</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>13622</v>
+        <v>700</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2261,11 +2242,11 @@
         <v>7750</v>
       </c>
       <c r="F28" s="17">
-        <v>12070</v>
+        <v>14470</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>4320</v>
+        <v>6720</v>
       </c>
       <c r="H28" s="17">
         <v>0</v>
@@ -2293,14 +2274,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>6212</v>
+        <v>8912</v>
       </c>
       <c r="F29" s="17">
         <v>10000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>3788</v>
+        <v>1088</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2385,7 +2366,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2398,24 +2379,24 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>307891</v>
+        <v>155073</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-307891</v>
+        <v>-155073</v>
       </c>
       <c r="H32" s="17">
-        <v>10621</v>
+        <v>4101</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-10621</v>
+        <v>-4101</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2423,30 +2404,30 @@
         <v>24</v>
       </c>
       <c r="B33" s="17">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="17">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>4400</v>
       </c>
       <c r="H33" s="17">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="17">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
@@ -2525,7 +2506,7 @@
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B36" s="17">
         <v>150</v>
@@ -2538,14 +2519,14 @@
         <v>-150</v>
       </c>
       <c r="E36" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2665,7 +2646,7 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B40" s="17">
         <v>130</v>
@@ -2678,14 +2659,14 @@
         <v>-130</v>
       </c>
       <c r="E40" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F40" s="17">
         <v>0</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H40" s="17">
         <v>0</v>
@@ -2700,7 +2681,7 @@
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B41" s="17">
         <v>0</v>
@@ -2735,27 +2716,27 @@
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B42" s="17">
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
       </c>
       <c r="F42" s="17">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H42" s="17">
         <v>0</v>
@@ -2805,27 +2786,27 @@
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="17">
-        <v>1300</v>
+        <v>132782</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-1300</v>
+        <v>-132782</v>
       </c>
       <c r="E44" s="17">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2840,7 +2821,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2853,14 +2834,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="17">
-        <v>24900</v>
+        <v>146000</v>
       </c>
       <c r="F45" s="17">
         <v>136000</v>
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>111100</v>
+        <v>-10000</v>
       </c>
       <c r="H45" s="17">
         <v>0</v>
@@ -2910,7 +2891,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -2923,14 +2904,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>40000</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="17">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>-40000</v>
+        <v>8700</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -3053,24 +3034,24 @@
         <v>35</v>
       </c>
       <c r="B51" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C51" s="17">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="E51" s="17">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="F51" s="17">
         <v>700</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="H51" s="17">
         <v>0</v>
@@ -3085,7 +3066,7 @@
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -3133,14 +3114,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>20100</v>
+        <v>25100</v>
       </c>
       <c r="F53" s="17">
-        <v>50100</v>
+        <v>70100</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3155,7 +3136,7 @@
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3260,33 +3241,33 @@
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B57" s="17">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="E57" s="17">
-        <v>1300</v>
+        <v>26589</v>
       </c>
       <c r="F57" s="17">
-        <v>1300</v>
+        <v>8196</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-18393</v>
       </c>
       <c r="H57" s="17">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I57" s="17">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="2"/>
@@ -3295,7 +3276,7 @@
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="17">
         <v>1512</v>
@@ -3308,14 +3289,14 @@
         <v>-1362</v>
       </c>
       <c r="E58" s="17">
-        <v>9042</v>
+        <v>9222</v>
       </c>
       <c r="F58" s="17">
-        <v>1242</v>
+        <v>1742</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>-7800</v>
+        <v>-7480</v>
       </c>
       <c r="H58" s="17">
         <v>1938</v>
@@ -3329,16 +3310,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="B59" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C59" s="17">
         <v>0</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E59" s="17">
         <v>0</v>
@@ -3363,7 +3346,7 @@
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
@@ -3398,7 +3381,7 @@
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B61" s="17">
         <v>1000</v>
@@ -3433,7 +3416,7 @@
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3446,14 +3429,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>61630</v>
+        <v>61950</v>
       </c>
       <c r="F62" s="17">
-        <v>53145</v>
+        <v>54925</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-8485</v>
+        <v>-7025</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3468,7 +3451,7 @@
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3503,7 +3486,7 @@
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="17">
         <v>600</v>
@@ -3538,7 +3521,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3573,7 +3556,7 @@
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="17">
         <v>0</v>
@@ -3608,7 +3591,7 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" s="17">
         <v>0</v>
@@ -3643,17 +3626,17 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B68" s="17">
-        <v>200</v>
+        <v>5152</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>-5152</v>
       </c>
       <c r="E68" s="17">
         <v>0</v>
@@ -3678,27 +3661,27 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B69" s="17">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C69" s="17">
         <v>0</v>
       </c>
       <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="E69" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F69" s="17">
         <v>0</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H69" s="17">
         <v>0</v>
@@ -3713,7 +3696,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3748,7 +3731,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3783,17 +3766,17 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
       </c>
       <c r="C72" s="17">
-        <v>13350</v>
+        <v>15350</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="3"/>
-        <v>-6270</v>
+        <v>-4270</v>
       </c>
       <c r="E72" s="17">
         <v>0</v>
@@ -3818,7 +3801,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3853,7 +3836,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3888,7 +3871,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3923,7 +3906,7 @@
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B76" s="17">
         <v>6200</v>
@@ -3958,7 +3941,7 @@
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3993,7 +3976,7 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
@@ -4028,7 +4011,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4063,27 +4046,27 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B80" s="17">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-4400</v>
+        <v>-2000</v>
       </c>
       <c r="E80" s="17">
-        <v>15115</v>
+        <v>4032</v>
       </c>
       <c r="F80" s="17">
         <v>0</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-15115</v>
+        <v>-4032</v>
       </c>
       <c r="H80" s="17">
         <v>1850</v>
@@ -4098,7 +4081,7 @@
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="17">
         <v>0</v>
@@ -4121,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="17">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4168,7 +4151,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4203,7 +4186,7 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
@@ -4238,7 +4221,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4251,14 +4234,14 @@
         <v>-1090</v>
       </c>
       <c r="E85" s="17">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="F85" s="17">
         <v>0</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="H85" s="17">
         <v>0</v>
@@ -4273,17 +4256,17 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="17">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="C86" s="17">
         <v>0</v>
       </c>
       <c r="D86" s="9">
         <f t="shared" si="3"/>
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E86" s="17">
         <v>0</v>
@@ -4308,7 +4291,7 @@
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B87" s="17">
         <v>0</v>
@@ -4343,7 +4326,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4378,7 +4361,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4413,7 +4396,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4447,9 +4430,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="A91" s="11"/>
       <c r="B91" s="17">
         <v>0</v>
       </c>
@@ -4461,14 +4442,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F91" s="17">
         <v>0</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="4"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="H91" s="17">
         <v>0</v>
@@ -4483,7 +4464,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4518,7 +4499,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4553,52 +4534,52 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E94" s="17">
-        <v>3205</v>
+        <v>3550</v>
       </c>
       <c r="F94" s="17">
         <v>0</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-3205</v>
+        <v>-3550</v>
       </c>
       <c r="H94" s="17">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I94" s="17">
-        <v>0</v>
+        <v>34900</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="17">
-        <v>5680</v>
+        <v>280</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
       </c>
       <c r="D95" s="9">
         <f t="shared" si="3"/>
-        <v>-5680</v>
+        <v>-280</v>
       </c>
       <c r="E95" s="17">
         <v>1500</v>
@@ -4623,7 +4604,7 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B96" s="17">
         <v>0</v>
@@ -4639,11 +4620,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="17">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4658,7 +4639,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4693,7 +4674,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
@@ -4706,29 +4687,29 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="F98" s="17">
         <v>4100</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>3900</v>
+        <v>400</v>
       </c>
       <c r="H98" s="17">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="I98" s="17">
         <v>958</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>813</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
@@ -4763,7 +4744,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4798,7 +4779,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="17">
         <v>8000</v>
@@ -4833,7 +4814,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4868,7 +4849,7 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="17">
         <v>500</v>
@@ -4881,14 +4862,14 @@
         <v>237983</v>
       </c>
       <c r="E103" s="17">
-        <v>4083</v>
+        <v>4283</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-4083</v>
+        <v>-4283</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4903,7 +4884,7 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="17">
         <v>1600</v>
@@ -4916,14 +4897,14 @@
         <v>-1600</v>
       </c>
       <c r="E104" s="17">
-        <v>7352</v>
+        <v>7346</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-7352</v>
+        <v>-7346</v>
       </c>
       <c r="H104" s="17">
         <v>0</v>
@@ -4938,7 +4919,7 @@
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4973,7 +4954,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -5008,7 +4989,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -5043,7 +5024,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5078,7 +5059,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5113,7 +5094,7 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B110" s="17">
         <v>200</v>
@@ -5148,17 +5129,17 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B111" s="17">
-        <v>225</v>
+        <v>60000</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-225</v>
+        <v>-60000</v>
       </c>
       <c r="E111" s="17">
         <v>0</v>
@@ -5183,7 +5164,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5218,7 +5199,7 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B113" s="17">
         <v>0</v>
@@ -5253,7 +5234,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5288,7 +5269,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5323,7 +5304,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5336,14 +5317,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="F116" s="17">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5358,17 +5339,17 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" s="17">
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>135000</v>
+        <v>134000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>135000</v>
+        <v>134000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5393,7 +5374,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5428,17 +5409,17 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" s="17">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C119" s="17">
         <v>0</v>
       </c>
       <c r="D119" s="9">
         <f t="shared" si="3"/>
-        <v>-400</v>
+        <v>-150</v>
       </c>
       <c r="E119" s="17">
         <v>2000</v>
@@ -5463,17 +5444,17 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C120" s="17">
         <v>25000</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="E120" s="17">
         <v>0</v>
@@ -5498,7 +5479,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5533,7 +5514,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5568,7 +5549,7 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B123" s="17">
         <v>4218</v>
@@ -5581,14 +5562,14 @@
         <v>-4218</v>
       </c>
       <c r="E123" s="17">
-        <v>3168</v>
+        <v>768</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-3168</v>
+        <v>-768</v>
       </c>
       <c r="H123" s="17">
         <v>0</v>
@@ -5603,7 +5584,7 @@
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B124" s="17">
         <v>14678</v>
@@ -5616,14 +5597,14 @@
         <v>-13918</v>
       </c>
       <c r="E124" s="17">
-        <v>1303</v>
+        <v>903</v>
       </c>
       <c r="F124" s="17">
         <v>0</v>
       </c>
       <c r="G124" s="9">
         <f t="shared" si="4"/>
-        <v>-1303</v>
+        <v>-903</v>
       </c>
       <c r="H124" s="17">
         <v>810</v>
@@ -5638,7 +5619,7 @@
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5673,7 +5654,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5708,7 +5689,7 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B127" s="17">
         <v>0</v>
@@ -5721,29 +5702,29 @@
         <v>0</v>
       </c>
       <c r="E127" s="17">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="F127" s="17">
         <v>0</v>
       </c>
       <c r="G127" s="9">
         <f t="shared" si="4"/>
-        <v>-1152</v>
+        <v>0</v>
       </c>
       <c r="H127" s="17">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I127" s="17">
         <v>0</v>
       </c>
       <c r="J127" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="17">
         <v>2500</v>
@@ -5778,17 +5759,17 @@
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="17">
         <v>3900</v>
       </c>
       <c r="C129" s="17">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D129" s="9">
         <f t="shared" si="3"/>
-        <v>-3900</v>
+        <v>-3350</v>
       </c>
       <c r="E129" s="17">
         <v>0</v>
@@ -5813,7 +5794,7 @@
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5848,7 +5829,7 @@
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5857,7 +5838,7 @@
         <v>200</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" ref="D131:D154" si="6">C131-B131</f>
+        <f t="shared" ref="D131:D156" si="6">C131-B131</f>
         <v>-200</v>
       </c>
       <c r="E131" s="17">
@@ -5867,7 +5848,7 @@
         <v>100</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" ref="G131:G154" si="7">F131-E131</f>
+        <f t="shared" ref="G131:G156" si="7">F131-E131</f>
         <v>0</v>
       </c>
       <c r="H131" s="17">
@@ -5877,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="J131" s="9">
-        <f t="shared" ref="J131:J154" si="8">I131-H131</f>
+        <f t="shared" ref="J131:J156" si="8">I131-H131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B132" s="17">
         <v>0</v>
@@ -5918,27 +5899,27 @@
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B133" s="17">
-        <v>15019</v>
+        <v>15119</v>
       </c>
       <c r="C133" s="17">
-        <v>27906</v>
+        <v>22806</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>12887</v>
+        <v>7687</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
       </c>
       <c r="F133" s="17">
-        <v>0</v>
+        <v>16750</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16750</v>
       </c>
       <c r="H133" s="17">
         <v>0</v>
@@ -5953,7 +5934,7 @@
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -5987,18 +5968,16 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="A135" s="4"/>
       <c r="B135" s="17">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="C135" s="17">
         <v>0</v>
       </c>
       <c r="D135" s="9">
         <f t="shared" si="6"/>
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="E135" s="17">
         <v>0</v>
@@ -6023,7 +6002,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6058,7 +6037,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6093,7 +6072,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6106,14 +6085,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>5180</v>
+        <v>7980</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>24820</v>
+        <v>22020</v>
       </c>
       <c r="H138" s="17">
         <v>2000</v>
@@ -6127,9 +6106,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="A139" s="14"/>
       <c r="B139" s="17">
         <v>0</v>
       </c>
@@ -6163,7 +6140,7 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B140" s="17">
         <v>297</v>
@@ -6198,27 +6175,27 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B141" s="17">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="E141" s="17">
-        <v>35975</v>
+        <v>4685</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-35975</v>
+        <v>-4685</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6233,7 +6210,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6268,27 +6245,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B143" s="17">
-        <v>3405</v>
+        <v>2685</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-3405</v>
+        <v>-2685</v>
       </c>
       <c r="E143" s="17">
-        <v>2430</v>
+        <v>4329</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-2430</v>
+        <v>-4329</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6303,7 +6280,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6338,7 +6315,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6373,7 +6350,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6408,17 +6385,17 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B147" s="17">
         <v>9600</v>
       </c>
       <c r="C147" s="17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D147" s="9">
         <f t="shared" si="6"/>
-        <v>-9600</v>
+        <v>-8100</v>
       </c>
       <c r="E147" s="17">
         <v>42334</v>
@@ -6443,7 +6420,7 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B148" s="17">
         <v>9000</v>
@@ -6478,27 +6455,27 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B149" s="17">
-        <v>1532</v>
+        <v>0</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="9">
         <f t="shared" si="6"/>
-        <v>-1532</v>
+        <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F149" s="17">
         <v>27000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6513,7 +6490,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B150" s="17">
         <v>1000</v>
@@ -6548,7 +6525,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6583,7 +6560,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6619,7 +6596,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B153" s="17">
         <v>0</v>
@@ -6632,14 +6609,14 @@
         <v>0</v>
       </c>
       <c r="E153" s="17">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F153" s="17">
         <v>0</v>
       </c>
       <c r="G153" s="9">
         <f t="shared" si="7"/>
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="H153" s="17">
         <v>0</v>
@@ -6654,28 +6631,26 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="A154" s="14"/>
       <c r="B154" s="17">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="C154" s="17">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="E154" s="17">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F154" s="17">
         <v>0</v>
       </c>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="H154" s="17">
         <v>0</v>
@@ -6689,7 +6664,74 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="17">
+        <v>100</v>
+      </c>
+      <c r="C155" s="17">
+        <v>0</v>
+      </c>
+      <c r="D155" s="9">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="E155" s="17">
+        <v>39</v>
+      </c>
+      <c r="F155" s="17">
+        <v>0</v>
+      </c>
+      <c r="G155" s="9">
+        <f t="shared" si="7"/>
+        <v>-39</v>
+      </c>
+      <c r="H155" s="17">
+        <v>0</v>
+      </c>
+      <c r="I155" s="17">
+        <v>0</v>
+      </c>
+      <c r="J155" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="17">
+        <v>0</v>
+      </c>
+      <c r="C156" s="17">
+        <v>0</v>
+      </c>
+      <c r="D156" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E156" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F156" s="17">
+        <v>0</v>
+      </c>
+      <c r="G156" s="9">
+        <f t="shared" si="7"/>
+        <v>-50000</v>
+      </c>
+      <c r="H156" s="17">
+        <v>0</v>
+      </c>
+      <c r="I156" s="17">
+        <v>0</v>
+      </c>
+      <c r="J156" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6700,10 +6742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6719,19 +6761,19 @@
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -6753,10 +6795,10 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B4" s="19">
-        <v>-970</v>
+        <v>-1820</v>
       </c>
       <c r="C4" s="19">
         <v>-1655</v>
@@ -6781,7 +6823,7 @@
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
@@ -6868,10 +6910,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="19">
-        <v>-41099</v>
+        <v>-3179</v>
       </c>
       <c r="C12" s="19">
-        <v>-20445</v>
+        <v>-29453</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6907,7 +6949,7 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="19">
         <v>-380</v>
@@ -6941,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <v>-1200</v>
+        <v>-2300</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -6963,7 +7005,7 @@
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="19">
         <v>0</v>
@@ -7005,10 +7047,10 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="19">
-        <v>-690</v>
+        <v>-890</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -7033,13 +7075,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B24" s="19">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C24" s="19">
-        <v>13622</v>
+        <v>700</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7109,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <v>4320</v>
+        <v>6720</v>
       </c>
       <c r="D29" s="19">
         <v>0</v>
@@ -7123,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <v>3788</v>
+        <v>1088</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -7159,16 +7201,16 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-307891</v>
+        <v>-155073</v>
       </c>
       <c r="D33" s="19">
-        <v>-10621</v>
+        <v>-4101</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7176,10 +7218,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="19">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="C34" s="19">
-        <v>-200</v>
+        <v>4400</v>
       </c>
       <c r="D34" s="19">
         <v>10000</v>
@@ -7215,13 +7257,13 @@
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B37" s="19">
         <v>-150</v>
       </c>
       <c r="C37" s="19">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7271,13 +7313,13 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B41" s="19">
         <v>-130</v>
       </c>
       <c r="C41" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
@@ -7285,7 +7327,7 @@
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -7299,13 +7341,13 @@
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="19">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C43" s="19">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D43" s="19">
         <v>0</v>
@@ -7327,13 +7369,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="19">
-        <v>-1300</v>
+        <v>-132782</v>
       </c>
       <c r="C45" s="19">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7341,13 +7383,13 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
       </c>
       <c r="C46" s="19">
-        <v>111100</v>
+        <v>-10000</v>
       </c>
       <c r="D46" s="19">
         <v>0</v>
@@ -7369,13 +7411,13 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>-40000</v>
+        <v>8700</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
@@ -7428,10 +7470,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="19">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="C52" s="19">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="D52" s="19">
         <v>0</v>
@@ -7439,7 +7481,7 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B53" s="19">
         <v>0</v>
@@ -7459,7 +7501,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7467,7 +7509,7 @@
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" s="19">
         <v>-200</v>
@@ -7509,13 +7551,13 @@
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B58" s="19">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="C58" s="19">
-        <v>0</v>
+        <v>-18393</v>
       </c>
       <c r="D58" s="19">
         <v>0</v>
@@ -7523,22 +7565,24 @@
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="19">
         <v>-1362</v>
       </c>
       <c r="C59" s="19">
-        <v>-7800</v>
+        <v>-7480</v>
       </c>
       <c r="D59" s="19">
         <v>6162</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="B60" s="19">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="C60" s="19">
         <v>0</v>
@@ -7549,7 +7593,7 @@
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="19">
         <v>0</v>
@@ -7563,7 +7607,7 @@
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B62" s="19">
         <v>-1000</v>
@@ -7577,13 +7621,13 @@
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="19">
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-8485</v>
+        <v>-7025</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7591,7 +7635,7 @@
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="19">
         <v>-4220</v>
@@ -7605,7 +7649,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="19">
         <v>-600</v>
@@ -7619,7 +7663,7 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="19">
         <v>0</v>
@@ -7633,7 +7677,7 @@
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="19">
         <v>0</v>
@@ -7647,7 +7691,7 @@
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="19">
         <v>0</v>
@@ -7661,10 +7705,10 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B69" s="19">
-        <v>-200</v>
+        <v>-5152</v>
       </c>
       <c r="C69" s="19">
         <v>0</v>
@@ -7675,13 +7719,13 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B70" s="19">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="C70" s="19">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D70" s="19">
         <v>0</v>
@@ -7689,7 +7733,7 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="19">
         <v>-700</v>
@@ -7703,7 +7747,7 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="19">
         <v>0</v>
@@ -7717,10 +7761,10 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="19">
-        <v>-6270</v>
+        <v>-4270</v>
       </c>
       <c r="C73" s="19">
         <v>0</v>
@@ -7731,7 +7775,7 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
@@ -7745,7 +7789,7 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="19">
         <v>0</v>
@@ -7759,7 +7803,7 @@
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="19">
         <v>-350</v>
@@ -7773,7 +7817,7 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B77" s="19">
         <v>-6200</v>
@@ -7787,7 +7831,7 @@
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="19">
         <v>-80</v>
@@ -7801,7 +7845,7 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="19">
         <v>-400</v>
@@ -7815,7 +7859,7 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="19">
         <v>0</v>
@@ -7829,13 +7873,13 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B81" s="19">
-        <v>-4400</v>
+        <v>-2000</v>
       </c>
       <c r="C81" s="19">
-        <v>-15115</v>
+        <v>-4032</v>
       </c>
       <c r="D81" s="19">
         <v>-1850</v>
@@ -7843,7 +7887,7 @@
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="19">
         <v>0</v>
@@ -7852,12 +7896,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="19">
-        <v>0</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="19">
         <v>-1000</v>
@@ -7871,7 +7915,7 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="19">
         <v>-275</v>
@@ -7885,7 +7929,7 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="19">
         <v>0</v>
@@ -7899,13 +7943,13 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="19">
         <v>-1090</v>
       </c>
       <c r="C86" s="19">
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="D86" s="19">
         <v>0</v>
@@ -7913,10 +7957,10 @@
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="19">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C87" s="19">
         <v>0</v>
@@ -7927,7 +7971,7 @@
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" s="19">
         <v>0</v>
@@ -7941,7 +7985,7 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="19">
         <v>0</v>
@@ -7955,7 +7999,7 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="19">
         <v>-300</v>
@@ -7969,7 +8013,7 @@
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="19">
         <v>0</v>
@@ -7984,14 +8028,12 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="A92" s="11"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -7999,7 +8041,7 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="19">
         <v>0</v>
@@ -8013,7 +8055,7 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="19">
         <v>133</v>
@@ -8027,24 +8069,24 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B95" s="19">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C95" s="19">
-        <v>-3205</v>
+        <v>-3550</v>
       </c>
       <c r="D95" s="19">
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="19">
-        <v>-5680</v>
+        <v>-280</v>
       </c>
       <c r="C96" s="19">
         <v>-1500</v>
@@ -8055,13 +8097,13 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B97" s="19">
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8069,7 +8111,7 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="19">
         <v>-650</v>
@@ -8083,21 +8125,21 @@
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="19">
         <v>0</v>
       </c>
       <c r="C99" s="19">
-        <v>3900</v>
+        <v>400</v>
       </c>
       <c r="D99" s="19">
-        <v>813</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="19">
         <v>6000</v>
@@ -8111,7 +8153,7 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" s="19">
         <v>-1260</v>
@@ -8125,7 +8167,7 @@
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" s="19">
         <v>-1000</v>
@@ -8139,7 +8181,7 @@
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" s="19">
         <v>0</v>
@@ -8153,13 +8195,13 @@
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104" s="19">
         <v>237983</v>
       </c>
       <c r="C104" s="19">
-        <v>-4083</v>
+        <v>-4283</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8167,13 +8209,13 @@
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" s="19">
         <v>-1600</v>
       </c>
       <c r="C105" s="19">
-        <v>-7352</v>
+        <v>-7346</v>
       </c>
       <c r="D105" s="19">
         <v>0</v>
@@ -8181,7 +8223,7 @@
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="19">
         <v>-550</v>
@@ -8195,7 +8237,7 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" s="19">
         <v>0</v>
@@ -8209,7 +8251,7 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="19">
         <v>8000</v>
@@ -8223,7 +8265,7 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="19">
         <v>0</v>
@@ -8237,7 +8279,7 @@
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="19">
         <v>-250</v>
@@ -8251,7 +8293,7 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B111" s="19">
         <v>-200</v>
@@ -8265,10 +8307,10 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B112" s="19">
-        <v>-225</v>
+        <v>-60000</v>
       </c>
       <c r="C112" s="19">
         <v>0</v>
@@ -8279,7 +8321,7 @@
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B113" s="19">
         <v>1984</v>
@@ -8293,7 +8335,7 @@
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="19">
         <v>0</v>
@@ -8307,7 +8349,7 @@
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B115" s="19">
         <v>-150</v>
@@ -8321,7 +8363,7 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
@@ -8335,13 +8377,13 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="19">
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8349,10 +8391,10 @@
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" s="19">
-        <v>135000</v>
+        <v>134000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8363,7 +8405,7 @@
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" s="19">
         <v>-170</v>
@@ -8377,10 +8419,10 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B120" s="19">
-        <v>-400</v>
+        <v>-150</v>
       </c>
       <c r="C120" s="19">
         <v>-2000</v>
@@ -8391,10 +8433,10 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="19">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="C121" s="19">
         <v>3000</v>
@@ -8405,7 +8447,7 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" s="19">
         <v>527</v>
@@ -8419,7 +8461,7 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="19">
         <v>-2300</v>
@@ -8433,13 +8475,13 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="19">
         <v>-4218</v>
       </c>
       <c r="C124" s="19">
-        <v>-3168</v>
+        <v>-768</v>
       </c>
       <c r="D124" s="19">
         <v>0</v>
@@ -8447,13 +8489,13 @@
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B125" s="19">
         <v>-13918</v>
       </c>
       <c r="C125" s="19">
-        <v>-1303</v>
+        <v>-903</v>
       </c>
       <c r="D125" s="19">
         <v>-810</v>
@@ -8461,7 +8503,7 @@
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
@@ -8475,7 +8517,7 @@
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="19">
         <v>0</v>
@@ -8489,21 +8531,21 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B128" s="19">
         <v>0</v>
       </c>
       <c r="C128" s="19">
-        <v>-1152</v>
+        <v>0</v>
       </c>
       <c r="D128" s="19">
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="19">
         <v>-2500</v>
@@ -8517,10 +8559,10 @@
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="19">
-        <v>-3900</v>
+        <v>-3350</v>
       </c>
       <c r="C130" s="19">
         <v>0</v>
@@ -8531,7 +8573,7 @@
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B131" s="19">
         <v>-925</v>
@@ -8545,7 +8587,7 @@
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B132" s="19">
         <v>-200</v>
@@ -8559,7 +8601,7 @@
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B133" s="19">
         <v>0</v>
@@ -8573,13 +8615,13 @@
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" s="19">
-        <v>12887</v>
+        <v>7687</v>
       </c>
       <c r="C134" s="19">
-        <v>0</v>
+        <v>16750</v>
       </c>
       <c r="D134" s="19">
         <v>0</v>
@@ -8587,7 +8629,7 @@
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="19">
         <v>-830</v>
@@ -8600,11 +8642,9 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="A136" s="4"/>
       <c r="B136" s="19">
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="C136" s="19">
         <v>0</v>
@@ -8615,7 +8655,7 @@
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B137" s="19">
         <v>-1500</v>
@@ -8629,7 +8669,7 @@
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
@@ -8643,22 +8683,20 @@
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>24820</v>
+        <v>22020</v>
       </c>
       <c r="D139" s="19">
         <v>-2000</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="A140" s="14"/>
       <c r="B140" s="19">
         <v>0</v>
       </c>
@@ -8671,7 +8709,7 @@
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B141" s="19">
         <v>-297</v>
@@ -8685,13 +8723,13 @@
     </row>
     <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B142" s="19">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="C142" s="19">
-        <v>-35975</v>
+        <v>-4685</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8699,7 +8737,7 @@
     </row>
     <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B143" s="19">
         <v>0</v>
@@ -8713,21 +8751,21 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B144" s="19">
-        <v>-3405</v>
+        <v>-2685</v>
       </c>
       <c r="C144" s="19">
-        <v>-2430</v>
+        <v>-4329</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" s="19">
         <v>-1350</v>
@@ -8739,9 +8777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B146" s="19">
         <v>-50</v>
@@ -8753,9 +8791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="19">
         <v>0</v>
@@ -8767,12 +8805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B148" s="19">
-        <v>-9600</v>
+        <v>-8100</v>
       </c>
       <c r="C148" s="19">
         <v>-42334</v>
@@ -8781,9 +8819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B149" s="19">
         <v>561360</v>
@@ -8795,23 +8833,23 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B150" s="19">
-        <v>-1532</v>
+        <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" s="19">
         <v>-1000</v>
@@ -8823,9 +8861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B152" s="19">
         <v>0</v>
@@ -8837,9 +8875,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8851,200 +8889,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B154" s="19">
         <v>0</v>
       </c>
       <c r="C154" s="19">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="D154" s="19">
         <v>0</v>
       </c>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>132</v>
-      </c>
+    <row r="155" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
       <c r="B155" s="19">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="C155" s="19">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="D155" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" s="24" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B156" s="24">
-        <f t="shared" ref="B156:D156" si="0">SUM(B2:B155)</f>
-        <v>791292</v>
-      </c>
-      <c r="C156" s="24">
+      <c r="F155" s="20"/>
+    </row>
+    <row r="156" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="19">
+        <v>-100</v>
+      </c>
+      <c r="C156" s="19">
+        <v>-39</v>
+      </c>
+      <c r="D156" s="19">
+        <v>0</v>
+      </c>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="157" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="19">
+        <v>0</v>
+      </c>
+      <c r="C157" s="19">
+        <v>-50000</v>
+      </c>
+      <c r="D157" s="19">
+        <v>0</v>
+      </c>
+      <c r="F157" s="20"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="29"/>
+      <c r="F159" s="20"/>
+    </row>
+    <row r="160" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="24">
+        <f t="shared" ref="B161:D161" si="0">SUM(B2:B160)</f>
+        <v>610975</v>
+      </c>
+      <c r="C161" s="24">
         <f t="shared" si="0"/>
-        <v>-355981</v>
-      </c>
-      <c r="D156" s="24">
+        <v>-315958</v>
+      </c>
+      <c r="D161" s="24">
         <f t="shared" si="0"/>
-        <v>-2465</v>
-      </c>
-      <c r="E156" s="24">
-        <f t="shared" ref="E156:F156" si="1">SUM(E2:E155)</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="24">
+        <v>37581</v>
+      </c>
+      <c r="E161" s="24">
+        <f t="shared" ref="E161:F161" si="1">SUM(E2:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
-      <c r="B157" s="19" t="s">
+    <row r="162" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="D162" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="E162" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E157" s="19" t="s">
+      <c r="F162" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F157" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G157" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25" t="s">
+      <c r="G162" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+    </row>
+    <row r="165" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165" s="28"/>
+      <c r="D165" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C160" s="28"/>
-      <c r="D160" s="25" t="s">
+      <c r="E165" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E160" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B161" s="19">
-        <v>13090</v>
-      </c>
-      <c r="C161" s="28"/>
-      <c r="D161" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E161" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="G161" s="19"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B162" s="19">
-        <v>457274</v>
-      </c>
-      <c r="C162" s="28"/>
-      <c r="D162" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E162" s="20">
-        <v>0.71</v>
-      </c>
-      <c r="G162" s="19"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B163" s="19">
-        <v>15660</v>
-      </c>
-      <c r="C163" s="28"/>
-      <c r="D163" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E163" s="19">
-        <v>0.115</v>
-      </c>
-      <c r="F163" s="33">
-        <v>32.173913043399999</v>
-      </c>
-      <c r="G163" s="19"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B164" s="19">
-        <v>3335</v>
-      </c>
-      <c r="C164" s="28"/>
-      <c r="D164" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E164" s="19">
-        <v>0.185</v>
-      </c>
-      <c r="F164" s="33">
-        <v>3.83783783783</v>
-      </c>
-      <c r="G164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B165" s="19">
-        <v>13008</v>
-      </c>
-      <c r="C165" s="28"/>
-      <c r="D165" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E165" s="20">
-        <v>1.08</v>
-      </c>
-      <c r="G165" s="19"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" s="19">
+        <v>-55923</v>
+      </c>
+      <c r="C166" s="28"/>
+      <c r="D166" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E166" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="G166" s="19"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" s="19">
+        <v>541979</v>
+      </c>
+      <c r="C167" s="28"/>
+      <c r="D167" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E167" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="G167" s="19"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" s="19">
+        <v>-32240</v>
+      </c>
+      <c r="C168" s="28"/>
+      <c r="D168" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" s="19">
+        <v>0.115</v>
+      </c>
+      <c r="F168" s="33">
+        <v>32.173913043399999</v>
+      </c>
+      <c r="G168" s="19"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B169" s="19">
+        <v>20315</v>
+      </c>
+      <c r="C169" s="28"/>
+      <c r="D169" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B166" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B170" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
+      <c r="E169" s="19">
+        <v>0.185</v>
+      </c>
+      <c r="F169" s="33">
+        <v>3.83783783783</v>
+      </c>
+      <c r="G169" s="19"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B170" s="19">
+        <v>35163</v>
+      </c>
+      <c r="C170" s="28"/>
+      <c r="D170" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E170" s="20">
+        <v>1.08</v>
+      </c>
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" s="19">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B175" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="E175:F175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70250CF-FAAF-4275-84D1-66676CC090FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F21B0-0319-4830-87CA-CEC6C0672115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{5679D130-E15B-4367-BCAE-F99D71C2AB8A}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{0D1A741C-4663-4A78-91E5-CA747D5F82C4}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -71,18 +71,6 @@
     <t>ايجار 2024</t>
   </si>
   <si>
-    <t>ثمن رووف عمارة البحر</t>
-  </si>
-  <si>
-    <t>شقه الدور الثاني</t>
-  </si>
-  <si>
-    <t>الروف أبو رمضان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرق الروف شبابيك </t>
-  </si>
-  <si>
     <t>أبو رامي الزعيم</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t xml:space="preserve">باسل الحداد </t>
   </si>
   <si>
-    <t>تشطيب المكاتب</t>
-  </si>
-  <si>
     <t>خضر الشوا80000</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>فكة</t>
   </si>
   <si>
-    <t>استثمار - حبيب</t>
-  </si>
-  <si>
     <t>نجلاء ابو سيدو</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>مصطفى ابو سيدو</t>
   </si>
   <si>
-    <t>أرباح دهب</t>
-  </si>
-  <si>
     <t>العجلة محامي</t>
   </si>
   <si>
@@ -203,12 +182,6 @@
     <t>أحمد خليل</t>
   </si>
   <si>
-    <t>ارباح ستثمار كابيتل مول العشي</t>
-  </si>
-  <si>
-    <t>أرباح حسابات كامل</t>
-  </si>
-  <si>
     <t>أيهاب الريس</t>
   </si>
   <si>
@@ -248,9 +221,6 @@
     <t>حوالات أبو الشوبكي</t>
   </si>
   <si>
-    <t>ثمن 3 مكاتب من اليازجي</t>
-  </si>
-  <si>
     <t xml:space="preserve">فايز السعدي </t>
   </si>
   <si>
@@ -390,9 +360,6 @@
   </si>
   <si>
     <t>محمود كاظم</t>
-  </si>
-  <si>
-    <t>مكاتب البدرساوي</t>
   </si>
   <si>
     <t xml:space="preserve">برنامج المحاسبة للشركة  </t>
@@ -489,9 +456,6 @@
     <t>تجميع كهرباء</t>
   </si>
   <si>
-    <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -516,18 +480,12 @@
     <t>زكاه سنه 2024</t>
   </si>
   <si>
-    <t>سامي الحلو</t>
-  </si>
-  <si>
     <t>حسين سالم</t>
   </si>
   <si>
     <t>سلام عليوة شيكات</t>
   </si>
   <si>
-    <t>أبو طلعت الحساينة</t>
-  </si>
-  <si>
     <t>محمد فورة</t>
   </si>
   <si>
@@ -540,46 +498,55 @@
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
-    <t>شـحاتة بـنك</t>
-  </si>
-  <si>
-    <t>أم علي الهبلة</t>
-  </si>
-  <si>
-    <t>ارباح استثمار ابوعلي</t>
-  </si>
-  <si>
-    <t>أبو أنس يورو + بو أنس سيدو</t>
-  </si>
-  <si>
     <t>عبد الله المصري</t>
   </si>
   <si>
-    <t>ابو طويله 3</t>
-  </si>
-  <si>
     <t>الرنتيسي</t>
   </si>
   <si>
-    <t>أبو تامر عزااام</t>
-  </si>
-  <si>
     <t>أنور بنك القاهرة عمان</t>
   </si>
   <si>
-    <t>شركة الأدوية أستثمار</t>
-  </si>
-  <si>
     <t>الميدنا حمزة محاسب</t>
   </si>
   <si>
-    <t>ساري فرودة + صوان</t>
-  </si>
-  <si>
-    <t>أبو علي طويلة 3</t>
-  </si>
-  <si>
-    <t>صندوق2 صندوق احمد صندوق2 احمـــــــد</t>
+    <t>حسام صالحة الأشقر</t>
+  </si>
+  <si>
+    <t>صندوق الاستثمار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو أنس يورو </t>
+  </si>
+  <si>
+    <t>منير علي حسن</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>عياد</t>
+  </si>
+  <si>
+    <t>شنط مدارس + مكيف للمحل</t>
+  </si>
+  <si>
+    <t>ابو فادي ابو سيدو</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو علي طويلة </t>
+  </si>
+  <si>
+    <t>شـحاتة بــنك</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق 2 صندوق احــــــــــمــــــــــــــد</t>
+  </si>
+  <si>
+    <t>حمود الحايك</t>
   </si>
 </sst>
 </file>
@@ -872,7 +839,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,6 +905,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1282,15 +1252,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J156" sqref="J2:J156"/>
+      <selection activeCell="J2" sqref="J2:J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
     <col min="7" max="7" width="9" style="6"/>
     <col min="10" max="11" width="9" style="6"/>
@@ -1299,19 +1269,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1351,17 +1321,17 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B3" s="17">
-        <v>1820</v>
+        <v>3250</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-1820</v>
+        <v>-3250</v>
       </c>
       <c r="E3" s="17">
         <v>1655</v>
@@ -1421,7 +1391,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1456,27 +1426,27 @@
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B6" s="17">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-61000</v>
       </c>
       <c r="E6" s="17">
-        <v>155665</v>
+        <v>0</v>
       </c>
       <c r="F6" s="17">
-        <v>155665</v>
+        <v>22662</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22662</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -1490,9 +1460,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="17">
         <v>0</v>
       </c>
@@ -1504,14 +1472,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <v>98176</v>
+        <v>0</v>
       </c>
       <c r="F7" s="17">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
@@ -1525,9 +1493,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="17">
         <v>0</v>
       </c>
@@ -1542,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="17">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="17">
         <v>0</v>
@@ -1560,9 +1526,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="17">
         <v>0</v>
       </c>
@@ -1574,14 +1538,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="17">
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="F9" s="17">
-        <v>2825</v>
+        <v>0</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="H9" s="17">
         <v>0</v>
@@ -1596,7 +1560,7 @@
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" s="17">
         <v>200</v>
@@ -1631,27 +1595,27 @@
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>3179</v>
+        <v>96605</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-3179</v>
+        <v>-96605</v>
       </c>
       <c r="E11" s="17">
-        <v>29453</v>
+        <v>1225</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-29453</v>
+        <v>-1225</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1666,7 +1630,7 @@
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" s="17">
         <v>0</v>
@@ -1701,7 +1665,7 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="17">
         <v>30</v>
@@ -1736,7 +1700,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1771,7 +1735,7 @@
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="17">
         <v>0</v>
@@ -1806,7 +1770,7 @@
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="17">
         <v>0</v>
@@ -1819,14 +1783,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-2300</v>
+        <v>-1300</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -1841,7 +1805,7 @@
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="17">
         <v>800</v>
@@ -1875,9 +1839,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="17">
         <v>0</v>
       </c>
@@ -1911,7 +1873,7 @@
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" s="17">
         <v>0</v>
@@ -1946,7 +1908,7 @@
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="17">
         <v>0</v>
@@ -1981,17 +1943,17 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B21" s="17">
-        <v>890</v>
+        <v>1170</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-890</v>
+        <v>-1170</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2016,7 +1978,7 @@
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="17">
         <v>0</v>
@@ -2050,9 +2012,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="17">
         <v>0</v>
       </c>
@@ -2067,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="17">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2086,7 +2046,7 @@
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24" s="17">
         <v>385</v>
@@ -2121,7 +2081,7 @@
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -2156,7 +2116,7 @@
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B26" s="17">
         <v>1500</v>
@@ -2191,7 +2151,7 @@
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -2225,9 +2185,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="17">
         <v>0</v>
       </c>
@@ -2239,14 +2197,14 @@
         <v>0</v>
       </c>
       <c r="E28" s="17">
-        <v>7750</v>
+        <v>0</v>
       </c>
       <c r="F28" s="17">
-        <v>14470</v>
+        <v>0</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="H28" s="17">
         <v>0</v>
@@ -2261,7 +2219,7 @@
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -2296,7 +2254,7 @@
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B30" s="17">
         <v>285</v>
@@ -2331,7 +2289,7 @@
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B31" s="17">
         <v>44785</v>
@@ -2366,7 +2324,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2379,64 +2337,64 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>155073</v>
+        <v>105450</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-155073</v>
+        <v>-105450</v>
       </c>
       <c r="H32" s="17">
-        <v>4101</v>
+        <v>1601</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-4101</v>
+        <v>-1601</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B33" s="17">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="C33" s="17">
-        <v>0</v>
+        <v>52550</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>40550</v>
       </c>
       <c r="E33" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F33" s="17">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>4400</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
       </c>
       <c r="I33" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B34" s="17">
         <v>2156</v>
@@ -2471,7 +2429,7 @@
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B35" s="17">
         <v>3500</v>
@@ -2506,27 +2464,27 @@
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B36" s="17">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-378</v>
       </c>
       <c r="E36" s="17">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2541,7 +2499,7 @@
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B37" s="17">
         <v>0</v>
@@ -2576,7 +2534,7 @@
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" s="17">
         <v>0</v>
@@ -2611,7 +2569,7 @@
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B39" s="17">
         <v>1000</v>
@@ -2646,7 +2604,7 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B40" s="17">
         <v>130</v>
@@ -2659,14 +2617,14 @@
         <v>-130</v>
       </c>
       <c r="E40" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40" s="17">
         <v>0</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H40" s="17">
         <v>0</v>
@@ -2681,7 +2639,7 @@
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B41" s="17">
         <v>0</v>
@@ -2716,17 +2674,17 @@
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B42" s="17">
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2750,9 +2708,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="17">
         <v>0</v>
       </c>
@@ -2767,11 +2723,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="17">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="H43" s="17">
         <v>0</v>
@@ -2786,27 +2742,27 @@
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B44" s="17">
-        <v>132782</v>
+        <v>96670</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-132782</v>
+        <v>-96670</v>
       </c>
       <c r="E44" s="17">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2821,7 +2777,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2856,7 +2812,7 @@
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B46" s="17">
         <v>0</v>
@@ -2891,7 +2847,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -2904,14 +2860,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>6300</v>
+        <v>10700</v>
       </c>
       <c r="F47" s="17">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>8700</v>
+        <v>9800</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -2926,7 +2882,7 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B48" s="17">
         <v>800</v>
@@ -2961,7 +2917,7 @@
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B49" s="17">
         <v>0</v>
@@ -2996,7 +2952,7 @@
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -3031,17 +2987,17 @@
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B51" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E51" s="17">
         <v>900</v>
@@ -3065,9 +3021,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>137</v>
-      </c>
+      <c r="A52" s="32"/>
       <c r="B52" s="17">
         <v>0</v>
       </c>
@@ -3079,14 +3033,14 @@
         <v>0</v>
       </c>
       <c r="E52" s="17">
-        <v>28790</v>
+        <v>0</v>
       </c>
       <c r="F52" s="17">
-        <v>30324</v>
+        <v>0</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="H52" s="17">
         <v>0</v>
@@ -3101,7 +3055,7 @@
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B53" s="17">
         <v>5000</v>
@@ -3136,7 +3090,7 @@
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3171,7 +3125,7 @@
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B55" s="17">
         <v>0</v>
@@ -3205,9 +3159,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A56" s="11"/>
       <c r="B56" s="17">
         <v>0</v>
       </c>
@@ -3222,46 +3174,44 @@
         <v>0</v>
       </c>
       <c r="F56" s="17">
-        <v>29013</v>
+        <v>0</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>29013</v>
+        <v>0</v>
       </c>
       <c r="H56" s="17">
         <v>0</v>
       </c>
       <c r="I56" s="17">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="17">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="E57" s="17">
-        <v>26589</v>
+        <v>0</v>
       </c>
       <c r="F57" s="17">
-        <v>8196</v>
+        <v>0</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>-18393</v>
+        <v>0</v>
       </c>
       <c r="H57" s="17">
         <v>0</v>
@@ -3276,62 +3226,62 @@
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B58" s="17">
-        <v>1512</v>
+        <v>2012</v>
       </c>
       <c r="C58" s="17">
         <v>150</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>-1362</v>
+        <v>-1862</v>
       </c>
       <c r="E58" s="17">
-        <v>9222</v>
+        <v>9434</v>
       </c>
       <c r="F58" s="17">
         <v>1742</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>-7480</v>
+        <v>-7692</v>
       </c>
       <c r="H58" s="17">
-        <v>1938</v>
+        <v>2338</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>6162</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B59" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C59" s="17">
         <v>0</v>
       </c>
       <c r="D59" s="9">
         <f t="shared" si="0"/>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="E59" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F59" s="17">
         <v>0</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H59" s="17">
         <v>0</v>
@@ -3346,17 +3296,17 @@
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
       </c>
       <c r="C60" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E60" s="17">
         <v>940</v>
@@ -3381,7 +3331,7 @@
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B61" s="17">
         <v>1000</v>
@@ -3416,7 +3366,7 @@
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3429,14 +3379,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>61950</v>
+        <v>61975</v>
       </c>
       <c r="F62" s="17">
-        <v>54925</v>
+        <v>57465</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-7025</v>
+        <v>-4510</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3451,7 +3401,7 @@
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3486,7 +3436,7 @@
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B64" s="17">
         <v>600</v>
@@ -3521,7 +3471,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3555,9 +3505,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="A66" s="11"/>
       <c r="B66" s="17">
         <v>0</v>
       </c>
@@ -3572,11 +3520,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="17">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H66" s="17">
         <v>0</v>
@@ -3590,9 +3538,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="A67" s="14"/>
       <c r="B67" s="17">
         <v>0</v>
       </c>
@@ -3607,11 +3553,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H67" s="17">
         <v>0</v>
@@ -3626,27 +3572,27 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B68" s="17">
-        <v>5152</v>
+        <v>0</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>-5152</v>
+        <v>0</v>
       </c>
       <c r="E68" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F68" s="17">
         <v>0</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H68" s="17">
         <v>0</v>
@@ -3661,7 +3607,7 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B69" s="17">
         <v>0</v>
@@ -3696,7 +3642,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3731,7 +3677,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3766,7 +3712,7 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
@@ -3801,7 +3747,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3836,7 +3782,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3871,7 +3817,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3906,7 +3852,7 @@
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B76" s="17">
         <v>6200</v>
@@ -3941,7 +3887,7 @@
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3976,7 +3922,7 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
@@ -4011,7 +3957,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4046,42 +3992,42 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B80" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C80" s="17">
         <v>0</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E80" s="17">
-        <v>4032</v>
+        <v>0</v>
       </c>
       <c r="F80" s="17">
         <v>0</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-4032</v>
+        <v>0</v>
       </c>
       <c r="H80" s="17">
-        <v>1850</v>
+        <v>310</v>
       </c>
       <c r="I80" s="17">
         <v>0</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="5"/>
-        <v>-1850</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B81" s="17">
         <v>0</v>
@@ -4104,19 +4050,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="17">
-        <v>104</v>
+        <v>1500</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="5"/>
-        <v>-104</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4151,7 +4097,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4186,7 +4132,7 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
@@ -4221,7 +4167,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4234,14 +4180,14 @@
         <v>-1090</v>
       </c>
       <c r="E85" s="17">
-        <v>15700</v>
+        <v>0</v>
       </c>
       <c r="F85" s="17">
         <v>0</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="4"/>
-        <v>-15700</v>
+        <v>0</v>
       </c>
       <c r="H85" s="17">
         <v>0</v>
@@ -4256,7 +4202,7 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B86" s="17">
         <v>0</v>
@@ -4279,20 +4225,18 @@
         <v>0</v>
       </c>
       <c r="H86" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I86" s="17">
         <v>0</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="A87" s="11"/>
       <c r="B87" s="17">
         <v>0</v>
       </c>
@@ -4304,14 +4248,14 @@
         <v>0</v>
       </c>
       <c r="E87" s="17">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="4"/>
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="H87" s="17">
         <v>0</v>
@@ -4326,7 +4270,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4361,7 +4305,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4396,7 +4340,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4430,16 +4374,18 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="B91" s="17">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="17">
         <v>0</v>
@@ -4464,7 +4410,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4499,7 +4445,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4534,17 +4480,17 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="E94" s="17">
         <v>3550</v>
@@ -4557,19 +4503,19 @@
         <v>-3550</v>
       </c>
       <c r="H94" s="17">
-        <v>900</v>
+        <v>11850</v>
       </c>
       <c r="I94" s="17">
-        <v>34900</v>
+        <v>39900</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="5"/>
-        <v>34000</v>
+        <v>28050</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B95" s="17">
         <v>280</v>
@@ -4604,7 +4550,7 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B96" s="17">
         <v>0</v>
@@ -4617,14 +4563,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="17">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F96" s="17">
         <v>0</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4639,7 +4585,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4674,7 +4620,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
@@ -4687,29 +4633,29 @@
         <v>0</v>
       </c>
       <c r="E98" s="17">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="F98" s="17">
         <v>4100</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H98" s="17">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="I98" s="17">
         <v>958</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>633</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
@@ -4725,11 +4671,11 @@
         <v>30000</v>
       </c>
       <c r="F99" s="17">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="4"/>
-        <v>-28360</v>
+        <v>-30000</v>
       </c>
       <c r="H99" s="17">
         <v>0</v>
@@ -4744,7 +4690,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4779,7 +4725,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B101" s="17">
         <v>8000</v>
@@ -4792,14 +4738,14 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="17">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="F101" s="17">
         <v>0</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="4"/>
-        <v>-650</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="17">
         <v>40</v>
@@ -4814,7 +4760,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4849,7 +4795,7 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B103" s="17">
         <v>500</v>
@@ -4862,14 +4808,14 @@
         <v>237983</v>
       </c>
       <c r="E103" s="17">
-        <v>4283</v>
+        <v>23283</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-4283</v>
+        <v>-23283</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4884,7 +4830,7 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B104" s="17">
         <v>1600</v>
@@ -4897,29 +4843,29 @@
         <v>-1600</v>
       </c>
       <c r="E104" s="17">
-        <v>7346</v>
+        <v>5495</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-7346</v>
+        <v>-5495</v>
       </c>
       <c r="H104" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I104" s="17">
         <v>0</v>
       </c>
       <c r="J104" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4954,7 +4900,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -4989,7 +4935,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -5024,7 +4970,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5059,7 +5005,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5094,27 +5040,27 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B110" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
       <c r="D110" s="9">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E110" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F110" s="17">
         <v>0</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H110" s="17">
         <v>0</v>
@@ -5128,18 +5074,16 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="A111" s="11"/>
       <c r="B111" s="17">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="E111" s="17">
         <v>0</v>
@@ -5164,7 +5108,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5199,7 +5143,7 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B113" s="17">
         <v>0</v>
@@ -5234,7 +5178,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5269,7 +5213,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5285,11 +5229,11 @@
         <v>0</v>
       </c>
       <c r="F115" s="17">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H115" s="17">
         <v>0</v>
@@ -5304,7 +5248,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5320,11 +5264,11 @@
         <v>0</v>
       </c>
       <c r="F116" s="17">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5339,17 +5283,17 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B117" s="17">
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>134000</v>
+        <v>135000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>134000</v>
+        <v>135000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5374,7 +5318,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5409,7 +5353,7 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B119" s="17">
         <v>150</v>
@@ -5444,17 +5388,17 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B120" s="17">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="C120" s="17">
         <v>25000</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="E120" s="17">
         <v>0</v>
@@ -5479,7 +5423,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5514,7 +5458,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5549,42 +5493,42 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B123" s="17">
-        <v>4218</v>
+        <v>4618</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-4218</v>
+        <v>-4618</v>
       </c>
       <c r="E123" s="17">
-        <v>768</v>
+        <v>1368</v>
       </c>
       <c r="F123" s="17">
         <v>0</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-768</v>
+        <v>-1368</v>
       </c>
       <c r="H123" s="17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I123" s="17">
         <v>0</v>
       </c>
       <c r="J123" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B124" s="17">
         <v>14678</v>
@@ -5597,14 +5541,14 @@
         <v>-13918</v>
       </c>
       <c r="E124" s="17">
-        <v>903</v>
+        <v>800</v>
       </c>
       <c r="F124" s="17">
         <v>0</v>
       </c>
       <c r="G124" s="9">
         <f t="shared" si="4"/>
-        <v>-903</v>
+        <v>-800</v>
       </c>
       <c r="H124" s="17">
         <v>810</v>
@@ -5619,7 +5563,7 @@
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5635,11 +5579,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>9631</v>
+        <v>16231</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>9631</v>
+        <v>16231</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5654,7 +5598,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5689,7 +5633,7 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B127" s="17">
         <v>0</v>
@@ -5724,7 +5668,7 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B128" s="17">
         <v>2500</v>
@@ -5759,7 +5703,7 @@
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B129" s="17">
         <v>3900</v>
@@ -5794,7 +5738,7 @@
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5829,7 +5773,7 @@
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5864,7 +5808,7 @@
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B132" s="17">
         <v>0</v>
@@ -5899,27 +5843,27 @@
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B133" s="17">
-        <v>15119</v>
+        <v>15000</v>
       </c>
       <c r="C133" s="17">
-        <v>22806</v>
+        <v>0</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>7687</v>
+        <v>-15000</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
       </c>
       <c r="F133" s="17">
-        <v>16750</v>
+        <v>15000</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="7"/>
-        <v>16750</v>
+        <v>15000</v>
       </c>
       <c r="H133" s="17">
         <v>0</v>
@@ -5934,7 +5878,7 @@
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -6002,7 +5946,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6037,7 +5981,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6072,7 +6016,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6085,14 +6029,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>7980</v>
+        <v>9630</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>22020</v>
+        <v>20370</v>
       </c>
       <c r="H138" s="17">
         <v>2000</v>
@@ -6106,16 +6050,18 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="B139" s="17">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E139" s="17">
         <v>0</v>
@@ -6140,7 +6086,7 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B140" s="17">
         <v>297</v>
@@ -6175,27 +6121,27 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B141" s="17">
-        <v>35000</v>
+        <v>500</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>-35000</v>
+        <v>-500</v>
       </c>
       <c r="E141" s="17">
-        <v>4685</v>
+        <v>5628</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-4685</v>
+        <v>-5628</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6210,7 +6156,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6248,24 +6194,24 @@
         <v>154</v>
       </c>
       <c r="B143" s="17">
-        <v>2685</v>
+        <v>2500</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-2685</v>
+        <v>-2500</v>
       </c>
       <c r="E143" s="17">
-        <v>4329</v>
+        <v>8000</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-4329</v>
+        <v>-8000</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6280,7 +6226,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6315,7 +6261,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6350,7 +6296,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6385,17 +6331,17 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B147" s="17">
         <v>9600</v>
       </c>
       <c r="C147" s="17">
-        <v>1500</v>
+        <v>11500</v>
       </c>
       <c r="D147" s="9">
         <f t="shared" si="6"/>
-        <v>-8100</v>
+        <v>1900</v>
       </c>
       <c r="E147" s="17">
         <v>42334</v>
@@ -6420,17 +6366,17 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B148" s="17">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>561360</v>
+        <v>555360</v>
       </c>
       <c r="E148" s="17">
         <v>7000</v>
@@ -6455,7 +6401,7 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6468,14 +6414,14 @@
         <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>4000</v>
+        <v>27500</v>
       </c>
       <c r="F149" s="17">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>23000</v>
+        <v>1500</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6489,28 +6435,26 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A150" s="14"/>
       <c r="B150" s="17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C150" s="17">
         <v>0</v>
       </c>
       <c r="D150" s="9">
         <f t="shared" si="6"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E150" s="17">
-        <v>77500</v>
+        <v>0</v>
       </c>
       <c r="F150" s="17">
         <v>0</v>
       </c>
       <c r="G150" s="9">
         <f t="shared" si="7"/>
-        <v>-77500</v>
+        <v>0</v>
       </c>
       <c r="H150" s="17">
         <v>0</v>
@@ -6525,7 +6469,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6560,7 +6504,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6596,27 +6540,27 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B153" s="17">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="C153" s="17">
         <v>0</v>
       </c>
       <c r="D153" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1850</v>
       </c>
       <c r="E153" s="17">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F153" s="17">
         <v>0</v>
       </c>
       <c r="G153" s="9">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="H153" s="17">
         <v>0</v>
@@ -6631,7 +6575,9 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="B154" s="17">
         <v>0</v>
       </c>
@@ -6643,14 +6589,14 @@
         <v>0</v>
       </c>
       <c r="E154" s="17">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F154" s="17">
         <v>0</v>
       </c>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="H154" s="17">
         <v>0</v>
@@ -6665,27 +6611,27 @@
     </row>
     <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B155" s="17">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C155" s="17">
         <v>0</v>
       </c>
       <c r="D155" s="9">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E155" s="17">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F155" s="17">
         <v>0</v>
       </c>
       <c r="G155" s="9">
         <f t="shared" si="7"/>
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="H155" s="17">
         <v>0</v>
@@ -6700,27 +6646,27 @@
     </row>
     <row r="156" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B156" s="17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C156" s="17">
         <v>0</v>
       </c>
       <c r="D156" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E156" s="17">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="F156" s="17">
         <v>0</v>
       </c>
       <c r="G156" s="9">
         <f t="shared" si="7"/>
-        <v>-50000</v>
+        <v>-300</v>
       </c>
       <c r="H156" s="17">
         <v>0</v>
@@ -6732,6 +6678,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="157" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6742,10 +6691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6761,19 +6710,19 @@
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -6795,10 +6744,10 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B4" s="19">
-        <v>-1820</v>
+        <v>-3250</v>
       </c>
       <c r="C4" s="19">
         <v>-1655</v>
@@ -6823,7 +6772,7 @@
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
@@ -6837,55 +6786,49 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B7" s="19">
-        <v>0</v>
+        <v>-61000</v>
       </c>
       <c r="C7" s="19">
-        <v>0</v>
+        <v>22662</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="19">
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="19">
         <v>0</v>
       </c>
       <c r="C9" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="19">
         <v>0</v>
       </c>
       <c r="C10" s="19">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -6893,7 +6836,7 @@
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" s="19">
         <v>-200</v>
@@ -6907,13 +6850,13 @@
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-3179</v>
+        <v>-96605</v>
       </c>
       <c r="C12" s="19">
-        <v>-29453</v>
+        <v>-1225</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6921,7 +6864,7 @@
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -6935,7 +6878,7 @@
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="19">
         <v>-30</v>
@@ -6949,7 +6892,7 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B15" s="19">
         <v>-380</v>
@@ -6963,7 +6906,7 @@
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="19">
         <v>0</v>
@@ -6977,13 +6920,13 @@
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <v>-2300</v>
+        <v>-1300</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -6991,7 +6934,7 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="19">
         <v>0</v>
@@ -7004,9 +6947,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="19">
         <v>0</v>
       </c>
@@ -7019,7 +6960,7 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
@@ -7033,7 +6974,7 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="19">
         <v>0</v>
@@ -7047,10 +6988,10 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B22" s="19">
-        <v>-890</v>
+        <v>-1170</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -7061,7 +7002,7 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" s="19">
         <v>0</v>
@@ -7074,14 +7015,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="19">
         <v>0</v>
       </c>
       <c r="C24" s="19">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7089,7 +7028,7 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25" s="19">
         <v>-385</v>
@@ -7103,7 +7042,7 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" s="19">
         <v>0</v>
@@ -7117,7 +7056,7 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B27" s="19">
         <v>-1500</v>
@@ -7131,7 +7070,7 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -7144,14 +7083,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="19">
         <v>0</v>
       </c>
       <c r="C29" s="19">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="D29" s="19">
         <v>0</v>
@@ -7159,7 +7096,7 @@
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B30" s="19">
         <v>0</v>
@@ -7173,7 +7110,7 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B31" s="19">
         <v>-285</v>
@@ -7187,7 +7124,7 @@
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B32" s="19">
         <v>-44785</v>
@@ -7201,35 +7138,35 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-155073</v>
+        <v>-105450</v>
       </c>
       <c r="D33" s="19">
-        <v>-4101</v>
+        <v>-1601</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B34" s="19">
-        <v>-1000</v>
+        <v>40550</v>
       </c>
       <c r="C34" s="19">
-        <v>4400</v>
+        <v>-500</v>
       </c>
       <c r="D34" s="19">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B35" s="19">
         <v>-1156</v>
@@ -7243,7 +7180,7 @@
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B36" s="19">
         <v>-650</v>
@@ -7257,13 +7194,13 @@
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B37" s="19">
-        <v>-150</v>
+        <v>-378</v>
       </c>
       <c r="C37" s="19">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7271,7 +7208,7 @@
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -7285,7 +7222,7 @@
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B39" s="19">
         <v>0</v>
@@ -7299,7 +7236,7 @@
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B40" s="19">
         <v>-1000</v>
@@ -7313,13 +7250,13 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B41" s="19">
         <v>-130</v>
       </c>
       <c r="C41" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
@@ -7327,7 +7264,7 @@
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -7341,10 +7278,10 @@
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B43" s="19">
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -7354,14 +7291,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A44" s="11"/>
       <c r="B44" s="19">
         <v>0</v>
       </c>
       <c r="C44" s="19">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="D44" s="19">
         <v>0</v>
@@ -7369,13 +7304,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B45" s="19">
-        <v>-132782</v>
+        <v>-96670</v>
       </c>
       <c r="C45" s="19">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7383,7 +7318,7 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
@@ -7397,7 +7332,7 @@
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B47" s="19">
         <v>0</v>
@@ -7411,13 +7346,13 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>8700</v>
+        <v>9800</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
@@ -7425,7 +7360,7 @@
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B49" s="19">
         <v>-800</v>
@@ -7439,7 +7374,7 @@
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B50" s="19">
         <v>0</v>
@@ -7453,7 +7388,7 @@
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>
@@ -7467,10 +7402,10 @@
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B52" s="19">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="C52" s="19">
         <v>-200</v>
@@ -7480,14 +7415,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>137</v>
-      </c>
+      <c r="A53" s="32"/>
       <c r="B53" s="19">
         <v>0</v>
       </c>
       <c r="C53" s="19">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="D53" s="19">
         <v>0</v>
@@ -7495,7 +7428,7 @@
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B54" s="19">
         <v>-5000</v>
@@ -7509,7 +7442,7 @@
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B55" s="19">
         <v>-200</v>
@@ -7523,7 +7456,7 @@
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B56" s="19">
         <v>50</v>
@@ -7536,28 +7469,24 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="19">
         <v>0</v>
       </c>
       <c r="C57" s="19">
-        <v>29013</v>
+        <v>0</v>
       </c>
       <c r="D57" s="19">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="19">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C58" s="19">
-        <v>-18393</v>
+        <v>0</v>
       </c>
       <c r="D58" s="19">
         <v>0</v>
@@ -7565,27 +7494,27 @@
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B59" s="19">
-        <v>-1362</v>
+        <v>-1862</v>
       </c>
       <c r="C59" s="19">
-        <v>-7480</v>
+        <v>-7692</v>
       </c>
       <c r="D59" s="19">
-        <v>6162</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B60" s="19">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="C60" s="19">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D60" s="19">
         <v>0</v>
@@ -7593,10 +7522,10 @@
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B61" s="19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C61" s="19">
         <v>-280</v>
@@ -7607,7 +7536,7 @@
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B62" s="19">
         <v>-1000</v>
@@ -7621,13 +7550,13 @@
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B63" s="19">
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-7025</v>
+        <v>-4510</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7635,7 +7564,7 @@
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B64" s="19">
         <v>-4220</v>
@@ -7649,7 +7578,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B65" s="19">
         <v>-600</v>
@@ -7663,7 +7592,7 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B66" s="19">
         <v>0</v>
@@ -7676,28 +7605,24 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="A67" s="11"/>
       <c r="B67" s="19">
         <v>0</v>
       </c>
       <c r="C67" s="19">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D67" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="A68" s="14"/>
       <c r="B68" s="19">
         <v>0</v>
       </c>
       <c r="C68" s="19">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D68" s="19">
         <v>0</v>
@@ -7705,13 +7630,13 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B69" s="19">
-        <v>-5152</v>
+        <v>0</v>
       </c>
       <c r="C69" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D69" s="19">
         <v>0</v>
@@ -7719,7 +7644,7 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B70" s="19">
         <v>0</v>
@@ -7733,7 +7658,7 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B71" s="19">
         <v>-700</v>
@@ -7747,7 +7672,7 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B72" s="19">
         <v>0</v>
@@ -7761,7 +7686,7 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B73" s="19">
         <v>-4270</v>
@@ -7775,7 +7700,7 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
@@ -7789,7 +7714,7 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B75" s="19">
         <v>0</v>
@@ -7803,7 +7728,7 @@
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B76" s="19">
         <v>-350</v>
@@ -7817,7 +7742,7 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B77" s="19">
         <v>-6200</v>
@@ -7831,7 +7756,7 @@
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B78" s="19">
         <v>-80</v>
@@ -7845,7 +7770,7 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B79" s="19">
         <v>-400</v>
@@ -7859,7 +7784,7 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B80" s="19">
         <v>0</v>
@@ -7873,21 +7798,21 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B81" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C81" s="19">
-        <v>-4032</v>
+        <v>0</v>
       </c>
       <c r="D81" s="19">
-        <v>-1850</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B82" s="19">
         <v>0</v>
@@ -7896,12 +7821,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="19">
-        <v>-104</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B83" s="19">
         <v>-1000</v>
@@ -7915,7 +7840,7 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B84" s="19">
         <v>-275</v>
@@ -7929,7 +7854,7 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B85" s="19">
         <v>0</v>
@@ -7943,13 +7868,13 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B86" s="19">
         <v>-1090</v>
       </c>
       <c r="C86" s="19">
-        <v>-15700</v>
+        <v>0</v>
       </c>
       <c r="D86" s="19">
         <v>0</v>
@@ -7957,7 +7882,7 @@
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
@@ -7966,18 +7891,16 @@
         <v>0</v>
       </c>
       <c r="D87" s="19">
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="A88" s="11"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
       <c r="C88" s="19">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="D88" s="19">
         <v>0</v>
@@ -7985,7 +7908,7 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B89" s="19">
         <v>0</v>
@@ -7999,7 +7922,7 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B90" s="19">
         <v>-300</v>
@@ -8013,7 +7936,7 @@
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B91" s="19">
         <v>0</v>
@@ -8028,9 +7951,11 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="B92" s="19">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="C92" s="19">
         <v>0</v>
@@ -8041,7 +7966,7 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B93" s="19">
         <v>0</v>
@@ -8055,7 +7980,7 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B94" s="19">
         <v>133</v>
@@ -8069,21 +7994,21 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B95" s="19">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="C95" s="19">
         <v>-3550</v>
       </c>
       <c r="D95" s="19">
-        <v>34000</v>
+        <v>28050</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B96" s="19">
         <v>-280</v>
@@ -8097,13 +8022,13 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B97" s="19">
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8111,7 +8036,7 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B98" s="19">
         <v>-650</v>
@@ -8125,27 +8050,27 @@
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B99" s="19">
         <v>0</v>
       </c>
       <c r="C99" s="19">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D99" s="19">
-        <v>633</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B100" s="19">
         <v>6000</v>
       </c>
       <c r="C100" s="19">
-        <v>-28360</v>
+        <v>-30000</v>
       </c>
       <c r="D100" s="19">
         <v>0</v>
@@ -8153,7 +8078,7 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B101" s="19">
         <v>-1260</v>
@@ -8167,13 +8092,13 @@
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B102" s="19">
         <v>-1000</v>
       </c>
       <c r="C102" s="19">
-        <v>-650</v>
+        <v>-100</v>
       </c>
       <c r="D102" s="19">
         <v>-40</v>
@@ -8181,7 +8106,7 @@
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B103" s="19">
         <v>0</v>
@@ -8195,13 +8120,13 @@
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B104" s="19">
         <v>237983</v>
       </c>
       <c r="C104" s="19">
-        <v>-4283</v>
+        <v>-23283</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8209,21 +8134,21 @@
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B105" s="19">
         <v>-1600</v>
       </c>
       <c r="C105" s="19">
-        <v>-7346</v>
+        <v>-5495</v>
       </c>
       <c r="D105" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B106" s="19">
         <v>-550</v>
@@ -8237,7 +8162,7 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B107" s="19">
         <v>0</v>
@@ -8251,7 +8176,7 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B108" s="19">
         <v>8000</v>
@@ -8265,7 +8190,7 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B109" s="19">
         <v>0</v>
@@ -8279,7 +8204,7 @@
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B110" s="19">
         <v>-250</v>
@@ -8293,24 +8218,22 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B111" s="19">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C111" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D111" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="A112" s="11"/>
       <c r="B112" s="19">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="C112" s="19">
         <v>0</v>
@@ -8321,7 +8244,7 @@
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B113" s="19">
         <v>1984</v>
@@ -8335,7 +8258,7 @@
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B114" s="19">
         <v>0</v>
@@ -8349,7 +8272,7 @@
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B115" s="19">
         <v>-150</v>
@@ -8363,13 +8286,13 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
@@ -8377,13 +8300,13 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B117" s="19">
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8391,10 +8314,10 @@
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B118" s="19">
-        <v>134000</v>
+        <v>135000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8405,7 +8328,7 @@
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B119" s="19">
         <v>-170</v>
@@ -8419,7 +8342,7 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B120" s="19">
         <v>-150</v>
@@ -8433,10 +8356,10 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B121" s="19">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="C121" s="19">
         <v>3000</v>
@@ -8447,7 +8370,7 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B122" s="19">
         <v>527</v>
@@ -8461,7 +8384,7 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B123" s="19">
         <v>-2300</v>
@@ -8475,27 +8398,27 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B124" s="19">
-        <v>-4218</v>
+        <v>-4618</v>
       </c>
       <c r="C124" s="19">
-        <v>-768</v>
+        <v>-1368</v>
       </c>
       <c r="D124" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B125" s="19">
         <v>-13918</v>
       </c>
       <c r="C125" s="19">
-        <v>-903</v>
+        <v>-800</v>
       </c>
       <c r="D125" s="19">
         <v>-810</v>
@@ -8503,13 +8426,13 @@
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
       </c>
       <c r="C126" s="19">
-        <v>9631</v>
+        <v>16231</v>
       </c>
       <c r="D126" s="19">
         <v>0</v>
@@ -8517,7 +8440,7 @@
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B127" s="19">
         <v>0</v>
@@ -8531,7 +8454,7 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B128" s="19">
         <v>0</v>
@@ -8545,7 +8468,7 @@
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B129" s="19">
         <v>-2500</v>
@@ -8559,7 +8482,7 @@
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B130" s="19">
         <v>-3350</v>
@@ -8573,7 +8496,7 @@
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B131" s="19">
         <v>-925</v>
@@ -8587,7 +8510,7 @@
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B132" s="19">
         <v>-200</v>
@@ -8601,7 +8524,7 @@
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B133" s="19">
         <v>0</v>
@@ -8615,13 +8538,13 @@
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B134" s="19">
-        <v>7687</v>
+        <v>-15000</v>
       </c>
       <c r="C134" s="19">
-        <v>16750</v>
+        <v>15000</v>
       </c>
       <c r="D134" s="19">
         <v>0</v>
@@ -8629,7 +8552,7 @@
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B135" s="19">
         <v>-830</v>
@@ -8655,7 +8578,7 @@
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B137" s="19">
         <v>-1500</v>
@@ -8669,7 +8592,7 @@
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
@@ -8683,22 +8606,24 @@
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>22020</v>
+        <v>20370</v>
       </c>
       <c r="D139" s="19">
         <v>-2000</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="36" t="s">
+        <v>150</v>
+      </c>
       <c r="B140" s="19">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="C140" s="19">
         <v>0</v>
@@ -8709,7 +8634,7 @@
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B141" s="19">
         <v>-297</v>
@@ -8723,13 +8648,13 @@
     </row>
     <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B142" s="19">
-        <v>-35000</v>
+        <v>-500</v>
       </c>
       <c r="C142" s="19">
-        <v>-4685</v>
+        <v>-5628</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8737,7 +8662,7 @@
     </row>
     <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B143" s="19">
         <v>0</v>
@@ -8754,18 +8679,18 @@
         <v>154</v>
       </c>
       <c r="B144" s="19">
-        <v>-2685</v>
+        <v>-2500</v>
       </c>
       <c r="C144" s="19">
-        <v>-4329</v>
+        <v>-8000</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B145" s="19">
         <v>-1350</v>
@@ -8777,9 +8702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B146" s="19">
         <v>-50</v>
@@ -8791,9 +8716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B147" s="19">
         <v>0</v>
@@ -8805,12 +8730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B148" s="19">
-        <v>-8100</v>
+        <v>1900</v>
       </c>
       <c r="C148" s="19">
         <v>-42334</v>
@@ -8819,12 +8744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B149" s="19">
-        <v>561360</v>
+        <v>555360</v>
       </c>
       <c r="C149" s="19">
         <v>-7000</v>
@@ -8833,37 +8758,35 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B150" s="19">
         <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>23000</v>
+        <v>1500</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
-        <v>109</v>
-      </c>
+    <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
       <c r="B151" s="19">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C151" s="19">
-        <v>-77500</v>
+        <v>0</v>
       </c>
       <c r="D151" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B152" s="19">
         <v>0</v>
@@ -8875,9 +8798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8889,241 +8812,234 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B154" s="19">
-        <v>0</v>
+        <v>-1850</v>
       </c>
       <c r="C154" s="19">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="D154" s="19">
         <v>0</v>
       </c>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+    <row r="155" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="B155" s="19">
         <v>0</v>
       </c>
       <c r="C155" s="19">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="D155" s="19">
         <v>0</v>
       </c>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B156" s="19">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="C156" s="19">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="D156" s="19">
         <v>0</v>
       </c>
       <c r="F156" s="20"/>
     </row>
-    <row r="157" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B157" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C157" s="19">
-        <v>-50000</v>
+        <v>-300</v>
       </c>
       <c r="D157" s="19">
         <v>0</v>
       </c>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158"/>
-      <c r="F158" s="20"/>
-    </row>
-    <row r="159" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
-      <c r="F159" s="20"/>
-    </row>
-    <row r="160" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-    </row>
-    <row r="161" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="24">
-        <f t="shared" ref="B161:D161" si="0">SUM(B2:B160)</f>
-        <v>610975</v>
-      </c>
-      <c r="C161" s="24">
-        <f t="shared" si="0"/>
-        <v>-315958</v>
-      </c>
-      <c r="D161" s="24">
-        <f t="shared" si="0"/>
-        <v>37581</v>
-      </c>
-      <c r="E161" s="24">
-        <f t="shared" ref="E161:F161" si="1">SUM(E2:E160)</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="19" t="s">
+    <row r="158" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="24">
+        <f>SUM(B2:B157)</f>
+        <v>608793</v>
+      </c>
+      <c r="C158" s="24">
+        <f>SUM(C2:C157)</f>
+        <v>-198624</v>
+      </c>
+      <c r="D158" s="24">
+        <f>SUM(D2:D157)</f>
+        <v>22695</v>
+      </c>
+      <c r="E158" s="24">
+        <f>SUM(E2:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="F158" s="24">
+        <f>SUM(F2:F157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+    </row>
+    <row r="162" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="28"/>
+      <c r="D162" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="19">
+        <v>-605</v>
+      </c>
+      <c r="C163" s="28"/>
+      <c r="D163" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E163" s="20">
+        <v>3.78</v>
+      </c>
+      <c r="G163" s="19"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="B164" s="19">
+        <v>482608</v>
+      </c>
+      <c r="C164" s="28"/>
+      <c r="D164" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="E164" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="G164" s="19"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" s="19">
+        <v>3257</v>
+      </c>
+      <c r="C165" s="28"/>
+      <c r="D165" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E162" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A163"/>
-    </row>
-    <row r="165" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C165" s="28"/>
-      <c r="D165" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>120</v>
-      </c>
+      <c r="E165" s="19">
+        <v>0.115</v>
+      </c>
+      <c r="F165" s="33">
+        <v>32.8695652173</v>
+      </c>
+      <c r="G165" s="19"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B166" s="19">
-        <v>-55923</v>
+        <v>49100</v>
       </c>
       <c r="C166" s="28"/>
       <c r="D166" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E166" s="20">
-        <v>3.7</v>
+        <v>115</v>
+      </c>
+      <c r="E166" s="19">
+        <v>0.185</v>
+      </c>
+      <c r="F166" s="33">
+        <v>3.83783783783</v>
       </c>
       <c r="G166" s="19"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B167" s="19">
-        <v>541979</v>
+        <v>1483</v>
       </c>
       <c r="C167" s="28"/>
       <c r="D167" s="27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E167" s="20">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="G167" s="19"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B168" s="19">
-        <v>-32240</v>
-      </c>
-      <c r="C168" s="28"/>
-      <c r="D168" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E168" s="19">
-        <v>0.115</v>
-      </c>
-      <c r="F168" s="33">
-        <v>32.173913043399999</v>
-      </c>
-      <c r="G168" s="19"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B169" s="19">
-        <v>20315</v>
-      </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E169" s="19">
-        <v>0.185</v>
-      </c>
-      <c r="F169" s="33">
-        <v>3.83783783783</v>
-      </c>
-      <c r="G169" s="19"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B170" s="19">
-        <v>35163</v>
-      </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E170" s="20">
-        <v>1.08</v>
-      </c>
-      <c r="G170" s="19"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B171" s="19">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B175" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B172" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="35"/>
+      <c r="F172" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:F172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F21B0-0319-4830-87CA-CEC6C0672115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D345B-6661-43EB-8764-BE701798B5FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{0D1A741C-4663-4A78-91E5-CA747D5F82C4}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{C5C9DB98-C76C-451C-96DD-87F3A0736AD2}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -522,31 +522,43 @@
     <t>منير علي حسن</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
-    <t>عياد</t>
-  </si>
-  <si>
-    <t>شنط مدارس + مكيف للمحل</t>
-  </si>
-  <si>
-    <t>ابو فادي ابو سيدو</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أبو علي طويلة </t>
-  </si>
-  <si>
-    <t>شـحاتة بــنك</t>
-  </si>
-  <si>
-    <t>صندوق2 صندوق احمد صندوق 2 صندوق احــــــــــمــــــــــــــد</t>
-  </si>
-  <si>
     <t>حمود الحايك</t>
+  </si>
+  <si>
+    <t>أشرف أبو سيدو</t>
+  </si>
+  <si>
+    <t>نور عبيد</t>
+  </si>
+  <si>
+    <t>اياد الريس</t>
+  </si>
+  <si>
+    <t>سرحان قويدر</t>
+  </si>
+  <si>
+    <t>عياد دخان</t>
+  </si>
+  <si>
+    <t>جهاد الريس</t>
+  </si>
+  <si>
+    <t>يوسف الغمري</t>
+  </si>
+  <si>
+    <t>أبو علي طويلة</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>الست أبو عمرة</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق 2 صندوق  احــــــــــــــــــــــــــــــمــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنك</t>
   </si>
 </sst>
 </file>
@@ -900,14 +912,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1255,7 +1267,7 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J156"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,24 +1336,24 @@
         <v>133</v>
       </c>
       <c r="B3" s="17">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-3250</v>
+        <v>0</v>
       </c>
       <c r="E3" s="17">
-        <v>1655</v>
+        <v>2925</v>
       </c>
       <c r="F3" s="17">
         <v>0</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-1655</v>
+        <v>-2925</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
@@ -1442,11 +1454,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="17">
-        <v>22662</v>
+        <v>42339</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>22662</v>
+        <v>42339</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -1598,24 +1610,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>96605</v>
+        <v>112460</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-96605</v>
+        <v>-112460</v>
       </c>
       <c r="E11" s="17">
-        <v>1225</v>
+        <v>8275</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-1225</v>
+        <v>-8275</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1643,14 +1655,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="17">
-        <v>12150</v>
+        <v>0</v>
       </c>
       <c r="F12" s="17">
-        <v>11850</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H12" s="17">
         <v>0</v>
@@ -1681,11 +1693,11 @@
         <v>27329</v>
       </c>
       <c r="F13" s="17">
-        <v>6555</v>
+        <v>14555</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>-20774</v>
+        <v>-12774</v>
       </c>
       <c r="H13" s="17">
         <v>0</v>
@@ -1783,14 +1795,14 @@
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>-1300</v>
+        <v>-150</v>
       </c>
       <c r="H16" s="17">
         <v>0</v>
@@ -1911,24 +1923,24 @@
         <v>10</v>
       </c>
       <c r="B20" s="17">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="C20" s="17">
         <v>0</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2850</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>28435</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28435</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -1946,24 +1958,24 @@
         <v>121</v>
       </c>
       <c r="B21" s="17">
-        <v>1170</v>
+        <v>1355</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-1170</v>
+        <v>-1355</v>
       </c>
       <c r="E21" s="17">
-        <v>0</v>
+        <v>8044</v>
       </c>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15756</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -2185,16 +2197,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="B28" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
@@ -2232,14 +2246,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>8912</v>
+        <v>13565</v>
       </c>
       <c r="F29" s="17">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>1088</v>
+        <v>1435</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2324,7 +2338,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2337,24 +2351,24 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>105450</v>
+        <v>150004</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-105450</v>
+        <v>-150004</v>
       </c>
       <c r="H32" s="17">
-        <v>1601</v>
+        <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>0</v>
+        <v>18522</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>-1601</v>
+        <v>18522</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2362,24 +2376,24 @@
         <v>19</v>
       </c>
       <c r="B33" s="17">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="C33" s="17">
         <v>52550</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>40550</v>
+        <v>32550</v>
       </c>
       <c r="E33" s="17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F33" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>-500</v>
+        <v>10000</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
@@ -2607,14 +2621,14 @@
         <v>146</v>
       </c>
       <c r="B40" s="17">
-        <v>130</v>
+        <v>1570</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
-        <v>-130</v>
+        <v>-1570</v>
       </c>
       <c r="E40" s="17">
         <v>0</v>
@@ -2680,11 +2694,11 @@
         <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2745,14 +2759,14 @@
         <v>33</v>
       </c>
       <c r="B44" s="17">
-        <v>96670</v>
+        <v>58970</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-96670</v>
+        <v>-58970</v>
       </c>
       <c r="E44" s="17">
         <v>0</v>
@@ -2860,14 +2874,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>10700</v>
+        <v>12700</v>
       </c>
       <c r="F47" s="17">
         <v>20500</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>9800</v>
+        <v>7800</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -3071,11 +3085,11 @@
         <v>25100</v>
       </c>
       <c r="F53" s="17">
-        <v>70100</v>
+        <v>90100</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3159,7 +3173,9 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="B56" s="17">
         <v>0</v>
       </c>
@@ -3192,16 +3208,18 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B57" s="17">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E57" s="17">
         <v>0</v>
@@ -3379,14 +3397,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>61975</v>
+        <v>62161</v>
       </c>
       <c r="F62" s="17">
         <v>57465</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-4510</v>
+        <v>-4696</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3487,11 +3505,11 @@
         <v>300</v>
       </c>
       <c r="F65" s="17">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>18700</v>
       </c>
       <c r="H65" s="17">
         <v>0</v>
@@ -3505,16 +3523,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="B66" s="17">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="C66" s="17">
         <v>0</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
@@ -3527,18 +3547,20 @@
         <v>0</v>
       </c>
       <c r="H66" s="17">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I66" s="17">
         <v>0</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="B67" s="17">
         <v>0</v>
       </c>
@@ -3550,14 +3572,14 @@
         <v>0</v>
       </c>
       <c r="E67" s="17">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F67" s="17">
         <v>0</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="H67" s="17">
         <v>0</v>
@@ -3575,24 +3597,24 @@
         <v>141</v>
       </c>
       <c r="B68" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E68" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F68" s="17">
         <v>0</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H68" s="17">
         <v>0</v>
@@ -3865,14 +3887,14 @@
         <v>-6200</v>
       </c>
       <c r="E76" s="17">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F76" s="17">
         <v>0</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="H76" s="17">
         <v>750</v>
@@ -3998,31 +4020,31 @@
         <v>0</v>
       </c>
       <c r="C80" s="17">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E80" s="17">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="F80" s="17">
-        <v>0</v>
+        <v>4486</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15914</v>
       </c>
       <c r="H80" s="17">
-        <v>310</v>
+        <v>1810</v>
       </c>
       <c r="I80" s="17">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="5"/>
-        <v>-310</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -4030,14 +4052,14 @@
         <v>47</v>
       </c>
       <c r="B81" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C81" s="17">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4225,27 +4247,29 @@
         <v>0</v>
       </c>
       <c r="H86" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I86" s="17">
         <v>0</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="5"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="B87" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C87" s="17">
         <v>0</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E87" s="17">
         <v>0</v>
@@ -4374,18 +4398,16 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A91" s="11"/>
       <c r="B91" s="17">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
       </c>
       <c r="D91" s="9">
         <f t="shared" si="3"/>
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="17">
         <v>0</v>
@@ -4486,31 +4508,31 @@
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="E94" s="17">
-        <v>3550</v>
+        <v>3750</v>
       </c>
       <c r="F94" s="17">
         <v>0</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-3550</v>
+        <v>-3750</v>
       </c>
       <c r="H94" s="17">
-        <v>11850</v>
+        <v>11900</v>
       </c>
       <c r="I94" s="17">
         <v>39900</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="5"/>
-        <v>28050</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -4553,24 +4575,24 @@
         <v>144</v>
       </c>
       <c r="B96" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E96" s="17">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F96" s="17">
         <v>0</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>-1200</v>
+        <v>-2200</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4643,14 +4665,14 @@
         <v>100</v>
       </c>
       <c r="H98" s="17">
-        <v>425</v>
+        <v>558</v>
       </c>
       <c r="I98" s="17">
         <v>958</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>533</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -4808,14 +4830,14 @@
         <v>237983</v>
       </c>
       <c r="E103" s="17">
-        <v>23283</v>
+        <v>23083</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-23283</v>
+        <v>-23083</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4833,24 +4855,24 @@
         <v>66</v>
       </c>
       <c r="B104" s="17">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="C104" s="17">
         <v>0</v>
       </c>
       <c r="D104" s="9">
         <f t="shared" si="3"/>
-        <v>-1600</v>
+        <v>-200</v>
       </c>
       <c r="E104" s="17">
-        <v>5495</v>
+        <v>8679</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-5495</v>
+        <v>-8679</v>
       </c>
       <c r="H104" s="17">
         <v>100</v>
@@ -5040,27 +5062,27 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B110" s="17">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
       </c>
       <c r="D110" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E110" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F110" s="17">
         <v>0</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="4"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="H110" s="17">
         <v>0</v>
@@ -5074,26 +5096,28 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B111" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E111" s="17">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="F111" s="17">
         <v>0</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2250</v>
       </c>
       <c r="H111" s="17">
         <v>0</v>
@@ -5229,11 +5253,11 @@
         <v>0</v>
       </c>
       <c r="F115" s="17">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="H115" s="17">
         <v>0</v>
@@ -5261,14 +5285,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F116" s="17">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5289,11 +5313,11 @@
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>135000</v>
+        <v>140000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>135000</v>
+        <v>140000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5366,14 +5390,14 @@
         <v>-150</v>
       </c>
       <c r="E119" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F119" s="17">
         <v>0</v>
       </c>
       <c r="G119" s="9">
         <f t="shared" si="4"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17">
         <v>0</v>
@@ -5391,24 +5415,24 @@
         <v>80</v>
       </c>
       <c r="B120" s="17">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="C120" s="17">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>11500</v>
+        <v>27000</v>
       </c>
       <c r="E120" s="17">
         <v>0</v>
       </c>
       <c r="F120" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5496,24 +5520,24 @@
         <v>83</v>
       </c>
       <c r="B123" s="17">
-        <v>4618</v>
+        <v>5618</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-4618</v>
+        <v>-5618</v>
       </c>
       <c r="E123" s="17">
-        <v>1368</v>
+        <v>1768</v>
       </c>
       <c r="F123" s="17">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-1368</v>
+        <v>582</v>
       </c>
       <c r="H123" s="17">
         <v>600</v>
@@ -5579,11 +5603,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>16231</v>
+        <v>22316</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>16231</v>
+        <v>22316</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5859,11 +5883,11 @@
         <v>0</v>
       </c>
       <c r="F133" s="17">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H133" s="17">
         <v>0</v>
@@ -5912,7 +5936,9 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="B135" s="17">
         <v>0</v>
       </c>
@@ -5924,14 +5950,14 @@
         <v>0</v>
       </c>
       <c r="E135" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F135" s="17">
         <v>0</v>
       </c>
       <c r="G135" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H135" s="17">
         <v>0</v>
@@ -6029,39 +6055,37 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>9630</v>
+        <v>14876</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>20370</v>
+        <v>15124</v>
       </c>
       <c r="H138" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I138" s="17">
         <v>0</v>
       </c>
       <c r="J138" s="9">
         <f t="shared" si="8"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
-        <v>150</v>
-      </c>
+      <c r="A139" s="34"/>
       <c r="B139" s="17">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C139" s="17">
         <v>0</v>
       </c>
       <c r="D139" s="9">
         <f t="shared" si="6"/>
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="E139" s="17">
         <v>0</v>
@@ -6089,24 +6113,24 @@
         <v>136</v>
       </c>
       <c r="B140" s="17">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="C140" s="17">
         <v>0</v>
       </c>
       <c r="D140" s="9">
         <f t="shared" si="6"/>
-        <v>-297</v>
+        <v>-200</v>
       </c>
       <c r="E140" s="17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F140" s="17">
         <v>0</v>
       </c>
       <c r="G140" s="9">
         <f t="shared" si="7"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="H140" s="17">
         <v>0</v>
@@ -6134,14 +6158,14 @@
         <v>-500</v>
       </c>
       <c r="E141" s="17">
-        <v>5628</v>
+        <v>31414</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-5628</v>
+        <v>-31414</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6191,27 +6215,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B143" s="17">
-        <v>2500</v>
+        <v>2360</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-2500</v>
+        <v>-2360</v>
       </c>
       <c r="E143" s="17">
-        <v>8000</v>
+        <v>2100</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-8000</v>
+        <v>-2100</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6369,34 +6393,34 @@
         <v>98</v>
       </c>
       <c r="B148" s="17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>555360</v>
+        <v>568360</v>
       </c>
       <c r="E148" s="17">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="F148" s="17">
         <v>0</v>
       </c>
       <c r="G148" s="9">
         <f t="shared" si="7"/>
-        <v>-7000</v>
+        <v>-2000</v>
       </c>
       <c r="H148" s="17">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I148" s="17">
         <v>0</v>
       </c>
       <c r="J148" s="9">
         <f t="shared" si="8"/>
-        <v>-300</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -6414,14 +6438,14 @@
         <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>27500</v>
+        <v>28300</v>
       </c>
       <c r="F149" s="17">
         <v>29000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6435,16 +6459,18 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="B150" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C150" s="17">
         <v>0</v>
       </c>
       <c r="D150" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E150" s="17">
         <v>0</v>
@@ -6575,105 +6601,63 @@
       <c r="L153" s="18"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" s="17">
-        <v>0</v>
-      </c>
-      <c r="C154" s="17">
-        <v>0</v>
-      </c>
+      <c r="A154" s="14"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
       <c r="D154" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E154" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F154" s="17">
-        <v>0</v>
-      </c>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
       <c r="G154" s="9">
         <f t="shared" si="7"/>
-        <v>-5000</v>
-      </c>
-      <c r="H154" s="17">
-        <v>0</v>
-      </c>
-      <c r="I154" s="17">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
       <c r="J154" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" s="17">
-        <v>400</v>
-      </c>
-      <c r="C155" s="17">
-        <v>0</v>
-      </c>
+      <c r="A155" s="14"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
       <c r="D155" s="9">
         <f t="shared" si="6"/>
-        <v>-400</v>
-      </c>
-      <c r="E155" s="17">
-        <v>0</v>
-      </c>
-      <c r="F155" s="17">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
       <c r="G155" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H155" s="17">
-        <v>0</v>
-      </c>
-      <c r="I155" s="17">
-        <v>0</v>
-      </c>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
       <c r="J155" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" s="17">
-        <v>600</v>
-      </c>
-      <c r="C156" s="17">
-        <v>0</v>
-      </c>
+      <c r="A156" s="14"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
       <c r="D156" s="9">
         <f t="shared" si="6"/>
-        <v>-600</v>
-      </c>
-      <c r="E156" s="17">
-        <v>300</v>
-      </c>
-      <c r="F156" s="17">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
       <c r="G156" s="9">
         <f t="shared" si="7"/>
-        <v>-300</v>
-      </c>
-      <c r="H156" s="17">
-        <v>0</v>
-      </c>
-      <c r="I156" s="17">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
       <c r="J156" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6691,10 +6675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E165" sqref="E160:E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6747,10 +6731,10 @@
         <v>133</v>
       </c>
       <c r="B4" s="19">
-        <v>-3250</v>
+        <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>-1655</v>
+        <v>-2925</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -6792,7 +6776,7 @@
         <v>-61000</v>
       </c>
       <c r="C7" s="19">
-        <v>22662</v>
+        <v>42339</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -6853,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-96605</v>
+        <v>-112460</v>
       </c>
       <c r="C12" s="19">
-        <v>-1225</v>
+        <v>-8275</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6870,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -6884,7 +6868,7 @@
         <v>-30</v>
       </c>
       <c r="C14" s="19">
-        <v>-20774</v>
+        <v>-12774</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -6926,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="19">
-        <v>-1300</v>
+        <v>-150</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -6977,10 +6961,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="19">
-        <v>0</v>
+        <v>-2850</v>
       </c>
       <c r="C21" s="19">
-        <v>0</v>
+        <v>28435</v>
       </c>
       <c r="D21" s="19">
         <v>66</v>
@@ -6991,10 +6975,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="19">
-        <v>-1170</v>
+        <v>-1355</v>
       </c>
       <c r="C22" s="19">
-        <v>0</v>
+        <v>15756</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -7083,9 +7067,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="B29" s="19">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
@@ -7102,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <v>1088</v>
+        <v>1435</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -7138,16 +7124,16 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-105450</v>
+        <v>-150004</v>
       </c>
       <c r="D33" s="19">
-        <v>-1601</v>
+        <v>18522</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7155,10 +7141,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="19">
-        <v>40550</v>
+        <v>32550</v>
       </c>
       <c r="C34" s="19">
-        <v>-500</v>
+        <v>10000</v>
       </c>
       <c r="D34" s="19">
         <v>0</v>
@@ -7253,7 +7239,7 @@
         <v>146</v>
       </c>
       <c r="B41" s="19">
-        <v>-130</v>
+        <v>-1570</v>
       </c>
       <c r="C41" s="19">
         <v>0</v>
@@ -7281,7 +7267,7 @@
         <v>125</v>
       </c>
       <c r="B43" s="19">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -7307,7 +7293,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="19">
-        <v>-96670</v>
+        <v>-58970</v>
       </c>
       <c r="C45" s="19">
         <v>0</v>
@@ -7352,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>9800</v>
+        <v>7800</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
@@ -7434,7 +7420,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7469,7 +7455,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="B57" s="19">
         <v>0</v>
       </c>
@@ -7481,9 +7469,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="B58" s="19">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="C58" s="19">
         <v>0</v>
@@ -7556,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-4510</v>
+        <v>-4696</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7598,31 +7588,35 @@
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <v>-300</v>
+        <v>18700</v>
       </c>
       <c r="D66" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="B67" s="19">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="C67" s="19">
         <v>0</v>
       </c>
       <c r="D67" s="19">
-        <v>0</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="B68" s="19">
         <v>0</v>
       </c>
       <c r="C68" s="19">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="D68" s="19">
         <v>0</v>
@@ -7633,10 +7627,10 @@
         <v>141</v>
       </c>
       <c r="B69" s="19">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C69" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D69" s="19">
         <v>0</v>
@@ -7748,7 +7742,7 @@
         <v>-6200</v>
       </c>
       <c r="C77" s="19">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="D77" s="19">
         <v>-750</v>
@@ -7801,13 +7795,13 @@
         <v>135</v>
       </c>
       <c r="B81" s="19">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="C81" s="19">
-        <v>0</v>
+        <v>-15914</v>
       </c>
       <c r="D81" s="19">
-        <v>-310</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
@@ -7815,7 +7809,7 @@
         <v>47</v>
       </c>
       <c r="B82" s="19">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C82" s="19">
         <v>0</v>
@@ -7891,13 +7885,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="19">
         <v>-200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="19">
-        <v>0</v>
       </c>
       <c r="C88" s="19">
         <v>0</v>
@@ -7951,11 +7947,9 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A92" s="11"/>
       <c r="B92" s="19">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="C92" s="19">
         <v>0</v>
@@ -7997,13 +7991,13 @@
         <v>57</v>
       </c>
       <c r="B95" s="19">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="C95" s="19">
-        <v>-3550</v>
+        <v>-3750</v>
       </c>
       <c r="D95" s="19">
-        <v>28050</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
@@ -8025,10 +8019,10 @@
         <v>144</v>
       </c>
       <c r="B97" s="19">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C97" s="19">
-        <v>-1200</v>
+        <v>-2200</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8059,7 +8053,7 @@
         <v>100</v>
       </c>
       <c r="D99" s="19">
-        <v>533</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8126,7 +8120,7 @@
         <v>237983</v>
       </c>
       <c r="C104" s="19">
-        <v>-23283</v>
+        <v>-23083</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8137,10 +8131,10 @@
         <v>66</v>
       </c>
       <c r="B105" s="19">
-        <v>-1600</v>
+        <v>-200</v>
       </c>
       <c r="C105" s="19">
-        <v>-5495</v>
+        <v>-8679</v>
       </c>
       <c r="D105" s="19">
         <v>-100</v>
@@ -8218,25 +8212,27 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B111" s="19">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="C111" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D111" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B112" s="19">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="C112" s="19">
-        <v>0</v>
+        <v>-2250</v>
       </c>
       <c r="D112" s="19">
         <v>0</v>
@@ -8292,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
@@ -8306,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8317,7 +8313,7 @@
         <v>77</v>
       </c>
       <c r="B118" s="19">
-        <v>135000</v>
+        <v>140000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8348,7 +8344,7 @@
         <v>-150</v>
       </c>
       <c r="C120" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
@@ -8359,10 +8355,10 @@
         <v>80</v>
       </c>
       <c r="B121" s="19">
-        <v>11500</v>
+        <v>27000</v>
       </c>
       <c r="C121" s="19">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D121" s="19">
         <v>0</v>
@@ -8401,10 +8397,10 @@
         <v>83</v>
       </c>
       <c r="B124" s="19">
-        <v>-4618</v>
+        <v>-5618</v>
       </c>
       <c r="C124" s="19">
-        <v>-1368</v>
+        <v>582</v>
       </c>
       <c r="D124" s="19">
         <v>-600</v>
@@ -8432,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="19">
-        <v>16231</v>
+        <v>22316</v>
       </c>
       <c r="D126" s="19">
         <v>0</v>
@@ -8544,7 +8540,7 @@
         <v>-15000</v>
       </c>
       <c r="C134" s="19">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D134" s="19">
         <v>0</v>
@@ -8565,12 +8561,14 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="B136" s="19">
         <v>0</v>
       </c>
       <c r="C136" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D136" s="19">
         <v>0</v>
@@ -8612,18 +8610,16 @@
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>20370</v>
+        <v>15124</v>
       </c>
       <c r="D139" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="36" t="s">
-        <v>150</v>
-      </c>
+      <c r="A140" s="34"/>
       <c r="B140" s="19">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="C140" s="19">
         <v>0</v>
@@ -8637,10 +8633,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="19">
-        <v>-297</v>
+        <v>-200</v>
       </c>
       <c r="C141" s="19">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="D141" s="19">
         <v>0</v>
@@ -8654,7 +8650,7 @@
         <v>-500</v>
       </c>
       <c r="C142" s="19">
-        <v>-5628</v>
+        <v>-31414</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8676,13 +8672,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B144" s="19">
-        <v>-2500</v>
+        <v>-2360</v>
       </c>
       <c r="C144" s="19">
-        <v>-8000</v>
+        <v>-2100</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8749,13 +8745,13 @@
         <v>98</v>
       </c>
       <c r="B149" s="19">
-        <v>555360</v>
+        <v>568360</v>
       </c>
       <c r="C149" s="19">
-        <v>-7000</v>
+        <v>-2000</v>
       </c>
       <c r="D149" s="19">
-        <v>-300</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -8766,16 +8762,18 @@
         <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="B151" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C151" s="19">
         <v>0</v>
@@ -8827,219 +8825,170 @@
       </c>
       <c r="F154" s="20"/>
     </row>
-    <row r="155" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" s="19">
-        <v>0</v>
-      </c>
-      <c r="C155" s="19">
-        <v>-5000</v>
-      </c>
-      <c r="D155" s="19">
-        <v>0</v>
-      </c>
-      <c r="F155" s="20"/>
+        <v>148</v>
+      </c>
+      <c r="B155" s="24">
+        <f>SUM(B2:B154)</f>
+        <v>658235</v>
+      </c>
+      <c r="C155" s="24">
+        <f>SUM(C2:C154)</f>
+        <v>-176139</v>
+      </c>
+      <c r="D155" s="24">
+        <f>SUM(D2:D154)</f>
+        <v>44310</v>
+      </c>
+      <c r="E155" s="24">
+        <f>SUM(E2:E154)</f>
+        <v>0</v>
+      </c>
+      <c r="F155" s="24">
+        <f>SUM(F2:F154)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" s="19">
-        <v>-400</v>
-      </c>
-      <c r="C156" s="19">
-        <v>0</v>
-      </c>
-      <c r="D156" s="19">
-        <v>0</v>
-      </c>
-      <c r="F156" s="20"/>
-    </row>
-    <row r="157" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157" s="19">
-        <v>-600</v>
-      </c>
-      <c r="C157" s="19">
-        <v>-300</v>
-      </c>
-      <c r="D157" s="19">
-        <v>0</v>
-      </c>
-      <c r="F157" s="20"/>
-    </row>
-    <row r="158" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="24">
-        <f>SUM(B2:B157)</f>
-        <v>608793</v>
-      </c>
-      <c r="C158" s="24">
-        <f>SUM(C2:C157)</f>
-        <v>-198624</v>
-      </c>
-      <c r="D158" s="24">
-        <f>SUM(D2:D157)</f>
-        <v>22695</v>
-      </c>
-      <c r="E158" s="24">
-        <f>SUM(E2:E157)</f>
-        <v>0</v>
-      </c>
-      <c r="F158" s="24">
-        <f>SUM(F2:F157)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="19" t="s">
+      <c r="A156" s="14"/>
+      <c r="B156" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C156" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D156" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E159" s="19" t="s">
+      <c r="E156" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="F156" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G159" s="19" t="s">
+      <c r="G156" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-    </row>
-    <row r="162" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+    </row>
+    <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="25" t="s">
         <v>107</v>
       </c>
+      <c r="C159" s="28"/>
+      <c r="D159" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="19">
+        <v>1005034</v>
+      </c>
+      <c r="C160" s="28"/>
+      <c r="D160" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E160" s="20">
+        <v>3.78</v>
+      </c>
+      <c r="G160" s="19"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B161" s="19">
+        <v>256039</v>
+      </c>
+      <c r="C161" s="28"/>
+      <c r="D161" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E161" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="G161" s="19"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" s="19">
+        <v>-29295</v>
+      </c>
       <c r="C162" s="28"/>
-      <c r="D162" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>109</v>
-      </c>
+      <c r="D162" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="19">
+        <v>32.8695652173</v>
+      </c>
+      <c r="F162" s="33"/>
+      <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B163" s="19">
-        <v>-605</v>
+        <v>46500</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E163" s="20">
-        <v>3.78</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E163" s="19">
+        <v>3.83783783783</v>
+      </c>
+      <c r="F163" s="33"/>
       <c r="G163" s="19"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B164" s="19">
-        <v>482608</v>
+        <v>2983</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E164" s="20">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="G164" s="19"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B165" s="19">
-        <v>3257</v>
-      </c>
-      <c r="C165" s="28"/>
-      <c r="D165" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E165" s="19">
-        <v>0.115</v>
-      </c>
-      <c r="F165" s="33">
-        <v>32.8695652173</v>
-      </c>
-      <c r="G165" s="19"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B166" s="19">
-        <v>49100</v>
-      </c>
-      <c r="C166" s="28"/>
-      <c r="D166" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E166" s="19">
-        <v>0.185</v>
-      </c>
-      <c r="F166" s="33">
-        <v>3.83783783783</v>
-      </c>
-      <c r="G166" s="19"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B167" s="19">
-        <v>1483</v>
-      </c>
-      <c r="C167" s="28"/>
-      <c r="D167" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E167" s="20">
-        <v>1.08</v>
-      </c>
-      <c r="G167" s="19"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B168" s="19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B172" s="34" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B169" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="35"/>
-      <c r="F172" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="E169:F169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D345B-6661-43EB-8764-BE701798B5FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261CB5C-40E7-4293-9951-1221C04C66A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{C5C9DB98-C76C-451C-96DD-87F3A0736AD2}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{1D93C73E-7802-463B-84FA-443D13BEF3C2}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -555,10 +555,16 @@
     <t>الست أبو عمرة</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق 2 صندوق  احــــــــــــــــــــــــــــــمــــــــــــــــد</t>
-  </si>
-  <si>
     <t>شـحاتة بـنك</t>
+  </si>
+  <si>
+    <t>صندوق  (2)</t>
+  </si>
+  <si>
+    <t>شحاتة</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندوق احـــــــــــمـــــــــــــــــــــــــــــــــــــــــــد</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView rightToLeft="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="J153" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,11 +1460,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="17">
-        <v>42339</v>
+        <v>43789</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>42339</v>
+        <v>43789</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -1610,14 +1616,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>112460</v>
+        <v>127460</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-112460</v>
+        <v>-127460</v>
       </c>
       <c r="E11" s="17">
         <v>8275</v>
@@ -1923,24 +1929,24 @@
         <v>10</v>
       </c>
       <c r="B20" s="17">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="C20" s="17">
         <v>0</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>-2850</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>28435</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>28435</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -1958,24 +1964,24 @@
         <v>121</v>
       </c>
       <c r="B21" s="17">
-        <v>1355</v>
+        <v>2185</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-1355</v>
+        <v>-2185</v>
       </c>
       <c r="E21" s="17">
-        <v>8044</v>
+        <v>16811</v>
       </c>
       <c r="F21" s="17">
         <v>23800</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>15756</v>
+        <v>6989</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -2338,7 +2344,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2351,24 +2357,24 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>150004</v>
+        <v>148553</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-150004</v>
+        <v>-148553</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>18522</v>
+        <v>35522</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>18522</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -3267,14 +3273,14 @@
         <v>-7692</v>
       </c>
       <c r="H58" s="17">
-        <v>2338</v>
+        <v>2638</v>
       </c>
       <c r="I58" s="17">
         <v>8100</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>5762</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -3400,11 +3406,11 @@
         <v>62161</v>
       </c>
       <c r="F62" s="17">
-        <v>57465</v>
+        <v>57805</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-4696</v>
+        <v>-4356</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3502,14 +3508,14 @@
         <v>0</v>
       </c>
       <c r="E65" s="17">
-        <v>300</v>
+        <v>5330</v>
       </c>
       <c r="F65" s="17">
         <v>19000</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>18700</v>
+        <v>13670</v>
       </c>
       <c r="H65" s="17">
         <v>0</v>
@@ -3547,14 +3553,14 @@
         <v>0</v>
       </c>
       <c r="H66" s="17">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I66" s="17">
         <v>0</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="2"/>
-        <v>-250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -3565,11 +3571,11 @@
         <v>0</v>
       </c>
       <c r="C67" s="17">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E67" s="17">
         <v>13000</v>
@@ -4052,14 +4058,14 @@
         <v>47</v>
       </c>
       <c r="B81" s="17">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C81" s="17">
         <v>5500</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4508,11 +4514,11 @@
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="E94" s="17">
         <v>3750</v>
@@ -4865,14 +4871,14 @@
         <v>-200</v>
       </c>
       <c r="E104" s="17">
-        <v>8679</v>
+        <v>7702</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-8679</v>
+        <v>-7702</v>
       </c>
       <c r="H104" s="17">
         <v>100</v>
@@ -5100,14 +5106,14 @@
         <v>156</v>
       </c>
       <c r="B111" s="17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E111" s="17">
         <v>2250</v>
@@ -5520,14 +5526,14 @@
         <v>83</v>
       </c>
       <c r="B123" s="17">
-        <v>5618</v>
+        <v>6118</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-5618</v>
+        <v>-6118</v>
       </c>
       <c r="E123" s="17">
         <v>1768</v>
@@ -5873,21 +5879,21 @@
         <v>15000</v>
       </c>
       <c r="C133" s="17">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>-15000</v>
+        <v>23100</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
       </c>
       <c r="F133" s="17">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G133" s="9">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H133" s="17">
         <v>0</v>
@@ -6158,14 +6164,14 @@
         <v>-500</v>
       </c>
       <c r="E141" s="17">
-        <v>31414</v>
+        <v>52865</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-31414</v>
+        <v>-52865</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6215,7 +6221,7 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B143" s="17">
         <v>2360</v>
@@ -6393,14 +6399,14 @@
         <v>98</v>
       </c>
       <c r="B148" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>568360</v>
+        <v>570360</v>
       </c>
       <c r="E148" s="17">
         <v>2000</v>
@@ -6677,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E165" sqref="E160:E165"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6687,7 +6693,7 @@
     <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="11" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="19" customWidth="1"/>
     <col min="6" max="6" width="21.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6776,7 +6782,7 @@
         <v>-61000</v>
       </c>
       <c r="C7" s="19">
-        <v>42339</v>
+        <v>43789</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -6837,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-112460</v>
+        <v>-127460</v>
       </c>
       <c r="C12" s="19">
         <v>-8275</v>
@@ -6961,10 +6967,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="19">
-        <v>-2850</v>
+        <v>0</v>
       </c>
       <c r="C21" s="19">
-        <v>28435</v>
+        <v>30000</v>
       </c>
       <c r="D21" s="19">
         <v>66</v>
@@ -6975,10 +6981,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="19">
-        <v>-1355</v>
+        <v>-2185</v>
       </c>
       <c r="C22" s="19">
-        <v>15756</v>
+        <v>6989</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -7124,16 +7130,16 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-150004</v>
+        <v>-148553</v>
       </c>
       <c r="D33" s="19">
-        <v>18522</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7493,7 +7499,7 @@
         <v>-7692</v>
       </c>
       <c r="D59" s="19">
-        <v>5762</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-4696</v>
+        <v>-4356</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7588,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <v>18700</v>
+        <v>13670</v>
       </c>
       <c r="D66" s="19">
         <v>0</v>
@@ -7605,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="19">
-        <v>-250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7613,7 +7619,7 @@
         <v>153</v>
       </c>
       <c r="B68" s="19">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C68" s="19">
         <v>-13000</v>
@@ -7809,7 +7815,7 @@
         <v>47</v>
       </c>
       <c r="B82" s="19">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C82" s="19">
         <v>0</v>
@@ -7991,7 +7997,7 @@
         <v>57</v>
       </c>
       <c r="B95" s="19">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="C95" s="19">
         <v>-3750</v>
@@ -8134,7 +8140,7 @@
         <v>-200</v>
       </c>
       <c r="C105" s="19">
-        <v>-8679</v>
+        <v>-7702</v>
       </c>
       <c r="D105" s="19">
         <v>-100</v>
@@ -8229,7 +8235,7 @@
         <v>156</v>
       </c>
       <c r="B112" s="19">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="C112" s="19">
         <v>-2250</v>
@@ -8397,7 +8403,7 @@
         <v>83</v>
       </c>
       <c r="B124" s="19">
-        <v>-5618</v>
+        <v>-6118</v>
       </c>
       <c r="C124" s="19">
         <v>582</v>
@@ -8537,10 +8543,10 @@
         <v>90</v>
       </c>
       <c r="B134" s="19">
-        <v>-15000</v>
+        <v>23100</v>
       </c>
       <c r="C134" s="19">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="D134" s="19">
         <v>0</v>
@@ -8650,7 +8656,7 @@
         <v>-500</v>
       </c>
       <c r="C142" s="19">
-        <v>-31414</v>
+        <v>-52865</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8672,7 +8678,7 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="19">
         <v>-2360</v>
@@ -8745,7 +8751,7 @@
         <v>98</v>
       </c>
       <c r="B149" s="19">
-        <v>568360</v>
+        <v>570360</v>
       </c>
       <c r="C149" s="19">
         <v>-2000</v>
@@ -8831,15 +8837,15 @@
       </c>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>658235</v>
+        <v>691670</v>
       </c>
       <c r="C155" s="24">
         <f>SUM(C2:C154)</f>
-        <v>-176139</v>
+        <v>-217604</v>
       </c>
       <c r="D155" s="24">
         <f>SUM(D2:D154)</f>
-        <v>44310</v>
+        <v>61260</v>
       </c>
       <c r="E155" s="24">
         <f>SUM(E2:E154)</f>
@@ -8891,14 +8897,14 @@
         <v>110</v>
       </c>
       <c r="B160" s="19">
-        <v>1005034</v>
+        <v>1190774</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E160" s="20">
-        <v>3.78</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="G160" s="19"/>
     </row>
@@ -8907,7 +8913,7 @@
         <v>111</v>
       </c>
       <c r="B161" s="19">
-        <v>256039</v>
+        <v>249602</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
@@ -8923,14 +8929,14 @@
         <v>112</v>
       </c>
       <c r="B162" s="19">
-        <v>-29295</v>
+        <v>-59398</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E162" s="19">
-        <v>32.8695652173</v>
+        <v>32.913043478200002</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="19"/>
@@ -8940,7 +8946,7 @@
         <v>113</v>
       </c>
       <c r="B163" s="19">
-        <v>46500</v>
+        <v>13100</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
@@ -8973,7 +8979,7 @@
         <v>114</v>
       </c>
       <c r="B165" s="19">
-        <v>2055</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261CB5C-40E7-4293-9951-1221C04C66A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D0E02-7939-40F4-ABC0-CE8DAE5238C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{1D93C73E-7802-463B-84FA-443D13BEF3C2}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{D733B119-1723-4F46-AE58-35308A4A4426}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="165">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -77,9 +77,6 @@
     <t>بالستينين كلاود</t>
   </si>
   <si>
-    <t xml:space="preserve">طارق اللقطة  </t>
-  </si>
-  <si>
     <t>أبو حليمة</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>الفار 100</t>
-  </si>
-  <si>
-    <t>أحمد خليل</t>
   </si>
   <si>
     <t>أيهاب الريس</t>
@@ -435,9 +429,6 @@
     <t>ابو عرفا سكيك</t>
   </si>
   <si>
-    <t xml:space="preserve"> أبو جهاد عاشور</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
@@ -534,9 +525,6 @@
     <t>اياد الريس</t>
   </si>
   <si>
-    <t>سرحان قويدر</t>
-  </si>
-  <si>
     <t>عياد دخان</t>
   </si>
   <si>
@@ -552,19 +540,37 @@
     <t>ميار دلول</t>
   </si>
   <si>
-    <t>الست أبو عمرة</t>
-  </si>
-  <si>
     <t>شـحاتة بـنك</t>
   </si>
   <si>
-    <t>صندوق  (2)</t>
-  </si>
-  <si>
-    <t>شحاتة</t>
-  </si>
-  <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندوق احـــــــــــمـــــــــــــــــــــــــــــــــــــــــــد</t>
+    <t>اسامه استثمار ابو طويله</t>
+  </si>
+  <si>
+    <t>أبو فادي أبو سيو</t>
+  </si>
+  <si>
+    <t>جهاد أبو حليمة</t>
+  </si>
+  <si>
+    <t>كافور للعطور</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>أبو مفيد 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو أو حطب </t>
+  </si>
+  <si>
+    <t>أبو مفيد وأبو طويلة</t>
+  </si>
+  <si>
+    <t>صوان</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندزق احـــــــــــــــمــــــــــــــــــــــــــــــــد</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J153" sqref="J2:J153"/>
+    <sheetView rightToLeft="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,19 +1293,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1339,27 +1345,27 @@
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="17">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E3" s="17">
-        <v>2925</v>
+        <v>3125</v>
       </c>
       <c r="F3" s="17">
         <v>0</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-2925</v>
+        <v>-3125</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="17">
         <v>61000</v>
@@ -1457,14 +1463,14 @@
         <v>-61000</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F6" s="17">
-        <v>43789</v>
+        <v>46589</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>43789</v>
+        <v>6589</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -1478,7 +1484,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="B7" s="17">
         <v>0</v>
       </c>
@@ -1490,14 +1498,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="17">
         <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
@@ -1616,24 +1624,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>127460</v>
+        <v>600</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-127460</v>
+        <v>-600</v>
       </c>
       <c r="E11" s="17">
-        <v>8275</v>
+        <v>15425</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-8275</v>
+        <v>-15425</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1647,9 +1655,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="17">
         <v>0</v>
       </c>
@@ -1683,7 +1689,7 @@
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="17">
         <v>30</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B14" s="17">
         <v>2680</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="17">
         <v>0</v>
@@ -1788,7 +1794,7 @@
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="17">
         <v>0</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="17">
         <v>800</v>
@@ -1857,16 +1863,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B18" s="17">
         <v>0</v>
       </c>
       <c r="C18" s="17">
-        <v>0</v>
+        <v>42163</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42163</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -1891,7 +1899,7 @@
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="17">
         <v>0</v>
@@ -1926,7 +1934,7 @@
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="17">
         <v>0</v>
@@ -1939,14 +1947,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="17">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -1961,27 +1969,27 @@
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" s="17">
-        <v>2185</v>
+        <v>3195</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-2185</v>
+        <v>-3195</v>
       </c>
       <c r="E21" s="17">
-        <v>16811</v>
+        <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="H21" s="17">
         <v>0</v>
@@ -1996,7 +2004,7 @@
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="17">
         <v>0</v>
@@ -2030,7 +2038,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="B23" s="17">
         <v>0</v>
       </c>
@@ -2042,14 +2052,14 @@
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="17">
         <v>0</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2064,7 +2074,7 @@
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="17">
         <v>385</v>
@@ -2099,7 +2109,7 @@
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -2134,7 +2144,7 @@
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="17">
         <v>1500</v>
@@ -2169,7 +2179,7 @@
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -2204,7 +2214,7 @@
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B28" s="17">
         <v>500</v>
@@ -2227,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -2274,7 +2284,7 @@
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="17">
         <v>285</v>
@@ -2309,27 +2319,27 @@
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="17">
-        <v>44785</v>
+        <v>29385</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>-44785</v>
+        <v>-29385</v>
       </c>
       <c r="E31" s="17">
         <v>40621</v>
       </c>
       <c r="F31" s="17">
-        <v>51700</v>
+        <v>47700</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>11079</v>
+        <v>7079</v>
       </c>
       <c r="H31" s="17">
         <v>0</v>
@@ -2344,7 +2354,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2357,49 +2367,49 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>148553</v>
+        <v>133562</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-148553</v>
+        <v>-133562</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>35522</v>
+        <v>26522</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>35522</v>
+        <v>26522</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="17">
         <v>20000</v>
       </c>
       <c r="C33" s="17">
-        <v>52550</v>
+        <v>90600</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>32550</v>
+        <v>70600</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
       </c>
       <c r="F33" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
@@ -2414,7 +2424,7 @@
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="17">
         <v>2156</v>
@@ -2449,7 +2459,7 @@
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="17">
         <v>3500</v>
@@ -2484,7 +2494,7 @@
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" s="17">
         <v>378</v>
@@ -2497,14 +2507,14 @@
         <v>-378</v>
       </c>
       <c r="E36" s="17">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2519,7 +2529,7 @@
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="17">
         <v>0</v>
@@ -2554,7 +2564,7 @@
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="17">
         <v>0</v>
@@ -2589,7 +2599,7 @@
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="17">
         <v>1000</v>
@@ -2624,17 +2634,17 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B40" s="17">
-        <v>1570</v>
+        <v>570</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
-        <v>-1570</v>
+        <v>-570</v>
       </c>
       <c r="E40" s="17">
         <v>0</v>
@@ -2659,7 +2669,7 @@
     </row>
     <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B41" s="17">
         <v>0</v>
@@ -2694,17 +2704,17 @@
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" s="17">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="C42" s="17">
         <v>1000</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>-400</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2762,27 +2772,27 @@
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="17">
-        <v>58970</v>
+        <v>0</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>-58970</v>
+        <v>0</v>
       </c>
       <c r="E44" s="17">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2797,7 +2807,7 @@
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45" s="17">
         <v>0</v>
@@ -2832,7 +2842,7 @@
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="17">
         <v>0</v>
@@ -2867,7 +2877,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -2880,14 +2890,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="17">
-        <v>12700</v>
+        <v>13700</v>
       </c>
       <c r="F47" s="17">
         <v>20500</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>7800</v>
+        <v>6800</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -2902,7 +2912,7 @@
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="17">
         <v>800</v>
@@ -2937,7 +2947,7 @@
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="17">
         <v>0</v>
@@ -2972,7 +2982,7 @@
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -3007,7 +3017,7 @@
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="17">
         <v>2500</v>
@@ -3075,7 +3085,7 @@
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="17">
         <v>5000</v>
@@ -3088,14 +3098,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>25100</v>
+        <v>26100</v>
       </c>
       <c r="F53" s="17">
         <v>90100</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>65000</v>
+        <v>64000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3110,7 +3120,7 @@
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="17">
         <v>200</v>
@@ -3145,7 +3155,7 @@
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="17">
         <v>0</v>
@@ -3180,7 +3190,7 @@
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B56" s="17">
         <v>0</v>
@@ -3203,29 +3213,29 @@
         <v>0</v>
       </c>
       <c r="H56" s="17">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I56" s="17">
         <v>0</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B57" s="17">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="E57" s="17">
         <v>0</v>
@@ -3250,7 +3260,7 @@
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="17">
         <v>2012</v>
@@ -3285,7 +3295,7 @@
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" s="17">
         <v>0</v>
@@ -3320,7 +3330,7 @@
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="17">
         <v>0</v>
@@ -3355,7 +3365,7 @@
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" s="17">
         <v>1000</v>
@@ -3390,7 +3400,7 @@
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="17">
         <v>0</v>
@@ -3403,14 +3413,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>62161</v>
+        <v>62222</v>
       </c>
       <c r="F62" s="17">
         <v>57805</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-4356</v>
+        <v>-4417</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3425,7 +3435,7 @@
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="17">
         <v>4220</v>
@@ -3460,7 +3470,7 @@
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="17">
         <v>600</v>
@@ -3495,7 +3505,7 @@
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B65" s="17">
         <v>0</v>
@@ -3508,14 +3518,14 @@
         <v>0</v>
       </c>
       <c r="E65" s="17">
-        <v>5330</v>
+        <v>1980</v>
       </c>
       <c r="F65" s="17">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>13670</v>
+        <v>-1980</v>
       </c>
       <c r="H65" s="17">
         <v>0</v>
@@ -3530,17 +3540,17 @@
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B66" s="17">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="C66" s="17">
         <v>0</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>-2200</v>
+        <v>-2700</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
@@ -3565,27 +3575,27 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B67" s="17">
-        <v>0</v>
+        <v>22600</v>
       </c>
       <c r="C67" s="17">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
-        <v>8000</v>
+        <v>-22600</v>
       </c>
       <c r="E67" s="17">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="F67" s="17">
         <v>0</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="H67" s="17">
         <v>0</v>
@@ -3600,17 +3610,17 @@
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68" s="17">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C68" s="17">
         <v>0</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="3"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E68" s="17">
         <v>0</v>
@@ -3635,7 +3645,7 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B69" s="17">
         <v>0</v>
@@ -3670,7 +3680,7 @@
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70" s="17">
         <v>700</v>
@@ -3705,7 +3715,7 @@
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71" s="17">
         <v>0</v>
@@ -3740,7 +3750,7 @@
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72" s="17">
         <v>19620</v>
@@ -3775,7 +3785,7 @@
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B73" s="17">
         <v>0</v>
@@ -3810,7 +3820,7 @@
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B74" s="17">
         <v>0</v>
@@ -3845,7 +3855,7 @@
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="17">
         <v>350</v>
@@ -3880,7 +3890,7 @@
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="17">
         <v>6200</v>
@@ -3915,7 +3925,7 @@
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77" s="17">
         <v>80</v>
@@ -3950,7 +3960,7 @@
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" s="17">
         <v>900</v>
@@ -3985,7 +3995,7 @@
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79" s="17">
         <v>0</v>
@@ -4020,52 +4030,52 @@
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80" s="17">
         <v>0</v>
       </c>
       <c r="C80" s="17">
-        <v>5300</v>
+        <v>163</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>5300</v>
+        <v>163</v>
       </c>
       <c r="E80" s="17">
-        <v>20400</v>
+        <v>24410</v>
       </c>
       <c r="F80" s="17">
-        <v>4486</v>
+        <v>11800</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-15914</v>
+        <v>-12610</v>
       </c>
       <c r="H80" s="17">
-        <v>1810</v>
+        <v>4510</v>
       </c>
       <c r="I80" s="17">
-        <v>1025</v>
+        <v>2003</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="5"/>
-        <v>-785</v>
+        <v>-2507</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B81" s="17">
-        <v>1500</v>
+        <v>16500</v>
       </c>
       <c r="C81" s="17">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>-5500</v>
       </c>
       <c r="E81" s="17">
         <v>0</v>
@@ -4078,19 +4088,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="17">
-        <v>1500</v>
+        <v>157</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="5"/>
-        <v>-1500</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="17">
         <v>1000</v>
@@ -4125,7 +4135,7 @@
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B83" s="17">
         <v>600</v>
@@ -4160,7 +4170,7 @@
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84" s="17">
         <v>100</v>
@@ -4195,7 +4205,7 @@
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B85" s="17">
         <v>10740</v>
@@ -4230,7 +4240,7 @@
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="17">
         <v>0</v>
@@ -4265,7 +4275,7 @@
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B87" s="17">
         <v>200</v>
@@ -4278,14 +4288,14 @@
         <v>-200</v>
       </c>
       <c r="E87" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H87" s="17">
         <v>0</v>
@@ -4300,7 +4310,7 @@
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B88" s="17">
         <v>0</v>
@@ -4335,7 +4345,7 @@
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B89" s="17">
         <v>300</v>
@@ -4370,7 +4380,7 @@
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -4404,7 +4414,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="B91" s="17">
         <v>0</v>
       </c>
@@ -4419,11 +4431,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="17">
-        <v>0</v>
+        <v>9625</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9625</v>
       </c>
       <c r="H91" s="17">
         <v>0</v>
@@ -4438,7 +4450,7 @@
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B92" s="17">
         <v>13305</v>
@@ -4473,7 +4485,7 @@
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" s="17">
         <v>0</v>
@@ -4508,27 +4520,27 @@
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" s="17">
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="E94" s="17">
-        <v>3750</v>
+        <v>4600</v>
       </c>
       <c r="F94" s="17">
         <v>0</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="4"/>
-        <v>-3750</v>
+        <v>-4600</v>
       </c>
       <c r="H94" s="17">
         <v>11900</v>
@@ -4543,7 +4555,7 @@
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95" s="17">
         <v>280</v>
@@ -4578,7 +4590,7 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B96" s="17">
         <v>50</v>
@@ -4594,11 +4606,11 @@
         <v>2200</v>
       </c>
       <c r="F96" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>-2200</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4613,7 +4625,7 @@
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B97" s="17">
         <v>650</v>
@@ -4648,7 +4660,7 @@
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B98" s="17">
         <v>0</v>
@@ -4671,19 +4683,19 @@
         <v>100</v>
       </c>
       <c r="H98" s="17">
-        <v>558</v>
+        <v>758</v>
       </c>
       <c r="I98" s="17">
         <v>958</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B99" s="17">
         <v>0</v>
@@ -4718,7 +4730,7 @@
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B100" s="17">
         <v>1260</v>
@@ -4753,7 +4765,7 @@
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B101" s="17">
         <v>8000</v>
@@ -4788,7 +4800,7 @@
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B102" s="17">
         <v>0</v>
@@ -4823,27 +4835,27 @@
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B103" s="17">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C103" s="17">
         <v>238483</v>
       </c>
       <c r="D103" s="9">
         <f t="shared" si="3"/>
-        <v>237983</v>
+        <v>237783</v>
       </c>
       <c r="E103" s="17">
-        <v>23083</v>
+        <v>23283</v>
       </c>
       <c r="F103" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-23083</v>
+        <v>-23183</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4858,7 +4870,7 @@
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B104" s="17">
         <v>200</v>
@@ -4871,14 +4883,14 @@
         <v>-200</v>
       </c>
       <c r="E104" s="17">
-        <v>7702</v>
+        <v>17228</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-7702</v>
+        <v>-17228</v>
       </c>
       <c r="H104" s="17">
         <v>100</v>
@@ -4893,7 +4905,7 @@
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B105" s="17">
         <v>2574</v>
@@ -4928,7 +4940,7 @@
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B106" s="17">
         <v>0</v>
@@ -4963,7 +4975,7 @@
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B107" s="17">
         <v>0</v>
@@ -4998,7 +5010,7 @@
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B108" s="17">
         <v>0</v>
@@ -5033,7 +5045,7 @@
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B109" s="17">
         <v>250</v>
@@ -5068,7 +5080,7 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B110" s="17">
         <v>4000</v>
@@ -5103,27 +5115,27 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B111" s="17">
-        <v>0</v>
+        <v>50660</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-50660</v>
       </c>
       <c r="E111" s="17">
-        <v>2250</v>
+        <v>8</v>
       </c>
       <c r="F111" s="17">
         <v>0</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" si="4"/>
-        <v>-2250</v>
+        <v>-8</v>
       </c>
       <c r="H111" s="17">
         <v>0</v>
@@ -5138,7 +5150,7 @@
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B112" s="17">
         <v>0</v>
@@ -5173,7 +5185,7 @@
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B113" s="17">
         <v>0</v>
@@ -5208,7 +5220,7 @@
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B114" s="17">
         <v>150</v>
@@ -5243,7 +5255,7 @@
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B115" s="17">
         <v>18505</v>
@@ -5278,7 +5290,7 @@
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B116" s="17">
         <v>0</v>
@@ -5291,14 +5303,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>3000</v>
+        <v>16200</v>
       </c>
       <c r="F116" s="17">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>300</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5313,17 +5325,17 @@
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B117" s="17">
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>140000</v>
+        <v>137000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>140000</v>
+        <v>137000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5348,7 +5360,7 @@
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B118" s="17">
         <v>8970</v>
@@ -5383,7 +5395,7 @@
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B119" s="17">
         <v>150</v>
@@ -5418,27 +5430,27 @@
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B120" s="17">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C120" s="17">
-        <v>27000</v>
+        <v>26750</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>26050</v>
       </c>
       <c r="E120" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F120" s="17">
         <v>0</v>
       </c>
       <c r="G120" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="H120" s="17">
         <v>0</v>
@@ -5453,7 +5465,7 @@
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B121" s="17">
         <v>1050</v>
@@ -5488,7 +5500,7 @@
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B122" s="17">
         <v>2300</v>
@@ -5523,27 +5535,27 @@
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B123" s="17">
-        <v>6118</v>
+        <v>7118</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-6118</v>
+        <v>-7118</v>
       </c>
       <c r="E123" s="17">
-        <v>1768</v>
+        <v>2168</v>
       </c>
       <c r="F123" s="17">
         <v>2350</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>582</v>
+        <v>182</v>
       </c>
       <c r="H123" s="17">
         <v>600</v>
@@ -5558,7 +5570,7 @@
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B124" s="17">
         <v>14678</v>
@@ -5593,7 +5605,7 @@
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B125" s="17">
         <v>0</v>
@@ -5628,7 +5640,7 @@
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B126" s="17">
         <v>0</v>
@@ -5663,7 +5675,7 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B127" s="17">
         <v>0</v>
@@ -5698,27 +5710,27 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B128" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C128" s="17">
         <v>0</v>
       </c>
       <c r="D128" s="9">
         <f t="shared" si="3"/>
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E128" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F128" s="17">
         <v>0</v>
       </c>
       <c r="G128" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H128" s="17">
         <v>0</v>
@@ -5733,17 +5745,17 @@
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B129" s="17">
         <v>3900</v>
       </c>
       <c r="C129" s="17">
-        <v>550</v>
+        <v>1350</v>
       </c>
       <c r="D129" s="9">
         <f t="shared" si="3"/>
-        <v>-3350</v>
+        <v>-2550</v>
       </c>
       <c r="E129" s="17">
         <v>0</v>
@@ -5768,7 +5780,7 @@
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B130" s="17">
         <v>925</v>
@@ -5803,7 +5815,7 @@
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B131" s="17">
         <v>400</v>
@@ -5838,7 +5850,7 @@
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B132" s="17">
         <v>0</v>
@@ -5873,17 +5885,17 @@
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B133" s="17">
         <v>15000</v>
       </c>
       <c r="C133" s="17">
-        <v>38100</v>
+        <v>28100</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>23100</v>
+        <v>13100</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
@@ -5908,7 +5920,7 @@
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B134" s="17">
         <v>830</v>
@@ -5943,7 +5955,7 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -5978,7 +5990,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B136" s="17">
         <v>1500</v>
@@ -6013,7 +6025,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B137" s="17">
         <v>0</v>
@@ -6048,7 +6060,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B138" s="17">
         <v>0</v>
@@ -6061,14 +6073,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>14876</v>
+        <v>17876</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>15124</v>
+        <v>12124</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -6082,7 +6094,9 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="34" t="s">
+        <v>162</v>
+      </c>
       <c r="B139" s="17">
         <v>0</v>
       </c>
@@ -6094,14 +6108,14 @@
         <v>0</v>
       </c>
       <c r="E139" s="17">
-        <v>0</v>
+        <v>23822</v>
       </c>
       <c r="F139" s="17">
-        <v>0</v>
+        <v>16665</v>
       </c>
       <c r="G139" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-7157</v>
       </c>
       <c r="H139" s="17">
         <v>0</v>
@@ -6116,7 +6130,7 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B140" s="17">
         <v>200</v>
@@ -6151,7 +6165,7 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B141" s="17">
         <v>500</v>
@@ -6164,14 +6178,14 @@
         <v>-500</v>
       </c>
       <c r="E141" s="17">
-        <v>52865</v>
+        <v>51321</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-52865</v>
+        <v>-51321</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6186,7 +6200,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B142" s="17">
         <v>0</v>
@@ -6221,27 +6235,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B143" s="17">
-        <v>2360</v>
+        <v>3820</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-2360</v>
+        <v>-3820</v>
       </c>
       <c r="E143" s="17">
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-2100</v>
+        <v>-1650</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6256,7 +6270,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B144" s="17">
         <v>1350</v>
@@ -6291,7 +6305,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B145" s="17">
         <v>50</v>
@@ -6326,7 +6340,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B146" s="17">
         <v>0</v>
@@ -6361,7 +6375,7 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B147" s="17">
         <v>9600</v>
@@ -6374,14 +6388,14 @@
         <v>1900</v>
       </c>
       <c r="E147" s="17">
-        <v>42334</v>
+        <v>30834</v>
       </c>
       <c r="F147" s="17">
         <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-42334</v>
+        <v>-30834</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6396,17 +6410,17 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B148" s="17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>570360</v>
+        <v>567360</v>
       </c>
       <c r="E148" s="17">
         <v>2000</v>
@@ -6431,7 +6445,7 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B149" s="17">
         <v>0</v>
@@ -6444,14 +6458,14 @@
         <v>0</v>
       </c>
       <c r="E149" s="17">
-        <v>28300</v>
+        <v>15800</v>
       </c>
       <c r="F149" s="17">
-        <v>29000</v>
+        <v>74000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>700</v>
+        <v>58200</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6466,17 +6480,17 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B150" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C150" s="17">
         <v>0</v>
       </c>
       <c r="D150" s="9">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E150" s="17">
         <v>0</v>
@@ -6501,7 +6515,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B151" s="17">
         <v>0</v>
@@ -6536,7 +6550,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6572,7 +6586,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B153" s="17">
         <v>1850</v>
@@ -6683,9 +6697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6700,19 +6712,19 @@
     <row r="1" spans="1:6" s="21" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -6734,13 +6746,13 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="19">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="C4" s="19">
-        <v>-2925</v>
+        <v>-3125</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -6762,7 +6774,7 @@
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="19">
         <v>0</v>
@@ -6776,25 +6788,27 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19">
         <v>-61000</v>
       </c>
       <c r="C7" s="19">
-        <v>43789</v>
+        <v>6589</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="B8" s="19">
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -6843,19 +6857,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-127460</v>
+        <v>-600</v>
       </c>
       <c r="C12" s="19">
-        <v>-8275</v>
+        <v>-15425</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="19">
         <v>0</v>
       </c>
@@ -6868,7 +6880,7 @@
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="19">
         <v>-30</v>
@@ -6882,7 +6894,7 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" s="19">
         <v>-380</v>
@@ -6896,7 +6908,7 @@
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="19">
         <v>0</v>
@@ -6910,7 +6922,7 @@
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
@@ -6924,7 +6936,7 @@
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="19">
         <v>0</v>
@@ -6937,9 +6949,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B19" s="19">
-        <v>0</v>
+        <v>42163</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -6950,7 +6964,7 @@
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
@@ -6964,13 +6978,13 @@
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="19">
         <v>0</v>
       </c>
       <c r="C21" s="19">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="19">
         <v>66</v>
@@ -6978,13 +6992,13 @@
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="19">
-        <v>-2185</v>
+        <v>-3195</v>
       </c>
       <c r="C22" s="19">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -6992,7 +7006,7 @@
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="19">
         <v>0</v>
@@ -7005,12 +7019,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="B24" s="19">
         <v>0</v>
       </c>
       <c r="C24" s="19">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7018,7 +7034,7 @@
     </row>
     <row r="25" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="19">
         <v>-385</v>
@@ -7032,7 +7048,7 @@
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="19">
         <v>0</v>
@@ -7046,7 +7062,7 @@
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="19">
         <v>-1500</v>
@@ -7060,7 +7076,7 @@
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -7074,7 +7090,7 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="19">
         <v>-500</v>
@@ -7083,12 +7099,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="19">
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="19">
         <v>0</v>
@@ -7102,7 +7118,7 @@
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="19">
         <v>-285</v>
@@ -7116,13 +7132,13 @@
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="19">
-        <v>-44785</v>
+        <v>-29385</v>
       </c>
       <c r="C32" s="19">
-        <v>11079</v>
+        <v>7079</v>
       </c>
       <c r="D32" s="19">
         <v>0</v>
@@ -7130,27 +7146,27 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-148553</v>
+        <v>-133562</v>
       </c>
       <c r="D33" s="19">
-        <v>35522</v>
+        <v>26522</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="19">
-        <v>32550</v>
+        <v>70600</v>
       </c>
       <c r="C34" s="19">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="19">
         <v>0</v>
@@ -7158,7 +7174,7 @@
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="19">
         <v>-1156</v>
@@ -7172,7 +7188,7 @@
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="19">
         <v>-650</v>
@@ -7186,13 +7202,13 @@
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="19">
         <v>-378</v>
       </c>
       <c r="C37" s="19">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -7200,7 +7216,7 @@
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -7214,7 +7230,7 @@
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="19">
         <v>0</v>
@@ -7228,7 +7244,7 @@
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="19">
         <v>-1000</v>
@@ -7242,10 +7258,10 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" s="19">
-        <v>-1570</v>
+        <v>-570</v>
       </c>
       <c r="C41" s="19">
         <v>0</v>
@@ -7256,7 +7272,7 @@
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="19">
         <v>0</v>
@@ -7270,10 +7286,10 @@
     </row>
     <row r="43" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B43" s="19">
-        <v>1000</v>
+        <v>-400</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -7296,13 +7312,13 @@
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="19">
-        <v>-58970</v>
+        <v>0</v>
       </c>
       <c r="C45" s="19">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7310,7 +7326,7 @@
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="19">
         <v>0</v>
@@ -7324,7 +7340,7 @@
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="19">
         <v>0</v>
@@ -7338,13 +7354,13 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
       </c>
       <c r="C48" s="19">
-        <v>7800</v>
+        <v>6800</v>
       </c>
       <c r="D48" s="19">
         <v>0</v>
@@ -7352,7 +7368,7 @@
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="19">
         <v>-800</v>
@@ -7366,7 +7382,7 @@
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="19">
         <v>0</v>
@@ -7380,7 +7396,7 @@
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>
@@ -7394,7 +7410,7 @@
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="19">
         <v>-2500</v>
@@ -7420,13 +7436,13 @@
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="19">
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>65000</v>
+        <v>64000</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7434,7 +7450,7 @@
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="19">
         <v>-200</v>
@@ -7448,7 +7464,7 @@
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="19">
         <v>50</v>
@@ -7462,7 +7478,7 @@
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
@@ -7471,15 +7487,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="19">
-        <v>0</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B58" s="19">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="C58" s="19">
         <v>0</v>
@@ -7490,7 +7506,7 @@
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="19">
         <v>-1862</v>
@@ -7504,7 +7520,7 @@
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="19">
         <v>0</v>
@@ -7518,7 +7534,7 @@
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="19">
         <v>500</v>
@@ -7532,7 +7548,7 @@
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B62" s="19">
         <v>-1000</v>
@@ -7546,13 +7562,13 @@
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="19">
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-4356</v>
+        <v>-4417</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7560,7 +7576,7 @@
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="19">
         <v>-4220</v>
@@ -7574,7 +7590,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="19">
         <v>-600</v>
@@ -7588,13 +7604,13 @@
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B66" s="19">
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <v>13670</v>
+        <v>-1980</v>
       </c>
       <c r="D66" s="19">
         <v>0</v>
@@ -7602,10 +7618,10 @@
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B67" s="19">
-        <v>-2200</v>
+        <v>-2700</v>
       </c>
       <c r="C67" s="19">
         <v>0</v>
@@ -7616,13 +7632,13 @@
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B68" s="19">
-        <v>8000</v>
+        <v>-22600</v>
       </c>
       <c r="C68" s="19">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="D68" s="19">
         <v>0</v>
@@ -7630,10 +7646,10 @@
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B69" s="19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C69" s="19">
         <v>0</v>
@@ -7644,7 +7660,7 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B70" s="19">
         <v>0</v>
@@ -7658,7 +7674,7 @@
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71" s="19">
         <v>-700</v>
@@ -7672,7 +7688,7 @@
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" s="19">
         <v>0</v>
@@ -7686,7 +7702,7 @@
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="19">
         <v>-4270</v>
@@ -7700,7 +7716,7 @@
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B74" s="19">
         <v>0</v>
@@ -7714,7 +7730,7 @@
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="19">
         <v>0</v>
@@ -7728,7 +7744,7 @@
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="19">
         <v>-350</v>
@@ -7742,7 +7758,7 @@
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="19">
         <v>-6200</v>
@@ -7756,7 +7772,7 @@
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="19">
         <v>-80</v>
@@ -7770,7 +7786,7 @@
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79" s="19">
         <v>-400</v>
@@ -7784,7 +7800,7 @@
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80" s="19">
         <v>0</v>
@@ -7798,35 +7814,35 @@
     </row>
     <row r="81" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B81" s="19">
-        <v>5300</v>
+        <v>163</v>
       </c>
       <c r="C81" s="19">
-        <v>-15914</v>
+        <v>-12610</v>
       </c>
       <c r="D81" s="19">
-        <v>-785</v>
+        <v>-2507</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" s="19">
-        <v>4000</v>
+        <v>-5500</v>
       </c>
       <c r="C82" s="19">
         <v>0</v>
       </c>
       <c r="D82" s="19">
-        <v>-1500</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" s="19">
         <v>-1000</v>
@@ -7840,7 +7856,7 @@
     </row>
     <row r="84" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="19">
         <v>-275</v>
@@ -7854,7 +7870,7 @@
     </row>
     <row r="85" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B85" s="19">
         <v>0</v>
@@ -7868,7 +7884,7 @@
     </row>
     <row r="86" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" s="19">
         <v>-1090</v>
@@ -7882,7 +7898,7 @@
     </row>
     <row r="87" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B87" s="19">
         <v>0</v>
@@ -7896,13 +7912,13 @@
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B88" s="19">
         <v>-200</v>
       </c>
       <c r="C88" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D88" s="19">
         <v>0</v>
@@ -7910,7 +7926,7 @@
     </row>
     <row r="89" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89" s="19">
         <v>0</v>
@@ -7924,7 +7940,7 @@
     </row>
     <row r="90" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B90" s="19">
         <v>-300</v>
@@ -7938,7 +7954,7 @@
     </row>
     <row r="91" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="19">
         <v>0</v>
@@ -7953,12 +7969,14 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>0</v>
+        <v>9625</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -7966,7 +7984,7 @@
     </row>
     <row r="93" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B93" s="19">
         <v>0</v>
@@ -7980,7 +7998,7 @@
     </row>
     <row r="94" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94" s="19">
         <v>133</v>
@@ -7994,13 +8012,13 @@
     </row>
     <row r="95" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95" s="19">
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="C95" s="19">
-        <v>-3750</v>
+        <v>-4600</v>
       </c>
       <c r="D95" s="19">
         <v>28000</v>
@@ -8008,7 +8026,7 @@
     </row>
     <row r="96" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96" s="19">
         <v>-280</v>
@@ -8022,13 +8040,13 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B97" s="19">
         <v>-50</v>
       </c>
       <c r="C97" s="19">
-        <v>-2200</v>
+        <v>-1900</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8036,7 +8054,7 @@
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="19">
         <v>-650</v>
@@ -8050,7 +8068,7 @@
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99" s="19">
         <v>0</v>
@@ -8059,12 +8077,12 @@
         <v>100</v>
       </c>
       <c r="D99" s="19">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100" s="19">
         <v>6000</v>
@@ -8078,7 +8096,7 @@
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101" s="19">
         <v>-1260</v>
@@ -8092,7 +8110,7 @@
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B102" s="19">
         <v>-1000</v>
@@ -8106,7 +8124,7 @@
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103" s="19">
         <v>0</v>
@@ -8120,13 +8138,13 @@
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B104" s="19">
-        <v>237983</v>
+        <v>237783</v>
       </c>
       <c r="C104" s="19">
-        <v>-23083</v>
+        <v>-23183</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8134,13 +8152,13 @@
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B105" s="19">
         <v>-200</v>
       </c>
       <c r="C105" s="19">
-        <v>-7702</v>
+        <v>-17228</v>
       </c>
       <c r="D105" s="19">
         <v>-100</v>
@@ -8148,7 +8166,7 @@
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="19">
         <v>-550</v>
@@ -8162,7 +8180,7 @@
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B107" s="19">
         <v>0</v>
@@ -8176,7 +8194,7 @@
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B108" s="19">
         <v>8000</v>
@@ -8190,7 +8208,7 @@
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B109" s="19">
         <v>0</v>
@@ -8204,7 +8222,7 @@
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B110" s="19">
         <v>-250</v>
@@ -8218,7 +8236,7 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B111" s="19">
         <v>-4000</v>
@@ -8232,13 +8250,13 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B112" s="19">
-        <v>0</v>
+        <v>-50660</v>
       </c>
       <c r="C112" s="19">
-        <v>-2250</v>
+        <v>-8</v>
       </c>
       <c r="D112" s="19">
         <v>0</v>
@@ -8246,7 +8264,7 @@
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B113" s="19">
         <v>1984</v>
@@ -8260,7 +8278,7 @@
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B114" s="19">
         <v>0</v>
@@ -8274,7 +8292,7 @@
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B115" s="19">
         <v>-150</v>
@@ -8288,7 +8306,7 @@
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B116" s="19">
         <v>0</v>
@@ -8302,13 +8320,13 @@
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B117" s="19">
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>10500</v>
+        <v>300</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8316,10 +8334,10 @@
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B118" s="19">
-        <v>140000</v>
+        <v>137000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8330,7 +8348,7 @@
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B119" s="19">
         <v>-170</v>
@@ -8344,7 +8362,7 @@
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B120" s="19">
         <v>-150</v>
@@ -8358,13 +8376,13 @@
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B121" s="19">
-        <v>27000</v>
+        <v>26050</v>
       </c>
       <c r="C121" s="19">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D121" s="19">
         <v>0</v>
@@ -8372,7 +8390,7 @@
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B122" s="19">
         <v>527</v>
@@ -8386,7 +8404,7 @@
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B123" s="19">
         <v>-2300</v>
@@ -8400,13 +8418,13 @@
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124" s="19">
-        <v>-6118</v>
+        <v>-7118</v>
       </c>
       <c r="C124" s="19">
-        <v>582</v>
+        <v>182</v>
       </c>
       <c r="D124" s="19">
         <v>-600</v>
@@ -8414,7 +8432,7 @@
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B125" s="19">
         <v>-13918</v>
@@ -8428,7 +8446,7 @@
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B126" s="19">
         <v>0</v>
@@ -8442,7 +8460,7 @@
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B127" s="19">
         <v>0</v>
@@ -8456,7 +8474,7 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B128" s="19">
         <v>0</v>
@@ -8470,13 +8488,13 @@
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B129" s="19">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="C129" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D129" s="19">
         <v>0</v>
@@ -8484,10 +8502,10 @@
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B130" s="19">
-        <v>-3350</v>
+        <v>-2550</v>
       </c>
       <c r="C130" s="19">
         <v>0</v>
@@ -8498,7 +8516,7 @@
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B131" s="19">
         <v>-925</v>
@@ -8512,7 +8530,7 @@
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B132" s="19">
         <v>-200</v>
@@ -8526,7 +8544,7 @@
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B133" s="19">
         <v>0</v>
@@ -8540,10 +8558,10 @@
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B134" s="19">
-        <v>23100</v>
+        <v>13100</v>
       </c>
       <c r="C134" s="19">
         <v>0</v>
@@ -8554,7 +8572,7 @@
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B135" s="19">
         <v>-830</v>
@@ -8568,7 +8586,7 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B136" s="19">
         <v>0</v>
@@ -8582,7 +8600,7 @@
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B137" s="19">
         <v>-1500</v>
@@ -8596,7 +8614,7 @@
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B138" s="19">
         <v>0</v>
@@ -8610,25 +8628,27 @@
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B139" s="19">
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>15124</v>
+        <v>12124</v>
       </c>
       <c r="D139" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+      <c r="A140" s="34" t="s">
+        <v>162</v>
+      </c>
       <c r="B140" s="19">
         <v>0</v>
       </c>
       <c r="C140" s="19">
-        <v>0</v>
+        <v>-7157</v>
       </c>
       <c r="D140" s="19">
         <v>0</v>
@@ -8636,7 +8656,7 @@
     </row>
     <row r="141" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B141" s="19">
         <v>-200</v>
@@ -8650,13 +8670,13 @@
     </row>
     <row r="142" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B142" s="19">
         <v>-500</v>
       </c>
       <c r="C142" s="19">
-        <v>-52865</v>
+        <v>-51321</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8664,7 +8684,7 @@
     </row>
     <row r="143" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B143" s="19">
         <v>0</v>
@@ -8678,13 +8698,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B144" s="19">
-        <v>-2360</v>
+        <v>-3820</v>
       </c>
       <c r="C144" s="19">
-        <v>-2100</v>
+        <v>-1650</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8692,7 +8712,7 @@
     </row>
     <row r="145" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B145" s="19">
         <v>-1350</v>
@@ -8706,7 +8726,7 @@
     </row>
     <row r="146" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B146" s="19">
         <v>-50</v>
@@ -8720,7 +8740,7 @@
     </row>
     <row r="147" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B147" s="19">
         <v>0</v>
@@ -8734,13 +8754,13 @@
     </row>
     <row r="148" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B148" s="19">
         <v>1900</v>
       </c>
       <c r="C148" s="19">
-        <v>-42334</v>
+        <v>-30834</v>
       </c>
       <c r="D148" s="19">
         <v>0</v>
@@ -8748,10 +8768,10 @@
     </row>
     <row r="149" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B149" s="19">
-        <v>570360</v>
+        <v>567360</v>
       </c>
       <c r="C149" s="19">
         <v>-2000</v>
@@ -8762,13 +8782,13 @@
     </row>
     <row r="150" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B150" s="19">
         <v>0</v>
       </c>
       <c r="C150" s="19">
-        <v>700</v>
+        <v>58200</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
@@ -8776,10 +8796,10 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B151" s="19">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C151" s="19">
         <v>0</v>
@@ -8790,7 +8810,7 @@
     </row>
     <row r="152" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B152" s="19">
         <v>0</v>
@@ -8804,7 +8824,7 @@
     </row>
     <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8818,7 +8838,7 @@
     </row>
     <row r="154" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B154" s="19">
         <v>-1850</v>
@@ -8833,19 +8853,19 @@
     </row>
     <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>691670</v>
+        <v>860196</v>
       </c>
       <c r="C155" s="24">
         <f>SUM(C2:C154)</f>
-        <v>-217604</v>
+        <v>-257061</v>
       </c>
       <c r="D155" s="24">
         <f>SUM(D2:D154)</f>
-        <v>61260</v>
+        <v>49001</v>
       </c>
       <c r="E155" s="24">
         <f>SUM(E2:E154)</f>
@@ -8859,22 +8879,22 @@
     <row r="156" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="E156" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="F156" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E156" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="G156" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -8882,42 +8902,42 @@
     </row>
     <row r="159" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C159" s="28"/>
       <c r="D159" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B160" s="19">
-        <v>1190774</v>
+        <v>1070924</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E160" s="20">
-        <v>3.7850000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B161" s="19">
-        <v>249602</v>
+        <v>262642</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E161" s="20">
         <v>0.71</v>
@@ -8926,48 +8946,52 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B162" s="19">
-        <v>-59398</v>
+        <v>-47129</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E162" s="19">
-        <v>32.913043478200002</v>
-      </c>
-      <c r="F162" s="33"/>
+        <v>0.115</v>
+      </c>
+      <c r="F162" s="33">
+        <v>32.956521739099998</v>
+      </c>
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B163" s="19">
-        <v>13100</v>
+        <v>8785</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E163" s="19">
+        <v>0.185</v>
+      </c>
+      <c r="F163" s="33">
         <v>3.83783783783</v>
       </c>
-      <c r="F163" s="33"/>
       <c r="G163" s="19"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B164" s="19">
-        <v>2983</v>
+        <v>4018</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E164" s="20">
         <v>1.08</v>
@@ -8976,15 +9000,15 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B165" s="19">
-        <v>3055</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D0E02-7939-40F4-ABC0-CE8DAE5238C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6B799-C308-44A7-9BC8-1F8FF3229CE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{D733B119-1723-4F46-AE58-35308A4A4426}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{4FB5CC76-52EF-4329-AF18-2B4CE3121F3D}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -486,15 +486,9 @@
     <t>أبو يعقوب لظن</t>
   </si>
   <si>
-    <t xml:space="preserve">منيب أبو سيد </t>
-  </si>
-  <si>
     <t>عبد الله المصري</t>
   </si>
   <si>
-    <t>الرنتيسي</t>
-  </si>
-  <si>
     <t>أنور بنك القاهرة عمان</t>
   </si>
   <si>
@@ -519,12 +513,6 @@
     <t>أشرف أبو سيدو</t>
   </si>
   <si>
-    <t>نور عبيد</t>
-  </si>
-  <si>
-    <t>اياد الريس</t>
-  </si>
-  <si>
     <t>عياد دخان</t>
   </si>
   <si>
@@ -543,43 +531,44 @@
     <t>شـحاتة بـنك</t>
   </si>
   <si>
-    <t>اسامه استثمار ابو طويله</t>
-  </si>
-  <si>
-    <t>أبو فادي أبو سيو</t>
-  </si>
-  <si>
     <t>جهاد أبو حليمة</t>
   </si>
   <si>
     <t>كافور للعطور</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
     <t>أبو مفيد 2</t>
   </si>
   <si>
-    <t xml:space="preserve">أبو أو حطب </t>
-  </si>
-  <si>
     <t>أبو مفيد وأبو طويلة</t>
   </si>
   <si>
     <t>صوان</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندزق احـــــــــــــــمــــــــــــــــــــــــــــــــد</t>
+    <t>أبو فادي أبو سيدو</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t>حمادة للصرافة</t>
+  </si>
+  <si>
+    <t>منيب أبو سيدو</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندوق احــــــــــــــــــــــمـــــــــــــــــــــــــد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -822,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -854,6 +843,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,7 +867,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,6 +936,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1348,14 +1355,14 @@
         <v>130</v>
       </c>
       <c r="B3" s="17">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="E3" s="17">
         <v>3125</v>
@@ -1450,7 +1457,7 @@
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="17">
         <v>61000</v>
@@ -1484,9 +1491,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="17">
         <v>0</v>
       </c>
@@ -1498,14 +1503,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="17">
         <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
@@ -1624,24 +1629,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>600</v>
+        <v>9800</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-9800</v>
       </c>
       <c r="E11" s="17">
-        <v>15425</v>
+        <v>20325</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-15425</v>
+        <v>-20325</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1797,14 +1802,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="17">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="E16" s="17">
         <v>150</v>
@@ -1972,14 +1977,14 @@
         <v>118</v>
       </c>
       <c r="B21" s="17">
-        <v>3195</v>
+        <v>2800</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-3195</v>
+        <v>-2800</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2039,7 +2044,7 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B23" s="17">
         <v>0</v>
@@ -2214,17 +2219,17 @@
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="17">
         <v>0</v>
@@ -2354,7 +2359,7 @@
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -2367,24 +2372,24 @@
         <v>0</v>
       </c>
       <c r="E32" s="17">
-        <v>133562</v>
+        <v>166228</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-133562</v>
+        <v>-166228</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>26522</v>
+        <v>26722</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>26522</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2392,24 +2397,24 @@
         <v>18</v>
       </c>
       <c r="B33" s="17">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="C33" s="17">
-        <v>90600</v>
+        <v>70000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>70600</v>
+        <v>69000</v>
       </c>
       <c r="E33" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="17">
         <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
@@ -2634,7 +2639,7 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="17">
         <v>570</v>
@@ -2775,24 +2780,24 @@
         <v>32</v>
       </c>
       <c r="B44" s="17">
-        <v>0</v>
+        <v>117657</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-117657</v>
       </c>
       <c r="E44" s="17">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F44" s="17">
         <v>0</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2877,7 +2882,7 @@
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -3051,7 +3056,9 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="32" t="s">
+        <v>157</v>
+      </c>
       <c r="B52" s="17">
         <v>0</v>
       </c>
@@ -3063,14 +3070,14 @@
         <v>0</v>
       </c>
       <c r="E52" s="17">
-        <v>0</v>
+        <v>5263</v>
       </c>
       <c r="F52" s="17">
         <v>0</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5263</v>
       </c>
       <c r="H52" s="17">
         <v>0</v>
@@ -3101,11 +3108,11 @@
         <v>26100</v>
       </c>
       <c r="F53" s="17">
-        <v>90100</v>
+        <v>105200</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>64000</v>
+        <v>79100</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3190,7 +3197,7 @@
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B56" s="17">
         <v>0</v>
@@ -3224,9 +3231,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="17">
         <v>0</v>
       </c>
@@ -3276,11 +3281,11 @@
         <v>9434</v>
       </c>
       <c r="F58" s="17">
-        <v>1742</v>
+        <v>1842</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>-7692</v>
+        <v>-7592</v>
       </c>
       <c r="H58" s="17">
         <v>2638</v>
@@ -3295,7 +3300,7 @@
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" s="17">
         <v>0</v>
@@ -3413,14 +3418,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="17">
-        <v>62222</v>
+        <v>62246</v>
       </c>
       <c r="F62" s="17">
         <v>57805</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>-4417</v>
+        <v>-4441</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -3504,9 +3509,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="A65" s="11"/>
       <c r="B65" s="17">
         <v>0</v>
       </c>
@@ -3518,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="E65" s="17">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="F65" s="17">
         <v>0</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>-1980</v>
+        <v>0</v>
       </c>
       <c r="H65" s="17">
         <v>0</v>
@@ -3539,18 +3542,16 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A66" s="11"/>
       <c r="B66" s="17">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C66" s="17">
         <v>0</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
@@ -3575,17 +3576,17 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B67" s="17">
-        <v>22600</v>
+        <v>100</v>
       </c>
       <c r="C67" s="17">
         <v>0</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
-        <v>-22600</v>
+        <v>-100</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -3609,9 +3610,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="17">
         <v>0</v>
       </c>
@@ -3645,7 +3644,7 @@
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="17">
         <v>0</v>
@@ -3903,14 +3902,14 @@
         <v>-6200</v>
       </c>
       <c r="E76" s="17">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="F76" s="17">
         <v>0</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="4"/>
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="17">
         <v>750</v>
@@ -4046,11 +4045,11 @@
         <v>24410</v>
       </c>
       <c r="F80" s="17">
-        <v>11800</v>
+        <v>15300</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-12610</v>
+        <v>-9110</v>
       </c>
       <c r="H80" s="17">
         <v>4510</v>
@@ -4071,21 +4070,21 @@
         <v>16500</v>
       </c>
       <c r="C81" s="17">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="17">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F81" s="17">
         <v>0</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H81" s="17">
         <v>157</v>
@@ -4263,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="H86" s="17">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I86" s="17">
         <v>0</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B87" s="17">
         <v>200</v>
@@ -4415,7 +4414,7 @@
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B91" s="17">
         <v>0</v>
@@ -4428,14 +4427,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="17">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F91" s="17">
-        <v>9625</v>
+        <v>0</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="4"/>
-        <v>9625</v>
+        <v>-375</v>
       </c>
       <c r="H91" s="17">
         <v>0</v>
@@ -4590,27 +4589,27 @@
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B96" s="17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
       </c>
       <c r="D96" s="9">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E96" s="17">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="F96" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4838,24 +4837,24 @@
         <v>63</v>
       </c>
       <c r="B103" s="17">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C103" s="17">
         <v>238483</v>
       </c>
       <c r="D103" s="9">
         <f t="shared" si="3"/>
-        <v>237783</v>
+        <v>237483</v>
       </c>
       <c r="E103" s="17">
         <v>23283</v>
       </c>
       <c r="F103" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-23183</v>
+        <v>-23283</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4883,14 +4882,14 @@
         <v>-200</v>
       </c>
       <c r="E104" s="17">
-        <v>17228</v>
+        <v>15445</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-17228</v>
+        <v>-15445</v>
       </c>
       <c r="H104" s="17">
         <v>100</v>
@@ -5080,7 +5079,7 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B110" s="17">
         <v>4000</v>
@@ -5115,7 +5114,7 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B111" s="17">
         <v>50660</v>
@@ -5303,14 +5302,14 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="F116" s="17">
         <v>16500</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
@@ -5331,11 +5330,11 @@
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>137000</v>
+        <v>136000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>137000</v>
+        <v>136000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5538,34 +5537,34 @@
         <v>81</v>
       </c>
       <c r="B123" s="17">
-        <v>7118</v>
+        <v>1418</v>
       </c>
       <c r="C123" s="17">
         <v>0</v>
       </c>
       <c r="D123" s="9">
         <f t="shared" si="3"/>
-        <v>-7118</v>
+        <v>-1418</v>
       </c>
       <c r="E123" s="17">
-        <v>2168</v>
+        <v>2468</v>
       </c>
       <c r="F123" s="17">
         <v>2350</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>-118</v>
       </c>
       <c r="H123" s="17">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="I123" s="17">
         <v>0</v>
       </c>
       <c r="J123" s="9">
         <f t="shared" si="5"/>
-        <v>-600</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -5675,7 +5674,7 @@
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B127" s="17">
         <v>0</v>
@@ -5710,27 +5709,27 @@
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B128" s="17">
-        <v>0</v>
+        <v>37600</v>
       </c>
       <c r="C128" s="17">
         <v>0</v>
       </c>
       <c r="D128" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-37600</v>
       </c>
       <c r="E128" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F128" s="17">
         <v>0</v>
       </c>
       <c r="G128" s="9">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H128" s="17">
         <v>0</v>
@@ -5955,7 +5954,7 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -6095,7 +6094,7 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B139" s="17">
         <v>0</v>
@@ -6178,14 +6177,14 @@
         <v>-500</v>
       </c>
       <c r="E141" s="17">
-        <v>51321</v>
+        <v>67045</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-51321</v>
+        <v>-67045</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6235,27 +6234,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B143" s="17">
-        <v>3820</v>
+        <v>3920</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-3820</v>
+        <v>-3920</v>
       </c>
       <c r="E143" s="17">
-        <v>1650</v>
+        <v>750</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-1650</v>
+        <v>-750</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6388,14 +6387,14 @@
         <v>1900</v>
       </c>
       <c r="E147" s="17">
-        <v>30834</v>
+        <v>19001</v>
       </c>
       <c r="F147" s="17">
         <v>0</v>
       </c>
       <c r="G147" s="9">
         <f t="shared" si="7"/>
-        <v>-30834</v>
+        <v>-19001</v>
       </c>
       <c r="H147" s="17">
         <v>0</v>
@@ -6413,24 +6412,24 @@
         <v>96</v>
       </c>
       <c r="B148" s="17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>567360</v>
+        <v>570360</v>
       </c>
       <c r="E148" s="17">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F148" s="17">
         <v>0</v>
       </c>
       <c r="G148" s="9">
         <f t="shared" si="7"/>
-        <v>-2000</v>
+        <v>-1500</v>
       </c>
       <c r="H148" s="17">
         <v>100</v>
@@ -6448,24 +6447,24 @@
         <v>128</v>
       </c>
       <c r="B149" s="17">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1602</v>
       </c>
       <c r="E149" s="17">
-        <v>15800</v>
+        <v>19800</v>
       </c>
       <c r="F149" s="17">
         <v>74000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>58200</v>
+        <v>54200</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6480,7 +6479,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B150" s="17">
         <v>200</v>
@@ -6550,7 +6549,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6697,7 +6696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A137" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6749,7 +6750,7 @@
         <v>130</v>
       </c>
       <c r="B4" s="19">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="C4" s="19">
         <v>-3125</v>
@@ -6788,7 +6789,7 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="19">
         <v>-61000</v>
@@ -6801,14 +6802,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="19">
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -6857,10 +6856,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-600</v>
+        <v>-9800</v>
       </c>
       <c r="C12" s="19">
-        <v>-15425</v>
+        <v>-20325</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -6925,7 +6924,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="19">
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="C17" s="19">
         <v>-150</v>
@@ -6995,7 +6994,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="19">
-        <v>-3195</v>
+        <v>-2800</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -7020,7 +7019,7 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B24" s="19">
         <v>0</v>
@@ -7090,10 +7089,10 @@
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" s="19">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
@@ -7146,16 +7145,16 @@
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>-133562</v>
+        <v>-166228</v>
       </c>
       <c r="D33" s="19">
-        <v>26522</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7163,10 +7162,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="19">
-        <v>70600</v>
+        <v>69000</v>
       </c>
       <c r="C34" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D34" s="19">
         <v>0</v>
@@ -7258,7 +7257,7 @@
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41" s="19">
         <v>-570</v>
@@ -7315,10 +7314,10 @@
         <v>32</v>
       </c>
       <c r="B45" s="19">
-        <v>0</v>
+        <v>-117657</v>
       </c>
       <c r="C45" s="19">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="D45" s="19">
         <v>0</v>
@@ -7354,7 +7353,7 @@
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="19">
         <v>0</v>
@@ -7423,12 +7422,14 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="32" t="s">
+        <v>157</v>
+      </c>
       <c r="B53" s="19">
         <v>0</v>
       </c>
       <c r="C53" s="19">
-        <v>0</v>
+        <v>-5263</v>
       </c>
       <c r="D53" s="19">
         <v>0</v>
@@ -7442,7 +7443,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>64000</v>
+        <v>79100</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7478,7 +7479,7 @@
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
@@ -7491,9 +7492,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="19">
         <v>0</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>-1862</v>
       </c>
       <c r="C59" s="19">
-        <v>-7692</v>
+        <v>-7592</v>
       </c>
       <c r="D59" s="19">
         <v>5462</v>
@@ -7520,7 +7519,7 @@
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="19">
         <v>0</v>
@@ -7568,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="19">
-        <v>-4417</v>
+        <v>-4441</v>
       </c>
       <c r="D63" s="19">
         <v>0</v>
@@ -7603,25 +7602,21 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="A66" s="11"/>
       <c r="B66" s="19">
         <v>0</v>
       </c>
       <c r="C66" s="19">
-        <v>-1980</v>
+        <v>0</v>
       </c>
       <c r="D66" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A67" s="11"/>
       <c r="B67" s="19">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="C67" s="19">
         <v>0</v>
@@ -7632,10 +7627,10 @@
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B68" s="19">
-        <v>-22600</v>
+        <v>-100</v>
       </c>
       <c r="C68" s="19">
         <v>0</v>
@@ -7645,9 +7640,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="19">
         <v>0</v>
       </c>
@@ -7660,7 +7653,7 @@
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B70" s="19">
         <v>0</v>
@@ -7764,7 +7757,7 @@
         <v>-6200</v>
       </c>
       <c r="C77" s="19">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="D77" s="19">
         <v>-750</v>
@@ -7820,7 +7813,7 @@
         <v>163</v>
       </c>
       <c r="C81" s="19">
-        <v>-12610</v>
+        <v>-9110</v>
       </c>
       <c r="D81" s="19">
         <v>-2507</v>
@@ -7831,10 +7824,10 @@
         <v>45</v>
       </c>
       <c r="B82" s="19">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="C82" s="19">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D82" s="19">
         <v>-157</v>
@@ -7907,12 +7900,12 @@
         <v>0</v>
       </c>
       <c r="D87" s="19">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B88" s="19">
         <v>-200</v>
@@ -7970,13 +7963,13 @@
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>9625</v>
+        <v>-375</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -8040,13 +8033,13 @@
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B97" s="19">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8141,10 +8134,10 @@
         <v>63</v>
       </c>
       <c r="B104" s="19">
-        <v>237783</v>
+        <v>237483</v>
       </c>
       <c r="C104" s="19">
-        <v>-23183</v>
+        <v>-23283</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8158,7 +8151,7 @@
         <v>-200</v>
       </c>
       <c r="C105" s="19">
-        <v>-17228</v>
+        <v>-15445</v>
       </c>
       <c r="D105" s="19">
         <v>-100</v>
@@ -8236,7 +8229,7 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B111" s="19">
         <v>-4000</v>
@@ -8250,7 +8243,7 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B112" s="19">
         <v>-50660</v>
@@ -8326,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
@@ -8337,7 +8330,7 @@
         <v>75</v>
       </c>
       <c r="B118" s="19">
-        <v>137000</v>
+        <v>136000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8421,13 +8414,13 @@
         <v>81</v>
       </c>
       <c r="B124" s="19">
-        <v>-7118</v>
+        <v>-1418</v>
       </c>
       <c r="C124" s="19">
-        <v>182</v>
+        <v>-118</v>
       </c>
       <c r="D124" s="19">
-        <v>-600</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8474,7 +8467,7 @@
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B128" s="19">
         <v>0</v>
@@ -8488,13 +8481,13 @@
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B129" s="19">
-        <v>0</v>
+        <v>-37600</v>
       </c>
       <c r="C129" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D129" s="19">
         <v>0</v>
@@ -8586,7 +8579,7 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B136" s="19">
         <v>0</v>
@@ -8642,7 +8635,7 @@
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B140" s="19">
         <v>0</v>
@@ -8676,7 +8669,7 @@
         <v>-500</v>
       </c>
       <c r="C142" s="19">
-        <v>-51321</v>
+        <v>-67045</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8698,13 +8691,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B144" s="19">
-        <v>-3820</v>
+        <v>-3920</v>
       </c>
       <c r="C144" s="19">
-        <v>-1650</v>
+        <v>-750</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8760,7 +8753,7 @@
         <v>1900</v>
       </c>
       <c r="C148" s="19">
-        <v>-30834</v>
+        <v>-19001</v>
       </c>
       <c r="D148" s="19">
         <v>0</v>
@@ -8771,10 +8764,10 @@
         <v>96</v>
       </c>
       <c r="B149" s="19">
-        <v>567360</v>
+        <v>570360</v>
       </c>
       <c r="C149" s="19">
-        <v>-2000</v>
+        <v>-1500</v>
       </c>
       <c r="D149" s="19">
         <v>-100</v>
@@ -8785,10 +8778,10 @@
         <v>128</v>
       </c>
       <c r="B150" s="19">
-        <v>0</v>
+        <v>-1602</v>
       </c>
       <c r="C150" s="19">
-        <v>58200</v>
+        <v>54200</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
@@ -8796,7 +8789,7 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B151" s="19">
         <v>-200</v>
@@ -8824,7 +8817,7 @@
     </row>
     <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8853,19 +8846,19 @@
     </row>
     <row r="155" spans="1:7" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>860196</v>
+        <v>725702</v>
       </c>
       <c r="C155" s="24">
         <f>SUM(C2:C154)</f>
-        <v>-257061</v>
+        <v>-284312</v>
       </c>
       <c r="D155" s="24">
         <f>SUM(D2:D154)</f>
-        <v>49001</v>
+        <v>48851</v>
       </c>
       <c r="E155" s="24">
         <f>SUM(E2:E154)</f>
@@ -8912,12 +8905,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B160" s="19">
-        <v>1070924</v>
+      <c r="B160" s="37">
+        <v>875598</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
@@ -8928,12 +8921,12 @@
       </c>
       <c r="G160" s="19"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B161" s="19">
-        <v>262642</v>
+        <v>304627</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
@@ -8949,7 +8942,7 @@
         <v>110</v>
       </c>
       <c r="B162" s="19">
-        <v>-47129</v>
+        <v>-44254</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
@@ -8968,7 +8961,7 @@
         <v>111</v>
       </c>
       <c r="B163" s="19">
-        <v>8785</v>
+        <v>18015</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
@@ -8987,7 +8980,7 @@
         <v>113</v>
       </c>
       <c r="B164" s="19">
-        <v>4018</v>
+        <v>10968</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
@@ -9003,7 +8996,7 @@
         <v>112</v>
       </c>
       <c r="B165" s="19">
-        <v>5450</v>
+        <v>9170</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">

--- a/excel/new/صندوقكاظم الجديد.xlsx
+++ b/excel/new/صندوقكاظم الجديد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6B799-C308-44A7-9BC8-1F8FF3229CE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBF8EF-67D1-4BA4-ABEA-6A586EFFC0D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{4FB5CC76-52EF-4329-AF18-2B4CE3121F3D}">
+    <comment ref="B129" authorId="0" shapeId="0" xr:uid="{E29CF40D-2F67-4F75-86A1-5D4124763D05}">
       <text>
         <r>
           <rPr>
@@ -510,15 +510,6 @@
     <t>حمود الحايك</t>
   </si>
   <si>
-    <t>أشرف أبو سيدو</t>
-  </si>
-  <si>
-    <t>عياد دخان</t>
-  </si>
-  <si>
-    <t>جهاد الريس</t>
-  </si>
-  <si>
     <t>يوسف الغمري</t>
   </si>
   <si>
@@ -537,12 +528,6 @@
     <t>كافور للعطور</t>
   </si>
   <si>
-    <t>أبو مفيد 2</t>
-  </si>
-  <si>
-    <t>أبو مفيد وأبو طويلة</t>
-  </si>
-  <si>
     <t>صوان</t>
   </si>
   <si>
@@ -552,13 +537,28 @@
     <t>الزهارنة ألمنيوم</t>
   </si>
   <si>
-    <t>حمادة للصرافة</t>
-  </si>
-  <si>
     <t>منيب أبو سيدو</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندوق احــــــــــــــــــــــمـــــــــــــــــــــــــد</t>
+    <t>حمودة ساعد</t>
+  </si>
+  <si>
+    <t>أبو تامر عزام</t>
+  </si>
+  <si>
+    <t>عماد أبو سيدو</t>
+  </si>
+  <si>
+    <t>الرنتيسي</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>رماح الريس</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق 2 صندوق احـــــــــــــــــــــــــــــمــــــــــــــــــــــــــــــد</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,7 +928,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,9 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1285,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J153"/>
     </sheetView>
   </sheetViews>
@@ -1355,14 +1352,14 @@
         <v>130</v>
       </c>
       <c r="B3" s="17">
-        <v>2100</v>
+        <v>2850</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-2100</v>
+        <v>-2850</v>
       </c>
       <c r="E3" s="17">
         <v>3125</v>
@@ -1629,24 +1626,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="17">
-        <v>9800</v>
+        <v>51593</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>-9800</v>
+        <v>-51593</v>
       </c>
       <c r="E11" s="17">
-        <v>20325</v>
+        <v>7976</v>
       </c>
       <c r="F11" s="17">
         <v>0</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>-20325</v>
+        <v>-7976</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -1660,7 +1657,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="B12" s="17">
         <v>0</v>
       </c>
@@ -1672,14 +1671,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12" s="17">
         <v>0</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H12" s="17">
         <v>0</v>
@@ -1869,7 +1868,7 @@
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B18" s="17">
         <v>0</v>
@@ -1952,14 +1951,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F20" s="17">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>-12000</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
@@ -1977,14 +1976,14 @@
         <v>118</v>
       </c>
       <c r="B21" s="17">
-        <v>2800</v>
+        <v>2580</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-2580</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -2044,7 +2043,7 @@
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" s="17">
         <v>0</v>
@@ -2057,14 +2056,14 @@
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" s="17">
         <v>0</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="17">
         <v>0</v>
@@ -2218,9 +2217,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="17">
         <v>0</v>
       </c>
@@ -2242,14 +2239,14 @@
         <v>0</v>
       </c>
       <c r="H28" s="17">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>-2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2270,11 +2267,11 @@
         <v>13565</v>
       </c>
       <c r="F29" s="17">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>1435</v>
+        <v>6435</v>
       </c>
       <c r="H29" s="17">
         <v>0</v>
@@ -2362,34 +2359,34 @@
         <v>160</v>
       </c>
       <c r="B32" s="17">
-        <v>0</v>
+        <v>20490</v>
       </c>
       <c r="C32" s="17">
         <v>0</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-20490</v>
       </c>
       <c r="E32" s="17">
-        <v>166228</v>
+        <v>225805</v>
       </c>
       <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>-166228</v>
+        <v>-225805</v>
       </c>
       <c r="H32" s="17">
         <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>26722</v>
+        <v>21552</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>26722</v>
+        <v>21552</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2397,24 +2394,24 @@
         <v>18</v>
       </c>
       <c r="B33" s="17">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C33" s="17">
-        <v>70000</v>
+        <v>5000</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>69000</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F33" s="17">
         <v>0</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
@@ -2547,14 +2544,14 @@
         <v>0</v>
       </c>
       <c r="E37" s="17">
-        <v>4372</v>
+        <v>7952</v>
       </c>
       <c r="F37" s="17">
         <v>2950</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>-1422</v>
+        <v>-5002</v>
       </c>
       <c r="H37" s="17">
         <v>0</v>
@@ -2712,14 +2709,14 @@
         <v>122</v>
       </c>
       <c r="B42" s="17">
-        <v>1400</v>
+        <v>2685</v>
       </c>
       <c r="C42" s="17">
         <v>1000</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>-1685</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
@@ -2743,26 +2740,28 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="B43" s="17">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F43" s="17">
         <v>0</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="H43" s="17">
         <v>0</v>
@@ -3025,14 +3024,14 @@
         <v>28</v>
       </c>
       <c r="B51" s="17">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>-2500</v>
+        <v>-7500</v>
       </c>
       <c r="E51" s="17">
         <v>900</v>
@@ -3057,7 +3056,7 @@
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B52" s="17">
         <v>0</v>
@@ -3105,14 +3104,14 @@
         <v>-5000</v>
       </c>
       <c r="E53" s="17">
-        <v>26100</v>
+        <v>29300</v>
       </c>
       <c r="F53" s="17">
-        <v>105200</v>
+        <v>115300</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>79100</v>
+        <v>86000</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
@@ -3197,7 +3196,7 @@
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56" s="17">
         <v>0</v>
@@ -3220,18 +3219,20 @@
         <v>0</v>
       </c>
       <c r="H56" s="17">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I56" s="17">
         <v>0</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="2"/>
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B57" s="17">
         <v>0</v>
       </c>
@@ -3243,14 +3244,14 @@
         <v>0</v>
       </c>
       <c r="E57" s="17">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F57" s="17">
         <v>0</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="H57" s="17">
         <v>0</v>
@@ -3288,14 +3289,14 @@
         <v>-7592</v>
       </c>
       <c r="H58" s="17">
-        <v>2638</v>
+        <v>5968</v>
       </c>
       <c r="I58" s="17">
-        <v>8100</v>
+        <v>16600</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="2"/>
-        <v>5462</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -3509,16 +3510,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="B65" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C65" s="17">
         <v>0</v>
       </c>
       <c r="D65" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E65" s="17">
         <v>0</v>
@@ -3542,16 +3545,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="B66" s="17">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="C66" s="17">
         <v>0</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
@@ -3576,17 +3581,17 @@
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" s="17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C67" s="17">
         <v>0</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E67" s="17">
         <v>0</v>
@@ -3755,11 +3760,11 @@
         <v>19620</v>
       </c>
       <c r="C72" s="17">
-        <v>15350</v>
+        <v>17620</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="3"/>
-        <v>-4270</v>
+        <v>-2000</v>
       </c>
       <c r="E72" s="17">
         <v>0</v>
@@ -4035,21 +4040,21 @@
         <v>0</v>
       </c>
       <c r="C80" s="17">
-        <v>163</v>
+        <v>5000</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>5000</v>
       </c>
       <c r="E80" s="17">
-        <v>24410</v>
+        <v>39660</v>
       </c>
       <c r="F80" s="17">
-        <v>15300</v>
+        <v>18300</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="4"/>
-        <v>-9110</v>
+        <v>-21360</v>
       </c>
       <c r="H80" s="17">
         <v>4510</v>
@@ -4067,14 +4072,14 @@
         <v>45</v>
       </c>
       <c r="B81" s="17">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="C81" s="17">
-        <v>11500</v>
+        <v>10400</v>
       </c>
       <c r="D81" s="9">
         <f t="shared" si="3"/>
-        <v>-5000</v>
+        <v>-6500</v>
       </c>
       <c r="E81" s="17">
         <v>900</v>
@@ -4273,28 +4278,26 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="A87" s="11"/>
       <c r="B87" s="17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C87" s="17">
         <v>0</v>
       </c>
       <c r="D87" s="9">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E87" s="17">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F87" s="17">
         <v>0</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H87" s="17">
         <v>0</v>
@@ -4413,9 +4416,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="A91" s="11"/>
       <c r="B91" s="17">
         <v>0</v>
       </c>
@@ -4427,14 +4428,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="17">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F91" s="17">
         <v>0</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="4"/>
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="H91" s="17">
         <v>0</v>
@@ -4525,11 +4526,11 @@
         <v>0</v>
       </c>
       <c r="C94" s="17">
-        <v>9000</v>
+        <v>6550</v>
       </c>
       <c r="D94" s="9">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>6550</v>
       </c>
       <c r="E94" s="17">
         <v>4600</v>
@@ -4605,11 +4606,11 @@
         <v>1200</v>
       </c>
       <c r="F96" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="4"/>
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="H96" s="17">
         <v>0</v>
@@ -4847,14 +4848,14 @@
         <v>237483</v>
       </c>
       <c r="E103" s="17">
-        <v>23283</v>
+        <v>23483</v>
       </c>
       <c r="F103" s="17">
         <v>0</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="4"/>
-        <v>-23283</v>
+        <v>-23483</v>
       </c>
       <c r="H103" s="17">
         <v>400</v>
@@ -4882,14 +4883,14 @@
         <v>-200</v>
       </c>
       <c r="E104" s="17">
-        <v>15445</v>
+        <v>14783</v>
       </c>
       <c r="F104" s="17">
         <v>0</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="4"/>
-        <v>-15445</v>
+        <v>-14783</v>
       </c>
       <c r="H104" s="17">
         <v>100</v>
@@ -5079,7 +5080,7 @@
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B110" s="17">
         <v>4000</v>
@@ -5114,27 +5115,27 @@
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B111" s="17">
-        <v>50660</v>
+        <v>0</v>
       </c>
       <c r="C111" s="17">
-        <v>0</v>
+        <v>21810</v>
       </c>
       <c r="D111" s="9">
         <f t="shared" si="3"/>
-        <v>-50660</v>
+        <v>21810</v>
       </c>
       <c r="E111" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F111" s="17">
         <v>0</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H111" s="17">
         <v>0</v>
@@ -5267,14 +5268,14 @@
         <v>0</v>
       </c>
       <c r="E115" s="17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F115" s="17">
         <v>10000</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="H115" s="17">
         <v>0</v>
@@ -5302,24 +5303,24 @@
         <v>0</v>
       </c>
       <c r="E116" s="17">
-        <v>16400</v>
+        <v>0</v>
       </c>
       <c r="F116" s="17">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="H116" s="17">
         <v>0</v>
       </c>
       <c r="I116" s="17">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J116" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -5330,11 +5331,11 @@
         <v>0</v>
       </c>
       <c r="C117" s="17">
-        <v>136000</v>
+        <v>140000</v>
       </c>
       <c r="D117" s="9">
         <f t="shared" si="3"/>
-        <v>136000</v>
+        <v>140000</v>
       </c>
       <c r="E117" s="17">
         <v>0</v>
@@ -5432,14 +5433,14 @@
         <v>78</v>
       </c>
       <c r="B120" s="17">
-        <v>700</v>
+        <v>2750</v>
       </c>
       <c r="C120" s="17">
         <v>26750</v>
       </c>
       <c r="D120" s="9">
         <f t="shared" si="3"/>
-        <v>26050</v>
+        <v>24000</v>
       </c>
       <c r="E120" s="17">
         <v>3000</v>
@@ -5547,14 +5548,14 @@
         <v>-1418</v>
       </c>
       <c r="E123" s="17">
-        <v>2468</v>
+        <v>4668</v>
       </c>
       <c r="F123" s="17">
         <v>2350</v>
       </c>
       <c r="G123" s="9">
         <f t="shared" si="4"/>
-        <v>-118</v>
+        <v>-2318</v>
       </c>
       <c r="H123" s="17">
         <v>350</v>
@@ -5620,11 +5621,11 @@
         <v>0</v>
       </c>
       <c r="F125" s="17">
-        <v>22316</v>
+        <v>24447</v>
       </c>
       <c r="G125" s="9">
         <f t="shared" si="4"/>
-        <v>22316</v>
+        <v>24447</v>
       </c>
       <c r="H125" s="17">
         <v>0</v>
@@ -5708,18 +5709,16 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="A128" s="11"/>
       <c r="B128" s="17">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="C128" s="17">
         <v>0</v>
       </c>
       <c r="D128" s="9">
         <f t="shared" si="3"/>
-        <v>-37600</v>
+        <v>0</v>
       </c>
       <c r="E128" s="17">
         <v>0</v>
@@ -5890,11 +5889,11 @@
         <v>15000</v>
       </c>
       <c r="C133" s="17">
-        <v>28100</v>
+        <v>15500</v>
       </c>
       <c r="D133" s="9">
         <f t="shared" si="6"/>
-        <v>13100</v>
+        <v>500</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
@@ -5954,7 +5953,7 @@
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B135" s="17">
         <v>0</v>
@@ -5977,14 +5976,14 @@
         <v>-100</v>
       </c>
       <c r="H135" s="17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I135" s="17">
         <v>0</v>
       </c>
       <c r="J135" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -6072,14 +6071,14 @@
         <v>0</v>
       </c>
       <c r="E138" s="17">
-        <v>17876</v>
+        <v>19466</v>
       </c>
       <c r="F138" s="17">
         <v>30000</v>
       </c>
       <c r="G138" s="9">
         <f t="shared" si="7"/>
-        <v>12124</v>
+        <v>10534</v>
       </c>
       <c r="H138" s="17">
         <v>0</v>
@@ -6093,9 +6092,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="34" t="s">
-        <v>154</v>
-      </c>
+      <c r="A139" s="4"/>
       <c r="B139" s="17">
         <v>0</v>
       </c>
@@ -6107,14 +6104,14 @@
         <v>0</v>
       </c>
       <c r="E139" s="17">
-        <v>23822</v>
+        <v>0</v>
       </c>
       <c r="F139" s="17">
-        <v>16665</v>
+        <v>0</v>
       </c>
       <c r="G139" s="9">
         <f t="shared" si="7"/>
-        <v>-7157</v>
+        <v>0</v>
       </c>
       <c r="H139" s="17">
         <v>0</v>
@@ -6167,24 +6164,24 @@
         <v>134</v>
       </c>
       <c r="B141" s="17">
-        <v>500</v>
+        <v>193500</v>
       </c>
       <c r="C141" s="17">
         <v>0</v>
       </c>
       <c r="D141" s="9">
         <f t="shared" si="6"/>
-        <v>-500</v>
+        <v>-193500</v>
       </c>
       <c r="E141" s="17">
-        <v>67045</v>
+        <v>57647</v>
       </c>
       <c r="F141" s="17">
         <v>0</v>
       </c>
       <c r="G141" s="9">
         <f t="shared" si="7"/>
-        <v>-67045</v>
+        <v>-57647</v>
       </c>
       <c r="H141" s="17">
         <v>383</v>
@@ -6234,27 +6231,27 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B143" s="17">
-        <v>3920</v>
+        <v>4800</v>
       </c>
       <c r="C143" s="17">
         <v>0</v>
       </c>
       <c r="D143" s="9">
         <f t="shared" si="6"/>
-        <v>-3920</v>
+        <v>-4800</v>
       </c>
       <c r="E143" s="17">
-        <v>750</v>
+        <v>1488</v>
       </c>
       <c r="F143" s="17">
         <v>0</v>
       </c>
       <c r="G143" s="9">
         <f t="shared" si="7"/>
-        <v>-750</v>
+        <v>-1488</v>
       </c>
       <c r="H143" s="17">
         <v>0</v>
@@ -6412,14 +6409,14 @@
         <v>96</v>
       </c>
       <c r="B148" s="17">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C148" s="17">
         <v>570360</v>
       </c>
       <c r="D148" s="9">
         <f t="shared" si="6"/>
-        <v>570360</v>
+        <v>568360</v>
       </c>
       <c r="E148" s="17">
         <v>1500</v>
@@ -6447,24 +6444,24 @@
         <v>128</v>
       </c>
       <c r="B149" s="17">
-        <v>1602</v>
+        <v>22380</v>
       </c>
       <c r="C149" s="17">
         <v>0</v>
       </c>
       <c r="D149" s="9">
         <f t="shared" si="6"/>
-        <v>-1602</v>
+        <v>-22380</v>
       </c>
       <c r="E149" s="17">
         <v>19800</v>
       </c>
       <c r="F149" s="17">
-        <v>74000</v>
+        <v>124000</v>
       </c>
       <c r="G149" s="9">
         <f t="shared" si="7"/>
-        <v>54200</v>
+        <v>104200</v>
       </c>
       <c r="H149" s="17">
         <v>0</v>
@@ -6479,17 +6476,17 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B150" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C150" s="17">
         <v>0</v>
       </c>
       <c r="D150" s="9">
         <f t="shared" si="6"/>
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E150" s="17">
         <v>0</v>
@@ -6549,7 +6546,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B152" s="17">
         <v>0</v>
@@ -6696,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A137" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6750,7 +6747,7 @@
         <v>130</v>
       </c>
       <c r="B4" s="19">
-        <v>-2100</v>
+        <v>-2850</v>
       </c>
       <c r="C4" s="19">
         <v>-3125</v>
@@ -6856,22 +6853,24 @@
         <v>3</v>
       </c>
       <c r="B12" s="19">
-        <v>-9800</v>
+        <v>-51593</v>
       </c>
       <c r="C12" s="19">
-        <v>-20325</v>
+        <v>-7976</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="B13" s="19">
         <v>0</v>
       </c>
       <c r="C13" s="19">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -6949,7 +6948,7 @@
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B19" s="19">
         <v>42163</v>
@@ -6983,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="19">
-        <v>5000</v>
+        <v>-12000</v>
       </c>
       <c r="D21" s="19">
         <v>66</v>
@@ -6994,7 +6993,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="19">
-        <v>-2800</v>
+        <v>-2580</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -7019,13 +7018,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" s="19">
         <v>0</v>
       </c>
       <c r="C24" s="19">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -7088,9 +7087,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="19">
         <v>0</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="19">
-        <v>-2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7109,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="19">
-        <v>1435</v>
+        <v>6435</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -7148,13 +7145,13 @@
         <v>160</v>
       </c>
       <c r="B33" s="19">
-        <v>0</v>
+        <v>-20490</v>
       </c>
       <c r="C33" s="19">
-        <v>-166228</v>
+        <v>-225805</v>
       </c>
       <c r="D33" s="19">
-        <v>26722</v>
+        <v>21552</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7162,10 +7159,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="19">
-        <v>69000</v>
+        <v>2500</v>
       </c>
       <c r="C34" s="19">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="19">
         <v>0</v>
@@ -7221,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="19">
-        <v>-1422</v>
+        <v>-5002</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
@@ -7288,7 +7285,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="19">
-        <v>-400</v>
+        <v>-1685</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -7298,12 +7295,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="B44" s="19">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C44" s="19">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="D44" s="19">
         <v>0</v>
@@ -7412,7 +7411,7 @@
         <v>28</v>
       </c>
       <c r="B52" s="19">
-        <v>-2500</v>
+        <v>-7500</v>
       </c>
       <c r="C52" s="19">
         <v>-200</v>
@@ -7423,7 +7422,7 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B53" s="19">
         <v>0</v>
@@ -7443,7 +7442,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="19">
-        <v>79100</v>
+        <v>86000</v>
       </c>
       <c r="D54" s="19">
         <v>0</v>
@@ -7479,7 +7478,7 @@
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57" s="19">
         <v>0</v>
@@ -7488,16 +7487,18 @@
         <v>0</v>
       </c>
       <c r="D57" s="19">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="B58" s="19">
         <v>0</v>
       </c>
       <c r="C58" s="19">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="D58" s="19">
         <v>0</v>
@@ -7514,7 +7515,7 @@
         <v>-7592</v>
       </c>
       <c r="D59" s="19">
-        <v>5462</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7602,9 +7603,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="B66" s="19">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C66" s="19">
         <v>0</v>
@@ -7614,9 +7617,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="B67" s="19">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="C67" s="19">
         <v>0</v>
@@ -7627,10 +7632,10 @@
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B68" s="19">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C68" s="19">
         <v>0</v>
@@ -7698,7 +7703,7 @@
         <v>39</v>
       </c>
       <c r="B73" s="19">
-        <v>-4270</v>
+        <v>-2000</v>
       </c>
       <c r="C73" s="19">
         <v>0</v>
@@ -7810,10 +7815,10 @@
         <v>132</v>
       </c>
       <c r="B81" s="19">
-        <v>163</v>
+        <v>5000</v>
       </c>
       <c r="C81" s="19">
-        <v>-9110</v>
+        <v>-21360</v>
       </c>
       <c r="D81" s="19">
         <v>-2507</v>
@@ -7824,7 +7829,7 @@
         <v>45</v>
       </c>
       <c r="B82" s="19">
-        <v>-5000</v>
+        <v>-6500</v>
       </c>
       <c r="C82" s="19">
         <v>-900</v>
@@ -7904,14 +7909,12 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="A88" s="11"/>
       <c r="B88" s="19">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C88" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D88" s="19">
         <v>0</v>
@@ -7962,14 +7965,12 @@
       <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="A92" s="11"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
       <c r="C92" s="19">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
@@ -8008,7 +8009,7 @@
         <v>55</v>
       </c>
       <c r="B95" s="19">
-        <v>9000</v>
+        <v>6550</v>
       </c>
       <c r="C95" s="19">
         <v>-4600</v>
@@ -8039,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="19">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
@@ -8137,7 +8138,7 @@
         <v>237483</v>
       </c>
       <c r="C104" s="19">
-        <v>-23283</v>
+        <v>-23483</v>
       </c>
       <c r="D104" s="19">
         <v>-400</v>
@@ -8151,7 +8152,7 @@
         <v>-200</v>
       </c>
       <c r="C105" s="19">
-        <v>-15445</v>
+        <v>-14783</v>
       </c>
       <c r="D105" s="19">
         <v>-100</v>
@@ -8229,7 +8230,7 @@
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B111" s="19">
         <v>-4000</v>
@@ -8243,13 +8244,13 @@
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B112" s="19">
-        <v>-50660</v>
+        <v>21810</v>
       </c>
       <c r="C112" s="19">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D112" s="19">
         <v>0</v>
@@ -8305,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="19">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
@@ -8319,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="C117" s="19">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="D117" s="19">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8330,7 +8331,7 @@
         <v>75</v>
       </c>
       <c r="B118" s="19">
-        <v>136000</v>
+        <v>140000</v>
       </c>
       <c r="C118" s="19">
         <v>0</v>
@@ -8372,7 +8373,7 @@
         <v>78</v>
       </c>
       <c r="B121" s="19">
-        <v>26050</v>
+        <v>24000</v>
       </c>
       <c r="C121" s="19">
         <v>-3000</v>
@@ -8417,7 +8418,7 @@
         <v>-1418</v>
       </c>
       <c r="C124" s="19">
-        <v>-118</v>
+        <v>-2318</v>
       </c>
       <c r="D124" s="19">
         <v>-350</v>
@@ -8445,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="19">
-        <v>22316</v>
+        <v>24447</v>
       </c>
       <c r="D126" s="19">
         <v>0</v>
@@ -8480,11 +8481,9 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="A129" s="11"/>
       <c r="B129" s="19">
-        <v>-37600</v>
+        <v>0</v>
       </c>
       <c r="C129" s="19">
         <v>0</v>
@@ -8554,7 +8553,7 @@
         <v>88</v>
       </c>
       <c r="B134" s="19">
-        <v>13100</v>
+        <v>500</v>
       </c>
       <c r="C134" s="19">
         <v>0</v>
@@ -8579,7 +8578,7 @@
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B136" s="19">
         <v>0</v>
@@ -8588,7 +8587,7 @@
         <v>-100</v>
       </c>
       <c r="D136" s="19">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8627,21 +8626,19 @@
         <v>0</v>
       </c>
       <c r="C139" s="19">
-        <v>12124</v>
+        <v>10534</v>
       </c>
       <c r="D139" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
-        <v>154</v>
-      </c>
+      <c r="A140" s="4"/>
       <c r="B140" s="19">
         <v>0</v>
       </c>
       <c r="C140" s="19">
-        <v>-7157</v>
+        <v>0</v>
       </c>
       <c r="D140" s="19">
         <v>0</v>
@@ -8666,10 +8663,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="19">
-        <v>-500</v>
+        <v>-193500</v>
       </c>
       <c r="C142" s="19">
-        <v>-67045</v>
+        <v>-57647</v>
       </c>
       <c r="D142" s="19">
         <v>-383</v>
@@ -8691,13 +8688,13 @@
     </row>
     <row r="144" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B144" s="19">
-        <v>-3920</v>
+        <v>-4800</v>
       </c>
       <c r="C144" s="19">
-        <v>-750</v>
+        <v>-1488</v>
       </c>
       <c r="D144" s="19">
         <v>0</v>
@@ -8764,7 +8761,7 @@
         <v>96</v>
       </c>
       <c r="B149" s="19">
-        <v>570360</v>
+        <v>568360</v>
       </c>
       <c r="C149" s="19">
         <v>-1500</v>
@@ -8778,10 +8775,10 @@
         <v>128</v>
       </c>
       <c r="B150" s="19">
-        <v>-1602</v>
+        <v>-22380</v>
       </c>
       <c r="C150" s="19">
-        <v>54200</v>
+        <v>104200</v>
       </c>
       <c r="D150" s="19">
         <v>0</v>
@@ -8789,10 +8786,10 @@
     </row>
     <row r="151" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B151" s="19">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="C151" s="19">
         <v>0</v>
@@ -8817,7 +8814,7 @@
     </row>
     <row r="153" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B153" s="19">
         <v>0</v>
@@ -8850,15 +8847,15 @@
       </c>
       <c r="B155" s="24">
         <f>SUM(B2:B154)</f>
-        <v>725702</v>
+        <v>471176</v>
       </c>
       <c r="C155" s="24">
         <f>SUM(C2:C154)</f>
-        <v>-284312</v>
+        <v>-279521</v>
       </c>
       <c r="D155" s="24">
         <f>SUM(D2:D154)</f>
-        <v>48851</v>
+        <v>51851</v>
       </c>
       <c r="E155" s="24">
         <f>SUM(E2:E154)</f>
@@ -8909,8 +8906,8 @@
       <c r="A160" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B160" s="37">
-        <v>875598</v>
+      <c r="B160" s="34">
+        <v>650790</v>
       </c>
       <c r="C160" s="28"/>
       <c r="D160" s="27" t="s">
@@ -8926,7 +8923,7 @@
         <v>109</v>
       </c>
       <c r="B161" s="19">
-        <v>304627</v>
+        <v>334757</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="27" t="s">
@@ -8942,7 +8939,7 @@
         <v>110</v>
       </c>
       <c r="B162" s="19">
-        <v>-44254</v>
+        <v>-25940</v>
       </c>
       <c r="C162" s="28"/>
       <c r="D162" s="27" t="s">
@@ -8961,7 +8958,7 @@
         <v>111</v>
       </c>
       <c r="B163" s="19">
-        <v>18015</v>
+        <v>2</v>
       </c>
       <c r="C163" s="28"/>
       <c r="D163" s="27" t="s">
@@ -8980,7 +8977,7 @@
         <v>113</v>
       </c>
       <c r="B164" s="19">
-        <v>10968</v>
+        <v>10733</v>
       </c>
       <c r="C164" s="28"/>
       <c r="D164" s="27" t="s">
@@ -8996,7 +8993,7 @@
         <v>112</v>
       </c>
       <c r="B165" s="19">
-        <v>9170</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
